--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,16 +439,16 @@
         <v>90.7</v>
       </c>
       <c r="D2" t="n">
-        <v>91.18000000000001</v>
+        <v>91.19</v>
       </c>
       <c r="E2" t="n">
         <v>90.7</v>
       </c>
       <c r="F2" t="n">
-        <v>591.6422</v>
+        <v>19787.096</v>
       </c>
       <c r="G2" t="n">
-        <v>90.59516666666667</v>
+        <v>90.607</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>90.7</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>90.7</v>
       </c>
       <c r="D3" t="n">
-        <v>90.7</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>90.7</v>
       </c>
       <c r="F3" t="n">
-        <v>344.0485</v>
+        <v>591.6422</v>
       </c>
       <c r="G3" t="n">
-        <v>90.5835</v>
+        <v>90.59516666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.69</v>
+        <v>90.7</v>
       </c>
       <c r="C4" t="n">
-        <v>90.69</v>
+        <v>90.7</v>
       </c>
       <c r="D4" t="n">
-        <v>90.69</v>
+        <v>90.7</v>
       </c>
       <c r="E4" t="n">
-        <v>90.69</v>
+        <v>90.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>344.0485</v>
       </c>
       <c r="G4" t="n">
-        <v>90.57166666666667</v>
+        <v>90.5835</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90.89</v>
+        <v>90.69</v>
       </c>
       <c r="C5" t="n">
-        <v>90.89</v>
+        <v>90.69</v>
       </c>
       <c r="D5" t="n">
-        <v>90.89</v>
+        <v>90.69</v>
       </c>
       <c r="E5" t="n">
-        <v>90.89</v>
+        <v>90.69</v>
       </c>
       <c r="F5" t="n">
-        <v>7.7017</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>90.56316666666667</v>
+        <v>90.57166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>90.68000000000001</v>
+        <v>90.89</v>
       </c>
       <c r="C6" t="n">
-        <v>90.40000000000001</v>
+        <v>90.89</v>
       </c>
       <c r="D6" t="n">
-        <v>90.68000000000001</v>
+        <v>90.89</v>
       </c>
       <c r="E6" t="n">
-        <v>90.40000000000001</v>
+        <v>90.89</v>
       </c>
       <c r="F6" t="n">
-        <v>450.0991</v>
+        <v>7.7017</v>
       </c>
       <c r="G6" t="n">
-        <v>90.54650000000001</v>
+        <v>90.56316666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89.81</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>89.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>89.81</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>89.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1631.9028</v>
+        <v>450.0991</v>
       </c>
       <c r="G7" t="n">
-        <v>90.51983333333335</v>
+        <v>90.54650000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90.3</v>
+        <v>89.81</v>
       </c>
       <c r="C8" t="n">
-        <v>90.3</v>
+        <v>89.8</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3</v>
+        <v>89.81</v>
       </c>
       <c r="E8" t="n">
-        <v>90.3</v>
+        <v>89.8</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>1631.9028</v>
       </c>
       <c r="G8" t="n">
-        <v>90.49333333333335</v>
+        <v>90.51983333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>90.3</v>
       </c>
       <c r="C9" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D9" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="E9" t="n">
         <v>90.3</v>
       </c>
       <c r="F9" t="n">
-        <v>23370</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>90.46850000000001</v>
+        <v>90.49333333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C10" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="C10" t="n">
-        <v>90.98999999999999</v>
-      </c>
       <c r="D10" t="n">
-        <v>91.09</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="F10" t="n">
-        <v>11142.4589</v>
+        <v>23370</v>
       </c>
       <c r="G10" t="n">
-        <v>90.45350000000001</v>
+        <v>90.46850000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C11" t="n">
         <v>90.98999999999999</v>
       </c>
-      <c r="C11" t="n">
-        <v>90.98</v>
-      </c>
       <c r="D11" t="n">
-        <v>90.98999999999999</v>
+        <v>91.09</v>
       </c>
       <c r="E11" t="n">
-        <v>90.98</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>824.5752</v>
+        <v>11142.4589</v>
       </c>
       <c r="G11" t="n">
-        <v>90.45366666666665</v>
+        <v>90.45350000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90.51000000000001</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>89.92</v>
+        <v>90.98</v>
       </c>
       <c r="D12" t="n">
-        <v>90.51000000000001</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>89.92</v>
+        <v>90.98</v>
       </c>
       <c r="F12" t="n">
-        <v>5596.6426</v>
+        <v>824.5752</v>
       </c>
       <c r="G12" t="n">
-        <v>90.43483333333332</v>
+        <v>90.45366666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89.92</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>89.92</v>
       </c>
       <c r="D13" t="n">
-        <v>89.92</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>89.92</v>
       </c>
       <c r="F13" t="n">
-        <v>17255.7251</v>
+        <v>5596.6426</v>
       </c>
       <c r="G13" t="n">
-        <v>90.41616666666665</v>
+        <v>90.43483333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.91</v>
+        <v>89.92</v>
       </c>
       <c r="C14" t="n">
-        <v>89.91</v>
+        <v>89.92</v>
       </c>
       <c r="D14" t="n">
-        <v>89.91</v>
+        <v>89.92</v>
       </c>
       <c r="E14" t="n">
-        <v>89.91</v>
+        <v>89.92</v>
       </c>
       <c r="F14" t="n">
-        <v>10144.2414</v>
+        <v>17255.7251</v>
       </c>
       <c r="G14" t="n">
-        <v>90.38666666666664</v>
+        <v>90.41616666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>89.91</v>
       </c>
       <c r="F15" t="n">
-        <v>404.7691</v>
+        <v>10144.2414</v>
       </c>
       <c r="G15" t="n">
-        <v>90.36383333333332</v>
+        <v>90.38666666666664</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>90.02</v>
+        <v>89.91</v>
       </c>
       <c r="C16" t="n">
-        <v>90.75</v>
+        <v>89.91</v>
       </c>
       <c r="D16" t="n">
-        <v>90.84999999999999</v>
+        <v>89.91</v>
       </c>
       <c r="E16" t="n">
-        <v>90.02</v>
+        <v>89.91</v>
       </c>
       <c r="F16" t="n">
-        <v>18651.156</v>
+        <v>404.7691</v>
       </c>
       <c r="G16" t="n">
-        <v>90.35499999999999</v>
+        <v>90.36383333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>90.79000000000001</v>
+        <v>90.02</v>
       </c>
       <c r="C17" t="n">
-        <v>90.79000000000001</v>
+        <v>90.75</v>
       </c>
       <c r="D17" t="n">
-        <v>90.79000000000001</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>90.79000000000001</v>
+        <v>90.02</v>
       </c>
       <c r="F17" t="n">
-        <v>140.6602</v>
+        <v>18651.156</v>
       </c>
       <c r="G17" t="n">
-        <v>90.37049999999999</v>
+        <v>90.35499999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>90.77</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>90.77</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>90.77</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>90.77</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>250.2379</v>
+        <v>140.6602</v>
       </c>
       <c r="G18" t="n">
-        <v>90.38983333333334</v>
+        <v>90.37049999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>90.91</v>
+        <v>90.77</v>
       </c>
       <c r="C19" t="n">
-        <v>90.91</v>
+        <v>90.77</v>
       </c>
       <c r="D19" t="n">
-        <v>90.91</v>
+        <v>90.77</v>
       </c>
       <c r="E19" t="n">
-        <v>90.91</v>
+        <v>90.77</v>
       </c>
       <c r="F19" t="n">
-        <v>7680.7692</v>
+        <v>250.2379</v>
       </c>
       <c r="G19" t="n">
-        <v>90.39866666666667</v>
+        <v>90.38983333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>90.97</v>
+        <v>90.91</v>
       </c>
       <c r="C20" t="n">
-        <v>90.97</v>
+        <v>90.91</v>
       </c>
       <c r="D20" t="n">
-        <v>90.97</v>
+        <v>90.91</v>
       </c>
       <c r="E20" t="n">
-        <v>90.97</v>
+        <v>90.91</v>
       </c>
       <c r="F20" t="n">
-        <v>4514.9454</v>
+        <v>7680.7692</v>
       </c>
       <c r="G20" t="n">
-        <v>90.41966666666667</v>
+        <v>90.39866666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>90.98999999999999</v>
+        <v>90.97</v>
       </c>
       <c r="C21" t="n">
-        <v>90.98999999999999</v>
+        <v>90.97</v>
       </c>
       <c r="D21" t="n">
-        <v>90.98999999999999</v>
+        <v>90.97</v>
       </c>
       <c r="E21" t="n">
-        <v>90.98999999999999</v>
+        <v>90.97</v>
       </c>
       <c r="F21" t="n">
-        <v>1359.6813</v>
+        <v>4514.9454</v>
       </c>
       <c r="G21" t="n">
-        <v>90.43933333333332</v>
+        <v>90.41966666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.53</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>90.53</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>90.53</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>90.53</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>13383.615</v>
+        <v>1359.6813</v>
       </c>
       <c r="G22" t="n">
-        <v>90.45133333333332</v>
+        <v>90.43933333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>90.53</v>
       </c>
       <c r="F23" t="n">
-        <v>1130.3391</v>
+        <v>13383.615</v>
       </c>
       <c r="G23" t="n">
-        <v>90.46716666666664</v>
+        <v>90.45133333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>90.95999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="C24" t="n">
-        <v>90.95999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="D24" t="n">
-        <v>90.95999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="E24" t="n">
-        <v>90.95999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="F24" t="n">
-        <v>1700</v>
+        <v>1130.3391</v>
       </c>
       <c r="G24" t="n">
-        <v>90.48016666666665</v>
+        <v>90.46716666666664</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>90.51000000000001</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>90.42</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>90.51000000000001</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>90.42</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>1387.1503</v>
+        <v>1700</v>
       </c>
       <c r="G25" t="n">
-        <v>90.48549999999997</v>
+        <v>90.48016666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>90.5</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>90.42</v>
       </c>
       <c r="D26" t="n">
-        <v>90.5</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>90.42</v>
       </c>
       <c r="F26" t="n">
-        <v>5095.6806</v>
+        <v>1387.1503</v>
       </c>
       <c r="G26" t="n">
-        <v>90.49066666666664</v>
+        <v>90.48549999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>90.42</v>
+        <v>90.5</v>
       </c>
       <c r="C27" t="n">
         <v>90.42</v>
       </c>
       <c r="D27" t="n">
-        <v>90.42</v>
+        <v>90.5</v>
       </c>
       <c r="E27" t="n">
         <v>90.42</v>
       </c>
       <c r="F27" t="n">
-        <v>599.6552</v>
+        <v>5095.6806</v>
       </c>
       <c r="G27" t="n">
-        <v>90.49899999999998</v>
+        <v>90.49066666666664</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>90.13</v>
+        <v>90.42</v>
       </c>
       <c r="C28" t="n">
-        <v>89.34</v>
+        <v>90.42</v>
       </c>
       <c r="D28" t="n">
-        <v>90.13</v>
+        <v>90.42</v>
       </c>
       <c r="E28" t="n">
-        <v>89.34</v>
+        <v>90.42</v>
       </c>
       <c r="F28" t="n">
-        <v>63799.3349</v>
+        <v>599.6552</v>
       </c>
       <c r="G28" t="n">
-        <v>90.48933333333331</v>
+        <v>90.49899999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89.54000000000001</v>
+        <v>90.13</v>
       </c>
       <c r="C29" t="n">
-        <v>89.33</v>
+        <v>89.34</v>
       </c>
       <c r="D29" t="n">
-        <v>89.54000000000001</v>
+        <v>90.13</v>
       </c>
       <c r="E29" t="n">
-        <v>89.33</v>
+        <v>89.34</v>
       </c>
       <c r="F29" t="n">
-        <v>29371.005</v>
+        <v>63799.3349</v>
       </c>
       <c r="G29" t="n">
-        <v>90.48733333333331</v>
+        <v>90.48933333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.33</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>89.33</v>
       </c>
       <c r="D30" t="n">
-        <v>89.33</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>89.33</v>
       </c>
       <c r="F30" t="n">
-        <v>1672.164</v>
+        <v>29371.005</v>
       </c>
       <c r="G30" t="n">
-        <v>90.47749999999998</v>
+        <v>90.48733333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>89.33</v>
       </c>
       <c r="F31" t="n">
-        <v>14003.926</v>
+        <v>1672.164</v>
       </c>
       <c r="G31" t="n">
-        <v>90.46766666666664</v>
+        <v>90.47749999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>89.33</v>
       </c>
       <c r="C32" t="n">
-        <v>89.25</v>
+        <v>89.33</v>
       </c>
       <c r="D32" t="n">
         <v>89.33</v>
       </c>
       <c r="E32" t="n">
-        <v>89.25</v>
+        <v>89.33</v>
       </c>
       <c r="F32" t="n">
-        <v>5375.2604</v>
+        <v>14003.926</v>
       </c>
       <c r="G32" t="n">
-        <v>90.45649999999998</v>
+        <v>90.46766666666664</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>88.95999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="C33" t="n">
-        <v>88.95999999999999</v>
+        <v>89.25</v>
       </c>
       <c r="D33" t="n">
-        <v>88.95999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="E33" t="n">
-        <v>88.95999999999999</v>
+        <v>89.25</v>
       </c>
       <c r="F33" t="n">
-        <v>63871.4122</v>
+        <v>5375.2604</v>
       </c>
       <c r="G33" t="n">
-        <v>90.44049999999997</v>
+        <v>90.45649999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>89.58</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>89.58</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>89.58</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>89.58</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>610</v>
+        <v>63871.4122</v>
       </c>
       <c r="G34" t="n">
-        <v>90.4263333333333</v>
+        <v>90.44049999999997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>89.90000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>89.58</v>
       </c>
       <c r="D35" t="n">
-        <v>90</v>
+        <v>89.58</v>
       </c>
       <c r="E35" t="n">
-        <v>89.90000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="F35" t="n">
-        <v>7204.5607</v>
+        <v>610</v>
       </c>
       <c r="G35" t="n">
-        <v>90.41916666666663</v>
+        <v>90.4263333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>90.13</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>90.13</v>
+        <v>90</v>
       </c>
       <c r="D36" t="n">
-        <v>90.13</v>
+        <v>90</v>
       </c>
       <c r="E36" t="n">
-        <v>90.13</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>1157.6734</v>
+        <v>7204.5607</v>
       </c>
       <c r="G36" t="n">
-        <v>90.41416666666663</v>
+        <v>90.41916666666663</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>89.5</v>
+        <v>90.13</v>
       </c>
       <c r="C37" t="n">
-        <v>89.45</v>
+        <v>90.13</v>
       </c>
       <c r="D37" t="n">
-        <v>89.5</v>
+        <v>90.13</v>
       </c>
       <c r="E37" t="n">
-        <v>89.45</v>
+        <v>90.13</v>
       </c>
       <c r="F37" t="n">
-        <v>1002.2344</v>
+        <v>1157.6734</v>
       </c>
       <c r="G37" t="n">
-        <v>90.39783333333328</v>
+        <v>90.41416666666663</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>89.41</v>
+        <v>89.5</v>
       </c>
       <c r="C38" t="n">
-        <v>89.41</v>
+        <v>89.45</v>
       </c>
       <c r="D38" t="n">
-        <v>89.41</v>
+        <v>89.5</v>
       </c>
       <c r="E38" t="n">
-        <v>89.41</v>
+        <v>89.45</v>
       </c>
       <c r="F38" t="n">
-        <v>20000</v>
+        <v>1002.2344</v>
       </c>
       <c r="G38" t="n">
-        <v>90.38916666666661</v>
+        <v>90.39783333333328</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>89.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="C39" t="n">
-        <v>89.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="D39" t="n">
-        <v>89.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="E39" t="n">
-        <v>89.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="F39" t="n">
-        <v>1096.1235</v>
+        <v>20000</v>
       </c>
       <c r="G39" t="n">
-        <v>90.38133333333329</v>
+        <v>90.38916666666661</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>89.18000000000001</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>89.18000000000001</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>89.18000000000001</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>89.18000000000001</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>1096.1235</v>
       </c>
       <c r="G40" t="n">
-        <v>90.37066666666664</v>
+        <v>90.38133333333329</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>88.93000000000001</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>88.81999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>88.93000000000001</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>88.81999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>49924.8146</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="n">
-        <v>90.35399999999997</v>
+        <v>90.37066666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>89.2</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>89.2</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>89.2</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>89.2</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>19.2853</v>
+        <v>49924.8146</v>
       </c>
       <c r="G42" t="n">
-        <v>90.3353333333333</v>
+        <v>90.35399999999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.18000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="C43" t="n">
-        <v>89.18000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D43" t="n">
-        <v>89.18000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E43" t="n">
-        <v>89.18000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>19.2853</v>
       </c>
       <c r="G43" t="n">
-        <v>90.3068333333333</v>
+        <v>90.3353333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.09999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>89.09999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>89.09999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>89.09999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>1287.7782</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="n">
-        <v>90.28849999999997</v>
+        <v>90.3068333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89.13</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C45" t="n">
         <v>89.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>89.13</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>89.09999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>47952.8068</v>
+        <v>1287.7782</v>
       </c>
       <c r="G45" t="n">
-        <v>90.27016666666665</v>
+        <v>90.28849999999997</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89.22</v>
+        <v>89.13</v>
       </c>
       <c r="C46" t="n">
         <v>89.09999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>89.22</v>
+        <v>89.13</v>
       </c>
       <c r="E46" t="n">
         <v>89.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>7708.4373</v>
+        <v>47952.8068</v>
       </c>
       <c r="G46" t="n">
-        <v>90.24849999999999</v>
+        <v>90.27016666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88.8</v>
+        <v>89.22</v>
       </c>
       <c r="C47" t="n">
-        <v>88.70999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>88.8</v>
+        <v>89.22</v>
       </c>
       <c r="E47" t="n">
-        <v>88.70999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>7201.3049</v>
+        <v>7708.4373</v>
       </c>
       <c r="G47" t="n">
-        <v>90.22033333333334</v>
+        <v>90.24849999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>88.15000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="C48" t="n">
-        <v>88</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>88.15000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="E48" t="n">
-        <v>88</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>16000</v>
+        <v>7201.3049</v>
       </c>
       <c r="G48" t="n">
-        <v>90.17866666666667</v>
+        <v>90.22033333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>88.3</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>88.3</v>
+        <v>88</v>
       </c>
       <c r="D49" t="n">
-        <v>88.3</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>88.3</v>
+        <v>88</v>
       </c>
       <c r="F49" t="n">
-        <v>4363.154</v>
+        <v>16000</v>
       </c>
       <c r="G49" t="n">
-        <v>90.14366666666668</v>
+        <v>90.17866666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>88.86</v>
+        <v>88.3</v>
       </c>
       <c r="C50" t="n">
-        <v>88.86</v>
+        <v>88.3</v>
       </c>
       <c r="D50" t="n">
-        <v>88.86</v>
+        <v>88.3</v>
       </c>
       <c r="E50" t="n">
-        <v>88.86</v>
+        <v>88.3</v>
       </c>
       <c r="F50" t="n">
-        <v>13019.3752</v>
+        <v>4363.154</v>
       </c>
       <c r="G50" t="n">
-        <v>90.11800000000001</v>
+        <v>90.14366666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>88.86</v>
       </c>
       <c r="C51" t="n">
-        <v>88.2</v>
+        <v>88.86</v>
       </c>
       <c r="D51" t="n">
         <v>88.86</v>
       </c>
       <c r="E51" t="n">
-        <v>88.2</v>
+        <v>88.86</v>
       </c>
       <c r="F51" t="n">
-        <v>1000.2808</v>
+        <v>13019.3752</v>
       </c>
       <c r="G51" t="n">
-        <v>90.078</v>
+        <v>90.11800000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>88.59999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="C52" t="n">
-        <v>88.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="D52" t="n">
-        <v>88.59999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="E52" t="n">
-        <v>88.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3629.1709</v>
+        <v>1000.2808</v>
       </c>
       <c r="G52" t="n">
-        <v>90.04333333333334</v>
+        <v>90.078</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>88.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>88</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>88.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>88</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>18980</v>
+        <v>3629.1709</v>
       </c>
       <c r="G53" t="n">
-        <v>89.99150000000002</v>
+        <v>90.04333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C54" t="n">
         <v>88</v>
       </c>
-      <c r="C54" t="n">
-        <v>87.95999999999999</v>
-      </c>
       <c r="D54" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E54" t="n">
         <v>88</v>
       </c>
-      <c r="E54" t="n">
-        <v>87.95999999999999</v>
-      </c>
       <c r="F54" t="n">
-        <v>4158.0137</v>
+        <v>18980</v>
       </c>
       <c r="G54" t="n">
-        <v>89.935</v>
+        <v>89.99150000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="C55" t="n">
-        <v>87.40000000000001</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="E55" t="n">
-        <v>87.40000000000001</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>54990.4928</v>
+        <v>4158.0137</v>
       </c>
       <c r="G55" t="n">
-        <v>89.869</v>
+        <v>89.935</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>87.98999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C56" t="n">
-        <v>87.98999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>87.98999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="E56" t="n">
-        <v>87.98999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>550.096601886578</v>
+        <v>54990.4928</v>
       </c>
       <c r="G56" t="n">
-        <v>89.813</v>
+        <v>89.869</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>88.3</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>88.39</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>88.39</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>88.3</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>11313.68243857902</v>
+        <v>550.096601886578</v>
       </c>
       <c r="G57" t="n">
-        <v>89.76366666666667</v>
+        <v>89.813</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>88.44</v>
+        <v>88.3</v>
       </c>
       <c r="C58" t="n">
-        <v>88.44</v>
+        <v>88.39</v>
       </c>
       <c r="D58" t="n">
-        <v>88.44</v>
+        <v>88.39</v>
       </c>
       <c r="E58" t="n">
-        <v>88.44</v>
+        <v>88.3</v>
       </c>
       <c r="F58" t="n">
-        <v>19998.7111</v>
+        <v>11313.68243857902</v>
       </c>
       <c r="G58" t="n">
-        <v>89.71516666666665</v>
+        <v>89.76366666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>88.56999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="C59" t="n">
-        <v>88.56999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="D59" t="n">
-        <v>88.56999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="E59" t="n">
-        <v>88.56999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>19998.7111</v>
       </c>
       <c r="G59" t="n">
-        <v>89.66883333333331</v>
+        <v>89.71516666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>88.56999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>88.61</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>88.61</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="E60" t="n">
         <v>88.56999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>89.63066666666664</v>
+        <v>89.66883333333331</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>88.73</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>88.73</v>
+        <v>88.61</v>
       </c>
       <c r="D61" t="n">
-        <v>88.73</v>
+        <v>88.61</v>
       </c>
       <c r="E61" t="n">
-        <v>88.73</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>534.723</v>
+        <v>31</v>
       </c>
       <c r="G61" t="n">
-        <v>89.5978333333333</v>
+        <v>89.63066666666664</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>88.09999999999999</v>
+        <v>88.73</v>
       </c>
       <c r="C62" t="n">
-        <v>88.09999999999999</v>
+        <v>88.73</v>
       </c>
       <c r="D62" t="n">
-        <v>88.09999999999999</v>
+        <v>88.73</v>
       </c>
       <c r="E62" t="n">
-        <v>88.09999999999999</v>
+        <v>88.73</v>
       </c>
       <c r="F62" t="n">
-        <v>22.37</v>
+        <v>534.723</v>
       </c>
       <c r="G62" t="n">
-        <v>89.55449999999998</v>
+        <v>89.5978333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>88.09999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>2300</v>
+        <v>22.37</v>
       </c>
       <c r="G63" t="n">
-        <v>89.51116666666665</v>
+        <v>89.55449999999998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>88.09999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>10000</v>
+        <v>2300</v>
       </c>
       <c r="G64" t="n">
-        <v>89.468</v>
+        <v>89.51116666666665</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>88.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>750</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>89.42149999999999</v>
+        <v>89.468</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>88.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>88.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>88.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>88.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>2645.3924</v>
+        <v>750</v>
       </c>
       <c r="G66" t="n">
-        <v>89.38650000000001</v>
+        <v>89.42149999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>88.3</v>
       </c>
       <c r="C67" t="n">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="D67" t="n">
         <v>88.3</v>
       </c>
       <c r="E67" t="n">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="F67" t="n">
-        <v>5350</v>
+        <v>2645.3924</v>
       </c>
       <c r="G67" t="n">
-        <v>89.35816666666668</v>
+        <v>89.38650000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="C68" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="E68" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>1136.4656</v>
+        <v>5350</v>
       </c>
       <c r="G68" t="n">
-        <v>89.32316666666667</v>
+        <v>89.35816666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="C69" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="D69" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="E69" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="F69" t="n">
-        <v>5690.7751</v>
+        <v>1136.4656</v>
       </c>
       <c r="G69" t="n">
-        <v>89.28983333333333</v>
+        <v>89.32316666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>88.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1149.8564</v>
+        <v>5690.7751</v>
       </c>
       <c r="G70" t="n">
-        <v>89.24666666666667</v>
+        <v>89.28983333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>88.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>3159.3685</v>
+        <v>1149.8564</v>
       </c>
       <c r="G71" t="n">
-        <v>89.20366666666668</v>
+        <v>89.24666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>7056.2642</v>
+        <v>3159.3685</v>
       </c>
       <c r="G72" t="n">
-        <v>89.17166666666667</v>
+        <v>89.20366666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C73" t="n">
         <v>88</v>
       </c>
-      <c r="C73" t="n">
-        <v>87.84999999999999</v>
-      </c>
       <c r="D73" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E73" t="n">
         <v>88</v>
       </c>
-      <c r="E73" t="n">
-        <v>87.84999999999999</v>
-      </c>
       <c r="F73" t="n">
-        <v>19385.5645</v>
+        <v>7056.2642</v>
       </c>
       <c r="G73" t="n">
-        <v>89.13716666666667</v>
+        <v>89.17166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="C74" t="n">
-        <v>87.8</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="E74" t="n">
-        <v>87.8</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>11820</v>
+        <v>19385.5645</v>
       </c>
       <c r="G74" t="n">
-        <v>89.10200000000002</v>
+        <v>89.13716666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C75" t="n">
         <v>87.8</v>
       </c>
-      <c r="C75" t="n">
-        <v>87.40000000000001</v>
-      </c>
       <c r="D75" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E75" t="n">
         <v>87.8</v>
       </c>
-      <c r="E75" t="n">
-        <v>87.40000000000001</v>
-      </c>
       <c r="F75" t="n">
-        <v>23000.0001</v>
+        <v>11820</v>
       </c>
       <c r="G75" t="n">
-        <v>89.06016666666667</v>
+        <v>89.10200000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>88.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C76" t="n">
-        <v>88.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>88.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="E76" t="n">
-        <v>88.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>4545.7495</v>
+        <v>23000.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>89.01600000000002</v>
+        <v>89.06016666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>87.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>87.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>87.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>87.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>550.0966</v>
+        <v>4545.7495</v>
       </c>
       <c r="G77" t="n">
-        <v>88.96116666666668</v>
+        <v>89.01600000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>87.44</v>
+        <v>87.5</v>
       </c>
       <c r="C78" t="n">
-        <v>87.42</v>
+        <v>87.5</v>
       </c>
       <c r="D78" t="n">
-        <v>87.44</v>
+        <v>87.5</v>
       </c>
       <c r="E78" t="n">
-        <v>87.42</v>
+        <v>87.5</v>
       </c>
       <c r="F78" t="n">
-        <v>6000</v>
+        <v>550.0966</v>
       </c>
       <c r="G78" t="n">
-        <v>88.90533333333335</v>
+        <v>88.96116666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>87.42</v>
+        <v>87.44</v>
       </c>
       <c r="C79" t="n">
         <v>87.42</v>
       </c>
       <c r="D79" t="n">
-        <v>87.42</v>
+        <v>87.44</v>
       </c>
       <c r="E79" t="n">
         <v>87.42</v>
       </c>
       <c r="F79" t="n">
-        <v>3846.836</v>
+        <v>6000</v>
       </c>
       <c r="G79" t="n">
-        <v>88.84716666666668</v>
+        <v>88.90533333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>87.43000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="C80" t="n">
-        <v>87.43000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="D80" t="n">
-        <v>87.43000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="E80" t="n">
-        <v>87.43000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="F80" t="n">
-        <v>22900</v>
+        <v>3846.836</v>
       </c>
       <c r="G80" t="n">
-        <v>88.78816666666668</v>
+        <v>88.84716666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>87.5</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>87.5</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>87.5</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>87.5</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>74739.7678</v>
+        <v>22900</v>
       </c>
       <c r="G81" t="n">
-        <v>88.73000000000002</v>
+        <v>88.78816666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87.42</v>
+        <v>87.5</v>
       </c>
       <c r="C82" t="n">
-        <v>87.42</v>
+        <v>87.5</v>
       </c>
       <c r="D82" t="n">
-        <v>87.42</v>
+        <v>87.5</v>
       </c>
       <c r="E82" t="n">
-        <v>87.42</v>
+        <v>87.5</v>
       </c>
       <c r="F82" t="n">
-        <v>3242.1654</v>
+        <v>74739.7678</v>
       </c>
       <c r="G82" t="n">
-        <v>88.67816666666668</v>
+        <v>88.73000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>87.42</v>
       </c>
       <c r="C83" t="n">
-        <v>87.39</v>
+        <v>87.42</v>
       </c>
       <c r="D83" t="n">
         <v>87.42</v>
       </c>
       <c r="E83" t="n">
-        <v>87.39</v>
+        <v>87.42</v>
       </c>
       <c r="F83" t="n">
-        <v>11140</v>
+        <v>3242.1654</v>
       </c>
       <c r="G83" t="n">
-        <v>88.62583333333336</v>
+        <v>88.67816666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>87.39</v>
+        <v>87.42</v>
       </c>
       <c r="C84" t="n">
         <v>87.39</v>
       </c>
       <c r="D84" t="n">
-        <v>87.39</v>
+        <v>87.42</v>
       </c>
       <c r="E84" t="n">
         <v>87.39</v>
       </c>
       <c r="F84" t="n">
-        <v>1082.6088</v>
+        <v>11140</v>
       </c>
       <c r="G84" t="n">
-        <v>88.56633333333338</v>
+        <v>88.62583333333336</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>87.3</v>
+        <v>87.39</v>
       </c>
       <c r="C85" t="n">
-        <v>87.3</v>
+        <v>87.39</v>
       </c>
       <c r="D85" t="n">
-        <v>87.3</v>
+        <v>87.39</v>
       </c>
       <c r="E85" t="n">
-        <v>87.3</v>
+        <v>87.39</v>
       </c>
       <c r="F85" t="n">
-        <v>150</v>
+        <v>1082.6088</v>
       </c>
       <c r="G85" t="n">
-        <v>88.51433333333337</v>
+        <v>88.56633333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="C86" t="n">
-        <v>87.05</v>
+        <v>87.3</v>
       </c>
       <c r="D86" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="E86" t="n">
-        <v>87.05</v>
+        <v>87.3</v>
       </c>
       <c r="F86" t="n">
-        <v>4150</v>
+        <v>150</v>
       </c>
       <c r="G86" t="n">
-        <v>88.45816666666671</v>
+        <v>88.51433333333337</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>87.03</v>
+        <v>87.2</v>
       </c>
       <c r="C87" t="n">
-        <v>86.98999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="D87" t="n">
-        <v>87.03</v>
+        <v>87.2</v>
       </c>
       <c r="E87" t="n">
-        <v>86.98999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="F87" t="n">
-        <v>13074.4027</v>
+        <v>4150</v>
       </c>
       <c r="G87" t="n">
-        <v>88.40100000000004</v>
+        <v>88.45816666666671</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>86.98</v>
+        <v>87.03</v>
       </c>
       <c r="C88" t="n">
-        <v>86.84999999999999</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>86.98</v>
+        <v>87.03</v>
       </c>
       <c r="E88" t="n">
-        <v>86.84999999999999</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>40349.6129</v>
+        <v>13074.4027</v>
       </c>
       <c r="G88" t="n">
-        <v>88.35950000000004</v>
+        <v>88.40100000000004</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,32 +3478,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>86.84</v>
+        <v>86.98</v>
       </c>
       <c r="C89" t="n">
-        <v>86.84</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>86.84</v>
+        <v>86.98</v>
       </c>
       <c r="E89" t="n">
-        <v>86.84</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>15.2072</v>
+        <v>40349.6129</v>
       </c>
       <c r="G89" t="n">
-        <v>88.31800000000004</v>
+        <v>88.35950000000004</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>86.98999999999999</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3519,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>87.05</v>
+        <v>86.84</v>
       </c>
       <c r="C90" t="n">
-        <v>87.05</v>
+        <v>86.84</v>
       </c>
       <c r="D90" t="n">
-        <v>87.05</v>
+        <v>86.84</v>
       </c>
       <c r="E90" t="n">
-        <v>87.05</v>
+        <v>86.84</v>
       </c>
       <c r="F90" t="n">
-        <v>63.1821</v>
+        <v>15.2072</v>
       </c>
       <c r="G90" t="n">
-        <v>88.28000000000004</v>
+        <v>88.31800000000004</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3544,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3558,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>86.84</v>
+        <v>87.05</v>
       </c>
       <c r="C91" t="n">
-        <v>86.84</v>
+        <v>87.05</v>
       </c>
       <c r="D91" t="n">
-        <v>86.84</v>
+        <v>87.05</v>
       </c>
       <c r="E91" t="n">
-        <v>86.84</v>
+        <v>87.05</v>
       </c>
       <c r="F91" t="n">
-        <v>4081.7924</v>
+        <v>63.1821</v>
       </c>
       <c r="G91" t="n">
-        <v>88.23850000000006</v>
+        <v>88.28000000000004</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3583,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3586,19 +3600,19 @@
         <v>86.84</v>
       </c>
       <c r="C92" t="n">
-        <v>87.05</v>
+        <v>86.84</v>
       </c>
       <c r="D92" t="n">
-        <v>87.05</v>
+        <v>86.84</v>
       </c>
       <c r="E92" t="n">
-        <v>86.81999999999999</v>
+        <v>86.84</v>
       </c>
       <c r="F92" t="n">
-        <v>832.3414</v>
+        <v>4081.7924</v>
       </c>
       <c r="G92" t="n">
-        <v>88.20183333333338</v>
+        <v>88.23850000000006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3622,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,32 +3636,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86.90000000000001</v>
+        <v>86.84</v>
       </c>
       <c r="C93" t="n">
-        <v>87.48</v>
+        <v>87.05</v>
       </c>
       <c r="D93" t="n">
-        <v>87.48</v>
+        <v>87.05</v>
       </c>
       <c r="E93" t="n">
-        <v>86.8</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>11269.5005</v>
+        <v>832.3414</v>
       </c>
       <c r="G93" t="n">
-        <v>88.17716666666671</v>
+        <v>88.20183333333338</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>86.84</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,32 +3677,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>87.25</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>87.25</v>
+        <v>87.48</v>
       </c>
       <c r="D94" t="n">
-        <v>87.25</v>
+        <v>87.48</v>
       </c>
       <c r="E94" t="n">
-        <v>87.25</v>
+        <v>86.8</v>
       </c>
       <c r="F94" t="n">
-        <v>360</v>
+        <v>11269.5005</v>
       </c>
       <c r="G94" t="n">
-        <v>88.13833333333338</v>
+        <v>88.17716666666671</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,32 +3718,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>87.37</v>
+        <v>87.25</v>
       </c>
       <c r="C95" t="n">
-        <v>86.61</v>
+        <v>87.25</v>
       </c>
       <c r="D95" t="n">
-        <v>87.37</v>
+        <v>87.25</v>
       </c>
       <c r="E95" t="n">
-        <v>86.61</v>
+        <v>87.25</v>
       </c>
       <c r="F95" t="n">
-        <v>39294.897</v>
+        <v>360</v>
       </c>
       <c r="G95" t="n">
-        <v>88.08183333333338</v>
+        <v>88.13833333333338</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>87.48</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3759,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>87.3</v>
+        <v>87.37</v>
       </c>
       <c r="C96" t="n">
-        <v>87.3</v>
+        <v>86.61</v>
       </c>
       <c r="D96" t="n">
-        <v>87.3</v>
+        <v>87.37</v>
       </c>
       <c r="E96" t="n">
-        <v>87.3</v>
+        <v>86.61</v>
       </c>
       <c r="F96" t="n">
-        <v>364.4947</v>
+        <v>39294.897</v>
       </c>
       <c r="G96" t="n">
-        <v>88.03466666666671</v>
+        <v>88.08183333333338</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -3747,12 +3783,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>86.61</v>
-      </c>
-      <c r="K96" t="n">
-        <v>86.61</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
+        <v>87.25</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3762,22 +3800,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>87.19</v>
+        <v>87.3</v>
       </c>
       <c r="C97" t="n">
-        <v>87.01000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="D97" t="n">
-        <v>87.56</v>
+        <v>87.3</v>
       </c>
       <c r="E97" t="n">
-        <v>87.01000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="F97" t="n">
-        <v>23345.71608040201</v>
+        <v>364.4947</v>
       </c>
       <c r="G97" t="n">
-        <v>87.99400000000006</v>
+        <v>88.03466666666671</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3786,12 +3824,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>86.61</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -3803,22 +3839,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>87.09999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="C98" t="n">
-        <v>87.09999999999999</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>87.09999999999999</v>
+        <v>87.56</v>
       </c>
       <c r="E98" t="n">
-        <v>87.09999999999999</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>7126.9999</v>
+        <v>23345.71608040201</v>
       </c>
       <c r="G98" t="n">
-        <v>87.95550000000006</v>
+        <v>87.99400000000006</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3827,12 +3863,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>86.61</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -3844,22 +3878,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>87.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>87.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>87.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>87.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>7126.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>87.91966666666671</v>
+        <v>87.95550000000006</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3869,7 +3903,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +3917,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>87.69</v>
+        <v>87.2</v>
       </c>
       <c r="C100" t="n">
-        <v>87.79000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="D100" t="n">
-        <v>87.79000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="E100" t="n">
-        <v>87.69</v>
+        <v>87.2</v>
       </c>
       <c r="F100" t="n">
-        <v>1139.491969472605</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>87.89650000000005</v>
+        <v>87.91966666666671</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3904,7 +3942,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +3956,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>87.72</v>
+        <v>87.69</v>
       </c>
       <c r="C101" t="n">
-        <v>87.72</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>87.72</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>87.72</v>
+        <v>87.69</v>
       </c>
       <c r="F101" t="n">
-        <v>5000</v>
+        <v>1139.491969472605</v>
       </c>
       <c r="G101" t="n">
-        <v>87.87816666666671</v>
+        <v>87.89650000000005</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3939,7 +3981,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3949,22 +3995,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>87.2</v>
+        <v>87.72</v>
       </c>
       <c r="C102" t="n">
-        <v>87.2</v>
+        <v>87.72</v>
       </c>
       <c r="D102" t="n">
-        <v>87.2</v>
+        <v>87.72</v>
       </c>
       <c r="E102" t="n">
-        <v>87.2</v>
+        <v>87.72</v>
       </c>
       <c r="F102" t="n">
-        <v>190.1165</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="n">
-        <v>87.84483333333338</v>
+        <v>87.87816666666671</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3974,7 +4020,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3987,19 +4037,19 @@
         <v>87.2</v>
       </c>
       <c r="C103" t="n">
-        <v>87.77</v>
+        <v>87.2</v>
       </c>
       <c r="D103" t="n">
-        <v>87.77</v>
+        <v>87.2</v>
       </c>
       <c r="E103" t="n">
         <v>87.2</v>
       </c>
       <c r="F103" t="n">
-        <v>10000</v>
+        <v>190.1165</v>
       </c>
       <c r="G103" t="n">
-        <v>87.82133333333338</v>
+        <v>87.84483333333338</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4009,7 +4059,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +4073,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>87.78</v>
+        <v>87.2</v>
       </c>
       <c r="C104" t="n">
-        <v>87.78</v>
+        <v>87.77</v>
       </c>
       <c r="D104" t="n">
-        <v>87.78</v>
+        <v>87.77</v>
       </c>
       <c r="E104" t="n">
-        <v>87.78</v>
+        <v>87.2</v>
       </c>
       <c r="F104" t="n">
-        <v>19200</v>
+        <v>10000</v>
       </c>
       <c r="G104" t="n">
-        <v>87.79933333333338</v>
+        <v>87.82133333333338</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4044,7 +4098,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4066,10 +4124,10 @@
         <v>87.78</v>
       </c>
       <c r="F105" t="n">
-        <v>3136.8061</v>
+        <v>19200</v>
       </c>
       <c r="G105" t="n">
-        <v>87.77733333333337</v>
+        <v>87.79933333333338</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4079,7 +4137,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4101,10 +4163,10 @@
         <v>87.78</v>
       </c>
       <c r="F106" t="n">
-        <v>702.1493</v>
+        <v>3136.8061</v>
       </c>
       <c r="G106" t="n">
-        <v>87.75533333333335</v>
+        <v>87.77733333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4114,7 +4176,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4136,10 +4202,10 @@
         <v>87.78</v>
       </c>
       <c r="F107" t="n">
-        <v>613.7361</v>
+        <v>702.1493</v>
       </c>
       <c r="G107" t="n">
-        <v>87.73983333333335</v>
+        <v>87.75533333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4149,7 +4215,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4159,22 +4229,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>87.81999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="C108" t="n">
-        <v>87.81999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="D108" t="n">
-        <v>87.81999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="E108" t="n">
-        <v>87.81999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="F108" t="n">
-        <v>11.387</v>
+        <v>613.7361</v>
       </c>
       <c r="G108" t="n">
-        <v>87.73683333333335</v>
+        <v>87.73983333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4184,7 +4254,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4194,22 +4268,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>88.52</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>88.52</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>88.52</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>88.52</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>361.0662</v>
+        <v>11.387</v>
       </c>
       <c r="G109" t="n">
-        <v>87.74050000000003</v>
+        <v>87.73683333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4219,7 +4293,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4241,10 +4319,10 @@
         <v>88.52</v>
       </c>
       <c r="F110" t="n">
-        <v>3221.8665</v>
+        <v>361.0662</v>
       </c>
       <c r="G110" t="n">
-        <v>87.73483333333337</v>
+        <v>87.74050000000003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4254,7 +4332,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4264,7 +4346,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>88.47</v>
+        <v>88.52</v>
       </c>
       <c r="C111" t="n">
         <v>88.52</v>
@@ -4273,13 +4355,13 @@
         <v>88.52</v>
       </c>
       <c r="E111" t="n">
-        <v>88.47</v>
+        <v>88.52</v>
       </c>
       <c r="F111" t="n">
-        <v>7495.5853</v>
+        <v>3221.8665</v>
       </c>
       <c r="G111" t="n">
-        <v>87.74016666666671</v>
+        <v>87.73483333333337</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4289,7 +4371,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4299,22 +4385,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>88.89</v>
+        <v>88.47</v>
       </c>
       <c r="C112" t="n">
-        <v>88.89</v>
+        <v>88.52</v>
       </c>
       <c r="D112" t="n">
-        <v>88.89</v>
+        <v>88.52</v>
       </c>
       <c r="E112" t="n">
-        <v>88.89</v>
+        <v>88.47</v>
       </c>
       <c r="F112" t="n">
-        <v>517.4899</v>
+        <v>7495.5853</v>
       </c>
       <c r="G112" t="n">
-        <v>87.74500000000005</v>
+        <v>87.74016666666671</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4324,7 +4410,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +4424,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>88.72</v>
+        <v>88.89</v>
       </c>
       <c r="C113" t="n">
-        <v>88.8</v>
+        <v>88.89</v>
       </c>
       <c r="D113" t="n">
-        <v>88.8</v>
+        <v>88.89</v>
       </c>
       <c r="E113" t="n">
-        <v>88.72</v>
+        <v>88.89</v>
       </c>
       <c r="F113" t="n">
-        <v>50000</v>
+        <v>517.4899</v>
       </c>
       <c r="G113" t="n">
-        <v>87.75833333333338</v>
+        <v>87.74500000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4359,7 +4449,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4369,22 +4463,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>88.3</v>
+        <v>88.72</v>
       </c>
       <c r="C114" t="n">
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="D114" t="n">
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="E114" t="n">
-        <v>88.3</v>
+        <v>88.72</v>
       </c>
       <c r="F114" t="n">
-        <v>181.3861</v>
+        <v>50000</v>
       </c>
       <c r="G114" t="n">
-        <v>87.76400000000005</v>
+        <v>87.75833333333338</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4394,7 +4488,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4416,20 +4514,24 @@
         <v>88.3</v>
       </c>
       <c r="F115" t="n">
-        <v>430.7298</v>
+        <v>181.3861</v>
       </c>
       <c r="G115" t="n">
-        <v>87.77900000000005</v>
+        <v>87.76400000000005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4439,22 +4541,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C116" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="D116" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="E116" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F116" t="n">
-        <v>1096.5625</v>
+        <v>430.7298</v>
       </c>
       <c r="G116" t="n">
-        <v>87.78583333333339</v>
+        <v>87.77900000000005</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4464,7 +4566,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4474,63 +4580,65 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>88.88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>88.88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>88.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>5097.6894</v>
+        <v>1096.5625</v>
       </c>
       <c r="G117" t="n">
-        <v>87.79400000000005</v>
+        <v>87.78583333333339</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>88.63</v>
+        <v>88.7</v>
       </c>
       <c r="C118" t="n">
-        <v>88.53</v>
+        <v>88.88</v>
       </c>
       <c r="D118" t="n">
-        <v>88.63</v>
+        <v>88.88</v>
       </c>
       <c r="E118" t="n">
-        <v>88.53</v>
+        <v>88.7</v>
       </c>
       <c r="F118" t="n">
-        <v>20000</v>
+        <v>5097.6894</v>
       </c>
       <c r="G118" t="n">
-        <v>87.79550000000005</v>
+        <v>87.79400000000005</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4544,22 +4652,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>88.59999999999999</v>
+        <v>88.63</v>
       </c>
       <c r="C119" t="n">
-        <v>88.59999999999999</v>
+        <v>88.53</v>
       </c>
       <c r="D119" t="n">
-        <v>88.59999999999999</v>
+        <v>88.63</v>
       </c>
       <c r="E119" t="n">
-        <v>88.59999999999999</v>
+        <v>88.53</v>
       </c>
       <c r="F119" t="n">
-        <v>183.0904</v>
+        <v>20000</v>
       </c>
       <c r="G119" t="n">
-        <v>87.79600000000006</v>
+        <v>87.79550000000005</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4582,19 +4690,19 @@
         <v>88.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>88.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D120" t="n">
         <v>88.59999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>88.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>44008.9339</v>
+        <v>183.0904</v>
       </c>
       <c r="G120" t="n">
-        <v>87.79250000000006</v>
+        <v>87.79600000000006</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4614,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>88.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>88.84999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>88.84999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>88.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>24751.0391</v>
+        <v>44008.9339</v>
       </c>
       <c r="G121" t="n">
-        <v>87.79450000000007</v>
+        <v>87.79250000000006</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4649,22 +4757,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C122" t="n">
         <v>88.84999999999999</v>
       </c>
-      <c r="C122" t="n">
-        <v>88.98999999999999</v>
-      </c>
       <c r="D122" t="n">
-        <v>88.98999999999999</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>88.84999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="F122" t="n">
-        <v>5000</v>
+        <v>24751.0391</v>
       </c>
       <c r="G122" t="n">
-        <v>87.8093333333334</v>
+        <v>87.79450000000007</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4684,22 +4792,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>88.66</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>88.66</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>88.66</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>88.66</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G123" t="n">
-        <v>87.81866666666673</v>
+        <v>87.8093333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4719,22 +4827,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>88.98999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="C124" t="n">
-        <v>88.98999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="D124" t="n">
-        <v>88.98999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="E124" t="n">
-        <v>88.98999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="F124" t="n">
-        <v>88.1558</v>
+        <v>1000</v>
       </c>
       <c r="G124" t="n">
-        <v>87.83350000000004</v>
+        <v>87.81866666666673</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4754,22 +4862,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>89.47</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>89.47</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>89.47</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>89.47</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>13148.8821</v>
+        <v>88.1558</v>
       </c>
       <c r="G125" t="n">
-        <v>87.85633333333338</v>
+        <v>87.83350000000004</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4792,19 +4900,19 @@
         <v>89.47</v>
       </c>
       <c r="C126" t="n">
-        <v>89.2</v>
+        <v>89.47</v>
       </c>
       <c r="D126" t="n">
         <v>89.47</v>
       </c>
       <c r="E126" t="n">
-        <v>89.2</v>
+        <v>89.47</v>
       </c>
       <c r="F126" t="n">
-        <v>11.2222</v>
+        <v>13148.8821</v>
       </c>
       <c r="G126" t="n">
-        <v>87.87133333333337</v>
+        <v>87.85633333333338</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4824,22 +4932,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="C127" t="n">
         <v>89.2</v>
       </c>
-      <c r="C127" t="n">
-        <v>89.09999999999999</v>
-      </c>
       <c r="D127" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="E127" t="n">
         <v>89.2</v>
       </c>
-      <c r="E127" t="n">
-        <v>89.09999999999999</v>
-      </c>
       <c r="F127" t="n">
-        <v>2358.6684</v>
+        <v>11.2222</v>
       </c>
       <c r="G127" t="n">
-        <v>87.88800000000005</v>
+        <v>87.87133333333337</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4859,22 +4967,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="C128" t="n">
         <v>89.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="E128" t="n">
         <v>89.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>24.2135</v>
+        <v>2358.6684</v>
       </c>
       <c r="G128" t="n">
-        <v>87.90300000000005</v>
+        <v>87.88800000000005</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4906,10 +5014,10 @@
         <v>89.09999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>150.7571</v>
+        <v>24.2135</v>
       </c>
       <c r="G129" t="n">
-        <v>87.91466666666673</v>
+        <v>87.90300000000005</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4929,28 +5037,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>88.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>88.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>88.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>88.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>183.7327</v>
+        <v>150.7571</v>
       </c>
       <c r="G130" t="n">
-        <v>87.9163333333334</v>
+        <v>87.91466666666673</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4976,10 +5084,10 @@
         <v>88.5</v>
       </c>
       <c r="F131" t="n">
-        <v>350.105</v>
+        <v>183.7327</v>
       </c>
       <c r="G131" t="n">
-        <v>87.91800000000008</v>
+        <v>87.9163333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5011,16 +5119,16 @@
         <v>88.5</v>
       </c>
       <c r="F132" t="n">
-        <v>1341.8787</v>
+        <v>350.105</v>
       </c>
       <c r="G132" t="n">
-        <v>87.9263333333334</v>
+        <v>87.91800000000008</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5046,10 +5154,10 @@
         <v>88.5</v>
       </c>
       <c r="F133" t="n">
-        <v>1059.3372</v>
+        <v>1341.8787</v>
       </c>
       <c r="G133" t="n">
-        <v>87.93716666666674</v>
+        <v>87.9263333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5081,10 +5189,10 @@
         <v>88.5</v>
       </c>
       <c r="F134" t="n">
-        <v>4809.3025</v>
+        <v>1059.3372</v>
       </c>
       <c r="G134" t="n">
-        <v>87.9488333333334</v>
+        <v>87.93716666666674</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5116,10 +5224,10 @@
         <v>88.5</v>
       </c>
       <c r="F135" t="n">
-        <v>2341.2025</v>
+        <v>4809.3025</v>
       </c>
       <c r="G135" t="n">
-        <v>87.96716666666674</v>
+        <v>87.9488333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5151,10 +5259,10 @@
         <v>88.5</v>
       </c>
       <c r="F136" t="n">
-        <v>2158.6017</v>
+        <v>2341.2025</v>
       </c>
       <c r="G136" t="n">
-        <v>87.9738333333334</v>
+        <v>87.96716666666674</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5186,10 +5294,10 @@
         <v>88.5</v>
       </c>
       <c r="F137" t="n">
-        <v>35291.755</v>
+        <v>2158.6017</v>
       </c>
       <c r="G137" t="n">
-        <v>87.99050000000007</v>
+        <v>87.9738333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5221,10 +5329,10 @@
         <v>88.5</v>
       </c>
       <c r="F138" t="n">
-        <v>3907.2803</v>
+        <v>35291.755</v>
       </c>
       <c r="G138" t="n">
-        <v>88.00850000000007</v>
+        <v>87.99050000000007</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5256,10 +5364,10 @@
         <v>88.5</v>
       </c>
       <c r="F139" t="n">
-        <v>965.1528</v>
+        <v>3907.2803</v>
       </c>
       <c r="G139" t="n">
-        <v>88.02650000000007</v>
+        <v>88.00850000000007</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5279,22 +5387,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="C140" t="n">
         <v>88.5</v>
       </c>
       <c r="D140" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="E140" t="n">
         <v>88.5</v>
       </c>
       <c r="F140" t="n">
-        <v>11955.5673</v>
+        <v>965.1528</v>
       </c>
       <c r="G140" t="n">
-        <v>88.0443333333334</v>
+        <v>88.02650000000007</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5422,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C141" t="n">
         <v>88.5</v>
       </c>
       <c r="D141" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E141" t="n">
         <v>88.5</v>
       </c>
       <c r="F141" t="n">
-        <v>2049.6148</v>
+        <v>11955.5673</v>
       </c>
       <c r="G141" t="n">
-        <v>88.06100000000006</v>
+        <v>88.0443333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5361,10 +5469,10 @@
         <v>88.5</v>
       </c>
       <c r="F142" t="n">
-        <v>5223.567</v>
+        <v>2049.6148</v>
       </c>
       <c r="G142" t="n">
-        <v>88.07900000000005</v>
+        <v>88.06100000000006</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5384,22 +5492,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="C143" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="D143" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="E143" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F143" t="n">
-        <v>197.3011</v>
+        <v>5223.567</v>
       </c>
       <c r="G143" t="n">
-        <v>88.09583333333337</v>
+        <v>88.07900000000005</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,22 +5527,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>88.75</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>88.75</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>88.75</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>88.75</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>83.6032</v>
+        <v>197.3011</v>
       </c>
       <c r="G144" t="n">
-        <v>88.11850000000004</v>
+        <v>88.09583333333337</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5454,22 +5562,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>88.40000000000001</v>
+        <v>88.75</v>
       </c>
       <c r="C145" t="n">
-        <v>88.40000000000001</v>
+        <v>88.75</v>
       </c>
       <c r="D145" t="n">
-        <v>88.40000000000001</v>
+        <v>88.75</v>
       </c>
       <c r="E145" t="n">
-        <v>88.40000000000001</v>
+        <v>88.75</v>
       </c>
       <c r="F145" t="n">
-        <v>22811.0595</v>
+        <v>83.6032</v>
       </c>
       <c r="G145" t="n">
-        <v>88.13683333333337</v>
+        <v>88.11850000000004</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5501,10 +5609,10 @@
         <v>88.40000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>7472.6434</v>
+        <v>22811.0595</v>
       </c>
       <c r="G146" t="n">
-        <v>88.15933333333335</v>
+        <v>88.13683333333337</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5524,22 +5632,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>88.11</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>88.11</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>88.11</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>88.11</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>42429.3618</v>
+        <v>7472.6434</v>
       </c>
       <c r="G147" t="n">
-        <v>88.17800000000003</v>
+        <v>88.15933333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5559,22 +5667,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>88.77</v>
+        <v>88.11</v>
       </c>
       <c r="C148" t="n">
-        <v>88.77</v>
+        <v>88.11</v>
       </c>
       <c r="D148" t="n">
-        <v>88.77</v>
+        <v>88.11</v>
       </c>
       <c r="E148" t="n">
-        <v>88.77</v>
+        <v>88.11</v>
       </c>
       <c r="F148" t="n">
-        <v>1265</v>
+        <v>42429.3618</v>
       </c>
       <c r="G148" t="n">
-        <v>88.21000000000002</v>
+        <v>88.17800000000003</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5594,22 +5702,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>88.09999999999999</v>
+        <v>88.77</v>
       </c>
       <c r="C149" t="n">
-        <v>88.09999999999999</v>
+        <v>88.77</v>
       </c>
       <c r="D149" t="n">
-        <v>88.09999999999999</v>
+        <v>88.77</v>
       </c>
       <c r="E149" t="n">
-        <v>88.09999999999999</v>
+        <v>88.77</v>
       </c>
       <c r="F149" t="n">
-        <v>11864.4928</v>
+        <v>1265</v>
       </c>
       <c r="G149" t="n">
-        <v>88.23100000000002</v>
+        <v>88.21000000000002</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5629,22 +5737,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>88.11</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>88.11</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>88.11</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>88.11</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F150" t="n">
-        <v>15000</v>
+        <v>11864.4928</v>
       </c>
       <c r="G150" t="n">
-        <v>88.24866666666668</v>
+        <v>88.23100000000002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,22 +5772,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>88.79000000000001</v>
+        <v>88.11</v>
       </c>
       <c r="C151" t="n">
-        <v>88.79000000000001</v>
+        <v>88.11</v>
       </c>
       <c r="D151" t="n">
-        <v>88.79000000000001</v>
+        <v>88.11</v>
       </c>
       <c r="E151" t="n">
-        <v>88.79000000000001</v>
+        <v>88.11</v>
       </c>
       <c r="F151" t="n">
-        <v>6.7576</v>
+        <v>15000</v>
       </c>
       <c r="G151" t="n">
-        <v>88.28116666666668</v>
+        <v>88.24866666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5699,33 +5807,78 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>88.06999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>88.06999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>88.06999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>88.06999999999999</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>853.5921</v>
+        <v>6.7576</v>
       </c>
       <c r="G152" t="n">
-        <v>88.29816666666667</v>
+        <v>88.28116666666668</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="K152" t="n">
+        <v>88.11</v>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>853.5921</v>
+      </c>
+      <c r="G153" t="n">
+        <v>88.29816666666667</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>19787.096</v>
       </c>
       <c r="G2" t="n">
+        <v>90.91999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>90.607</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>591.6422</v>
       </c>
       <c r="G3" t="n">
+        <v>90.93999999999998</v>
+      </c>
+      <c r="H3" t="n">
         <v>90.59516666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>344.0485</v>
       </c>
       <c r="G4" t="n">
+        <v>90.95333333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>90.5835</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1000</v>
       </c>
       <c r="G5" t="n">
+        <v>90.97266666666664</v>
+      </c>
+      <c r="H5" t="n">
         <v>90.57166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7.7017</v>
       </c>
       <c r="G6" t="n">
+        <v>91.00533333333331</v>
+      </c>
+      <c r="H6" t="n">
         <v>90.56316666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>450.0991</v>
       </c>
       <c r="G7" t="n">
+        <v>90.99199999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>90.54650000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1631.9028</v>
       </c>
       <c r="G8" t="n">
+        <v>90.93333333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>90.51983333333335</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>6</v>
       </c>
       <c r="G9" t="n">
+        <v>90.87933333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>90.49333333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>23370</v>
       </c>
       <c r="G10" t="n">
+        <v>90.816</v>
+      </c>
+      <c r="H10" t="n">
         <v>90.46850000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>11142.4589</v>
       </c>
       <c r="G11" t="n">
+        <v>90.79133333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>90.45350000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>824.5752</v>
       </c>
       <c r="G12" t="n">
+        <v>90.76666666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>90.45366666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5596.6426</v>
       </c>
       <c r="G13" t="n">
+        <v>90.67133333333337</v>
+      </c>
+      <c r="H13" t="n">
         <v>90.43483333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>17255.7251</v>
       </c>
       <c r="G14" t="n">
+        <v>90.57600000000004</v>
+      </c>
+      <c r="H14" t="n">
         <v>90.41616666666665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>10144.2414</v>
       </c>
       <c r="G15" t="n">
+        <v>90.48000000000005</v>
+      </c>
+      <c r="H15" t="n">
         <v>90.38666666666664</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>404.7691</v>
       </c>
       <c r="G16" t="n">
+        <v>90.41400000000004</v>
+      </c>
+      <c r="H16" t="n">
         <v>90.36383333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>18651.156</v>
       </c>
       <c r="G17" t="n">
+        <v>90.41733333333337</v>
+      </c>
+      <c r="H17" t="n">
         <v>90.35499999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>140.6602</v>
       </c>
       <c r="G18" t="n">
+        <v>90.42333333333337</v>
+      </c>
+      <c r="H18" t="n">
         <v>90.37049999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>250.2379</v>
       </c>
       <c r="G19" t="n">
+        <v>90.42800000000004</v>
+      </c>
+      <c r="H19" t="n">
         <v>90.38983333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>7680.7692</v>
       </c>
       <c r="G20" t="n">
+        <v>90.44266666666671</v>
+      </c>
+      <c r="H20" t="n">
         <v>90.39866666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4514.9454</v>
       </c>
       <c r="G21" t="n">
+        <v>90.44800000000004</v>
+      </c>
+      <c r="H21" t="n">
         <v>90.41966666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1359.6813</v>
       </c>
       <c r="G22" t="n">
+        <v>90.48733333333335</v>
+      </c>
+      <c r="H22" t="n">
         <v>90.43933333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>13383.615</v>
       </c>
       <c r="G23" t="n">
+        <v>90.53600000000003</v>
+      </c>
+      <c r="H23" t="n">
         <v>90.45133333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1130.3391</v>
       </c>
       <c r="G24" t="n">
+        <v>90.55133333333336</v>
+      </c>
+      <c r="H24" t="n">
         <v>90.46716666666664</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1700</v>
       </c>
       <c r="G25" t="n">
+        <v>90.5886666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>90.48016666666665</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1387.1503</v>
       </c>
       <c r="G26" t="n">
+        <v>90.5506666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>90.48549999999997</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>5095.6806</v>
       </c>
       <c r="G27" t="n">
+        <v>90.51333333333336</v>
+      </c>
+      <c r="H27" t="n">
         <v>90.49066666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>599.6552</v>
       </c>
       <c r="G28" t="n">
+        <v>90.5466666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>90.49899999999998</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>63799.3349</v>
       </c>
       <c r="G29" t="n">
+        <v>90.50800000000002</v>
+      </c>
+      <c r="H29" t="n">
         <v>90.48933333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>29371.005</v>
       </c>
       <c r="G30" t="n">
+        <v>90.46933333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>90.48733333333331</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1672.164</v>
       </c>
       <c r="G31" t="n">
+        <v>90.43066666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>90.47749999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>14003.926</v>
       </c>
       <c r="G32" t="n">
+        <v>90.336</v>
+      </c>
+      <c r="H32" t="n">
         <v>90.46766666666664</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>5375.2604</v>
       </c>
       <c r="G33" t="n">
+        <v>90.23333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>90.45649999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>63871.4122</v>
       </c>
       <c r="G34" t="n">
+        <v>90.11266666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>90.44049999999997</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>610</v>
       </c>
       <c r="G35" t="n">
+        <v>90.02399999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>90.4263333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>7204.5607</v>
       </c>
       <c r="G36" t="n">
+        <v>89.95933333333332</v>
+      </c>
+      <c r="H36" t="n">
         <v>90.41916666666663</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1157.6734</v>
       </c>
       <c r="G37" t="n">
+        <v>89.902</v>
+      </c>
+      <c r="H37" t="n">
         <v>90.41416666666663</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1002.2344</v>
       </c>
       <c r="G38" t="n">
+        <v>89.83</v>
+      </c>
+      <c r="H38" t="n">
         <v>90.39783333333328</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>20000</v>
       </c>
       <c r="G39" t="n">
+        <v>89.75533333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>90.38916666666661</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1096.1235</v>
       </c>
       <c r="G40" t="n">
+        <v>89.648</v>
+      </c>
+      <c r="H40" t="n">
         <v>90.38133333333329</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>2000</v>
       </c>
       <c r="G41" t="n">
+        <v>89.56533333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>90.37066666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>49924.8146</v>
       </c>
       <c r="G42" t="n">
+        <v>89.45866666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>90.35399999999997</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>19.2853</v>
       </c>
       <c r="G43" t="n">
+        <v>89.37733333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>90.3353333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1200</v>
       </c>
       <c r="G44" t="n">
+        <v>89.36666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>90.3068333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1287.7782</v>
       </c>
       <c r="G45" t="n">
+        <v>89.35133333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>90.28849999999997</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>47952.8068</v>
       </c>
       <c r="G46" t="n">
+        <v>89.336</v>
+      </c>
+      <c r="H46" t="n">
         <v>90.27016666666665</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>7708.4373</v>
       </c>
       <c r="G47" t="n">
+        <v>89.32066666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>90.24849999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>7201.3049</v>
       </c>
       <c r="G48" t="n">
+        <v>89.28466666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>90.22033333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>16000</v>
       </c>
       <c r="G49" t="n">
+        <v>89.22066666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>90.17866666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>4363.154</v>
       </c>
       <c r="G50" t="n">
+        <v>89.13533333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>90.14366666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>13019.3752</v>
       </c>
       <c r="G51" t="n">
+        <v>89.05933333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>90.11800000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1000.2808</v>
       </c>
       <c r="G52" t="n">
+        <v>88.93066666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>90.078</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>3629.1709</v>
       </c>
       <c r="G53" t="n">
+        <v>88.874</v>
+      </c>
+      <c r="H53" t="n">
         <v>90.04333333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>18980</v>
       </c>
       <c r="G54" t="n">
+        <v>88.77999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>89.99150000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>4158.0137</v>
       </c>
       <c r="G55" t="n">
+        <v>88.68733333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>89.935</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>54990.4928</v>
       </c>
       <c r="G56" t="n">
+        <v>88.56866666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>89.869</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>550.096601886578</v>
       </c>
       <c r="G57" t="n">
+        <v>88.51333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>89.813</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>11313.68243857902</v>
       </c>
       <c r="G58" t="n">
+        <v>88.45933333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>89.76366666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>19998.7111</v>
       </c>
       <c r="G59" t="n">
+        <v>88.41000000000001</v>
+      </c>
+      <c r="H59" t="n">
         <v>89.71516666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>6</v>
       </c>
       <c r="G60" t="n">
+        <v>88.37466666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>89.66883333333331</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>31</v>
       </c>
       <c r="G61" t="n">
+        <v>88.34200000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>89.63066666666664</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>534.723</v>
       </c>
       <c r="G62" t="n">
+        <v>88.31733333333335</v>
+      </c>
+      <c r="H62" t="n">
         <v>89.5978333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>22.37</v>
       </c>
       <c r="G63" t="n">
+        <v>88.27666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>89.55449999999998</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>2300</v>
       </c>
       <c r="G64" t="n">
+        <v>88.28333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>89.51116666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>10000</v>
       </c>
       <c r="G65" t="n">
+        <v>88.27</v>
+      </c>
+      <c r="H65" t="n">
         <v>89.468</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>750</v>
       </c>
       <c r="G66" t="n">
+        <v>88.21933333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>89.42149999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>2645.3924</v>
       </c>
       <c r="G67" t="n">
+        <v>88.22599999999998</v>
+      </c>
+      <c r="H67" t="n">
         <v>89.38650000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>5350</v>
       </c>
       <c r="G68" t="n">
+        <v>88.19266666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>89.35816666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1136.4656</v>
       </c>
       <c r="G69" t="n">
+        <v>88.20599999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>89.32316666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>5690.7751</v>
       </c>
       <c r="G70" t="n">
+        <v>88.23533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>89.28983333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1149.8564</v>
       </c>
       <c r="G71" t="n">
+        <v>88.30199999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>89.24666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>3159.3685</v>
       </c>
       <c r="G72" t="n">
+        <v>88.32933333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>89.20366666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>7056.2642</v>
       </c>
       <c r="G73" t="n">
+        <v>88.30333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>89.17166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>19385.5645</v>
       </c>
       <c r="G74" t="n">
+        <v>88.26399999999998</v>
+      </c>
+      <c r="H74" t="n">
         <v>89.13716666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>11820</v>
       </c>
       <c r="G75" t="n">
+        <v>88.21266666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>89.10200000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>23000.0001</v>
       </c>
       <c r="G76" t="n">
+        <v>88.13200000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>89.06016666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>4545.7495</v>
       </c>
       <c r="G77" t="n">
+        <v>88.08999999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>89.01600000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>550.0966</v>
       </c>
       <c r="G78" t="n">
+        <v>88.05</v>
+      </c>
+      <c r="H78" t="n">
         <v>88.96116666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>6000</v>
       </c>
       <c r="G79" t="n">
+        <v>88.00466666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>88.90533333333335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>3846.836</v>
       </c>
       <c r="G80" t="n">
+        <v>87.95933333333336</v>
+      </c>
+      <c r="H80" t="n">
         <v>88.84716666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>22900</v>
       </c>
       <c r="G81" t="n">
+        <v>87.9146666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>88.78816666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>74739.7678</v>
       </c>
       <c r="G82" t="n">
+        <v>87.86133333333336</v>
+      </c>
+      <c r="H82" t="n">
         <v>88.73000000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>3242.1654</v>
       </c>
       <c r="G83" t="n">
+        <v>87.81600000000005</v>
+      </c>
+      <c r="H83" t="n">
         <v>88.67816666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>11140</v>
       </c>
       <c r="G84" t="n">
+        <v>87.76200000000004</v>
+      </c>
+      <c r="H84" t="n">
         <v>88.62583333333336</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1082.6088</v>
       </c>
       <c r="G85" t="n">
+        <v>87.69466666666672</v>
+      </c>
+      <c r="H85" t="n">
         <v>88.56633333333338</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>150</v>
       </c>
       <c r="G86" t="n">
+        <v>87.62133333333337</v>
+      </c>
+      <c r="H86" t="n">
         <v>88.51433333333337</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>4150</v>
       </c>
       <c r="G87" t="n">
+        <v>87.53133333333336</v>
+      </c>
+      <c r="H87" t="n">
         <v>88.45816666666671</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>13074.4027</v>
       </c>
       <c r="G88" t="n">
+        <v>87.46400000000003</v>
+      </c>
+      <c r="H88" t="n">
         <v>88.40100000000004</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,24 +3759,21 @@
         <v>40349.6129</v>
       </c>
       <c r="G89" t="n">
+        <v>87.39733333333336</v>
+      </c>
+      <c r="H89" t="n">
         <v>88.35950000000004</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>86.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,22 +3797,21 @@
         <v>15.2072</v>
       </c>
       <c r="G90" t="n">
+        <v>87.33333333333336</v>
+      </c>
+      <c r="H90" t="n">
         <v>88.31800000000004</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,22 +3835,21 @@
         <v>63.1821</v>
       </c>
       <c r="G91" t="n">
+        <v>87.31000000000002</v>
+      </c>
+      <c r="H91" t="n">
         <v>88.28000000000004</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,22 +3873,21 @@
         <v>4081.7924</v>
       </c>
       <c r="G92" t="n">
+        <v>87.22600000000003</v>
+      </c>
+      <c r="H92" t="n">
         <v>88.23850000000006</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,24 +3911,21 @@
         <v>832.3414</v>
       </c>
       <c r="G93" t="n">
+        <v>87.19600000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>88.20183333333338</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>86.84</v>
+        <v>0</v>
       </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,24 +3949,21 @@
         <v>11269.5005</v>
       </c>
       <c r="G94" t="n">
+        <v>87.20000000000002</v>
+      </c>
+      <c r="H94" t="n">
         <v>88.17716666666671</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>87.05</v>
+        <v>0</v>
       </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3733,24 +3987,21 @@
         <v>360</v>
       </c>
       <c r="G95" t="n">
+        <v>87.18866666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>88.13833333333338</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>87.48</v>
+        <v>0</v>
       </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,24 +4025,27 @@
         <v>39294.897</v>
       </c>
       <c r="G96" t="n">
+        <v>87.134</v>
+      </c>
+      <c r="H96" t="n">
         <v>88.08183333333338</v>
       </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
         <v>87.25</v>
       </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,22 +4069,25 @@
         <v>364.4947</v>
       </c>
       <c r="G97" t="n">
+        <v>87.12066666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>88.03466666666671</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,22 +4111,25 @@
         <v>23345.71608040201</v>
       </c>
       <c r="G98" t="n">
+        <v>87.09333333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>87.99400000000006</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3893,22 +4153,25 @@
         <v>7126.9999</v>
       </c>
       <c r="G99" t="n">
+        <v>87.07399999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>87.95550000000006</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,22 +4195,25 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
+        <v>87.06133333333331</v>
+      </c>
+      <c r="H100" t="n">
         <v>87.91966666666671</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3971,22 +4237,25 @@
         <v>1139.491969472605</v>
       </c>
       <c r="G101" t="n">
+        <v>87.09399999999998</v>
+      </c>
+      <c r="H101" t="n">
         <v>87.89650000000005</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,22 +4279,25 @@
         <v>5000</v>
       </c>
       <c r="G102" t="n">
+        <v>87.13866666666665</v>
+      </c>
+      <c r="H102" t="n">
         <v>87.87816666666671</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,22 +4321,25 @@
         <v>190.1165</v>
       </c>
       <c r="G103" t="n">
+        <v>87.15266666666665</v>
+      </c>
+      <c r="H103" t="n">
         <v>87.84483333333338</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,22 +4363,27 @@
         <v>10000</v>
       </c>
       <c r="G104" t="n">
+        <v>87.21399999999998</v>
+      </c>
+      <c r="H104" t="n">
         <v>87.82133333333338</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,22 +4407,27 @@
         <v>19200</v>
       </c>
       <c r="G105" t="n">
+        <v>87.27666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>87.79933333333338</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>87.77</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,22 +4451,25 @@
         <v>3136.8061</v>
       </c>
       <c r="G106" t="n">
+        <v>87.32533333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>87.77733333333337</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4205,22 +4493,25 @@
         <v>702.1493</v>
       </c>
       <c r="G107" t="n">
+        <v>87.38799999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>87.75533333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,22 +4535,27 @@
         <v>613.7361</v>
       </c>
       <c r="G108" t="n">
+        <v>87.43666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>87.73983333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,22 +4579,25 @@
         <v>11.387</v>
       </c>
       <c r="G109" t="n">
+        <v>87.45933333333332</v>
+      </c>
+      <c r="H109" t="n">
         <v>87.73683333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,22 +4621,27 @@
         <v>361.0662</v>
       </c>
       <c r="G110" t="n">
+        <v>87.544</v>
+      </c>
+      <c r="H110" t="n">
         <v>87.74050000000003</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,22 +4665,25 @@
         <v>3221.8665</v>
       </c>
       <c r="G111" t="n">
+        <v>87.67133333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>87.73483333333337</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,22 +4707,25 @@
         <v>7495.5853</v>
       </c>
       <c r="G112" t="n">
+        <v>87.75266666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>87.74016666666671</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,22 +4749,25 @@
         <v>517.4899</v>
       </c>
       <c r="G113" t="n">
+        <v>87.878</v>
+      </c>
+      <c r="H113" t="n">
         <v>87.74500000000005</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,22 +4791,25 @@
         <v>50000</v>
       </c>
       <c r="G114" t="n">
+        <v>87.99133333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>87.75833333333338</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,22 +4833,25 @@
         <v>181.3861</v>
       </c>
       <c r="G115" t="n">
+        <v>88.06466666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>87.76400000000005</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,22 +4875,25 @@
         <v>430.7298</v>
       </c>
       <c r="G116" t="n">
+        <v>88.09866666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>87.77900000000005</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,22 +4917,27 @@
         <v>1096.5625</v>
       </c>
       <c r="G117" t="n">
+        <v>88.14400000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>87.78583333333339</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4959,25 @@
         <v>5097.6894</v>
       </c>
       <c r="G118" t="n">
+        <v>88.256</v>
+      </c>
+      <c r="H118" t="n">
         <v>87.79400000000005</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,18 +5001,25 @@
         <v>20000</v>
       </c>
       <c r="G119" t="n">
+        <v>88.30666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>87.79550000000005</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,18 +5043,25 @@
         <v>183.0904</v>
       </c>
       <c r="G120" t="n">
+        <v>88.36133333333332</v>
+      </c>
+      <c r="H120" t="n">
         <v>87.79600000000006</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,18 +5085,25 @@
         <v>44008.9339</v>
       </c>
       <c r="G121" t="n">
+        <v>88.40266666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>87.79250000000006</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,18 +5127,25 @@
         <v>24751.0391</v>
       </c>
       <c r="G122" t="n">
+        <v>88.47399999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>87.79450000000007</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +5169,25 @@
         <v>5000</v>
       </c>
       <c r="G123" t="n">
+        <v>88.55466666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>87.8093333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,18 +5211,25 @@
         <v>1000</v>
       </c>
       <c r="G124" t="n">
+        <v>88.61066666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>87.81866666666673</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,18 +5253,25 @@
         <v>88.1558</v>
       </c>
       <c r="G125" t="n">
+        <v>88.64200000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>87.83350000000004</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,18 +5295,25 @@
         <v>13148.8821</v>
       </c>
       <c r="G126" t="n">
+        <v>88.70533333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>87.85633333333338</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,18 +5337,25 @@
         <v>11.2222</v>
       </c>
       <c r="G127" t="n">
+        <v>88.75066666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>87.87133333333337</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,18 +5379,25 @@
         <v>2358.6684</v>
       </c>
       <c r="G128" t="n">
+        <v>88.76466666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>87.88800000000005</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,18 +5421,25 @@
         <v>24.2135</v>
       </c>
       <c r="G129" t="n">
+        <v>88.78466666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>87.90300000000005</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,18 +5463,25 @@
         <v>150.7571</v>
       </c>
       <c r="G130" t="n">
+        <v>88.83799999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>87.91466666666673</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,18 +5505,25 @@
         <v>183.7327</v>
       </c>
       <c r="G131" t="n">
+        <v>88.85133333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>87.9163333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,18 +5547,25 @@
         <v>350.105</v>
       </c>
       <c r="G132" t="n">
+        <v>88.85799999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>87.91800000000008</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,18 +5589,25 @@
         <v>1341.8787</v>
       </c>
       <c r="G133" t="n">
+        <v>88.83266666666665</v>
+      </c>
+      <c r="H133" t="n">
         <v>87.9263333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,18 +5631,25 @@
         <v>1059.3372</v>
       </c>
       <c r="G134" t="n">
+        <v>88.83066666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>87.93716666666674</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,18 +5673,25 @@
         <v>4809.3025</v>
       </c>
       <c r="G135" t="n">
+        <v>88.824</v>
+      </c>
+      <c r="H135" t="n">
         <v>87.9488333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,18 +5715,27 @@
         <v>2341.2025</v>
       </c>
       <c r="G136" t="n">
+        <v>88.83066666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>87.96716666666674</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,18 +5759,27 @@
         <v>2158.6017</v>
       </c>
       <c r="G137" t="n">
+        <v>88.80733333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>87.9738333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,18 +5803,27 @@
         <v>35291.755</v>
       </c>
       <c r="G138" t="n">
+        <v>88.77466666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>87.99050000000007</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,18 +5847,27 @@
         <v>3907.2803</v>
       </c>
       <c r="G139" t="n">
+        <v>88.76399999999998</v>
+      </c>
+      <c r="H139" t="n">
         <v>88.00850000000007</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,18 +5891,25 @@
         <v>965.1528</v>
       </c>
       <c r="G140" t="n">
+        <v>88.73133333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>88.02650000000007</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5437,18 +5933,27 @@
         <v>11955.5673</v>
       </c>
       <c r="G141" t="n">
+        <v>88.66666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>88.0443333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,18 +5977,27 @@
         <v>2049.6148</v>
       </c>
       <c r="G142" t="n">
+        <v>88.61999999999998</v>
+      </c>
+      <c r="H142" t="n">
         <v>88.06100000000006</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5507,18 +6021,27 @@
         <v>5223.567</v>
       </c>
       <c r="G143" t="n">
+        <v>88.57999999999998</v>
+      </c>
+      <c r="H143" t="n">
         <v>88.07900000000005</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,18 +6065,25 @@
         <v>197.3011</v>
       </c>
       <c r="G144" t="n">
+        <v>88.53333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>88.09583333333337</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5577,18 +6107,27 @@
         <v>83.6032</v>
       </c>
       <c r="G145" t="n">
+        <v>88.51000000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>88.11850000000004</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,18 +6151,25 @@
         <v>22811.0595</v>
       </c>
       <c r="G146" t="n">
+        <v>88.50333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>88.13683333333337</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,18 +6193,25 @@
         <v>7472.6434</v>
       </c>
       <c r="G147" t="n">
+        <v>88.49666666666668</v>
+      </c>
+      <c r="H147" t="n">
         <v>88.15933333333335</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,18 +6235,27 @@
         <v>42429.3618</v>
       </c>
       <c r="G148" t="n">
+        <v>88.47066666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>88.17800000000003</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,18 +6279,25 @@
         <v>1265</v>
       </c>
       <c r="G149" t="n">
+        <v>88.48866666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>88.21000000000002</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,18 +6321,27 @@
         <v>11864.4928</v>
       </c>
       <c r="G150" t="n">
+        <v>88.462</v>
+      </c>
+      <c r="H150" t="n">
         <v>88.23100000000002</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>88.77</v>
+      </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5787,18 +6365,27 @@
         <v>15000</v>
       </c>
       <c r="G151" t="n">
+        <v>88.43599999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>88.24866666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>88.09999999999999</v>
+      </c>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,22 +6409,27 @@
         <v>6.7576</v>
       </c>
       <c r="G152" t="n">
+        <v>88.45533333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>88.28116666666668</v>
       </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>88.11</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
         <v>88.11</v>
       </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,24 +6453,451 @@
         <v>853.5921</v>
       </c>
       <c r="G153" t="n">
+        <v>88.42666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>88.29816666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="C154" t="n">
+        <v>89</v>
+      </c>
+      <c r="D154" t="n">
+        <v>89</v>
+      </c>
+      <c r="E154" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3991.0119</v>
+      </c>
+      <c r="G154" t="n">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>88.32350000000001</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C155" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D155" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E155" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>88.48533333333332</v>
+      </c>
+      <c r="H155" t="n">
+        <v>88.35066666666668</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>89</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C156" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D156" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E156" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4684</v>
+      </c>
+      <c r="G156" t="n">
+        <v>88.51066666666665</v>
+      </c>
+      <c r="H156" t="n">
+        <v>88.38850000000002</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C157" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D157" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E157" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3959</v>
+      </c>
+      <c r="G157" t="n">
+        <v>88.536</v>
+      </c>
+      <c r="H157" t="n">
+        <v>88.41483333333335</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C158" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D158" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E158" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1171.7991</v>
+      </c>
+      <c r="G158" t="n">
+        <v>88.56133333333334</v>
+      </c>
+      <c r="H158" t="n">
+        <v>88.44600000000001</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C159" t="n">
+        <v>89</v>
+      </c>
+      <c r="D159" t="n">
+        <v>89</v>
+      </c>
+      <c r="E159" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7127.3624</v>
+      </c>
+      <c r="G159" t="n">
+        <v>88.60133333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>88.47766666666668</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C160" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D160" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E160" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1133</v>
+      </c>
+      <c r="G160" t="n">
+        <v>88.61</v>
+      </c>
+      <c r="H160" t="n">
+        <v>88.50566666666668</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C161" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D161" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E161" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F161" t="n">
+        <v>33185</v>
+      </c>
+      <c r="G161" t="n">
+        <v>88.64200000000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>88.52383333333336</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C162" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E162" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2081.9344</v>
+      </c>
+      <c r="G162" t="n">
+        <v>88.62866666666667</v>
+      </c>
+      <c r="H162" t="n">
+        <v>88.53183333333335</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>88.05</v>
+      </c>
+      <c r="C163" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D163" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>88.02</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1260.9512</v>
+      </c>
+      <c r="G163" t="n">
+        <v>88.628</v>
+      </c>
+      <c r="H163" t="n">
+        <v>88.54683333333335</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>91.18000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="C2" t="n">
-        <v>90.7</v>
+        <v>89.92</v>
       </c>
       <c r="D2" t="n">
-        <v>91.19</v>
+        <v>89.92</v>
       </c>
       <c r="E2" t="n">
-        <v>90.7</v>
+        <v>89.92</v>
       </c>
       <c r="F2" t="n">
-        <v>19787.096</v>
+        <v>4347.0166</v>
       </c>
       <c r="G2" t="n">
-        <v>90.91999999999999</v>
+        <v>62757.6502150552</v>
       </c>
       <c r="H2" t="n">
-        <v>90.607</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91.18000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="C3" t="n">
-        <v>90.7</v>
+        <v>89.92</v>
       </c>
       <c r="D3" t="n">
-        <v>91.18000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="E3" t="n">
-        <v>90.7</v>
+        <v>89.92</v>
       </c>
       <c r="F3" t="n">
-        <v>591.6422</v>
+        <v>2463.8558</v>
       </c>
       <c r="G3" t="n">
-        <v>90.93999999999998</v>
+        <v>62757.6502150552</v>
       </c>
       <c r="H3" t="n">
-        <v>90.59516666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.7</v>
+        <v>90.3</v>
       </c>
       <c r="C4" t="n">
-        <v>90.7</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>90.7</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>90.7</v>
+        <v>90.3</v>
       </c>
       <c r="F4" t="n">
-        <v>344.0485</v>
+        <v>6000</v>
       </c>
       <c r="G4" t="n">
-        <v>90.95333333333332</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H4" t="n">
-        <v>90.5835</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90.69</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>90.69</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>90.69</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>90.69</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>428.1975</v>
       </c>
       <c r="G5" t="n">
-        <v>90.97266666666664</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H5" t="n">
-        <v>90.57166666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>90.89</v>
+        <v>90.5</v>
       </c>
       <c r="C6" t="n">
-        <v>90.89</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>90.89</v>
+        <v>90.5</v>
       </c>
       <c r="E6" t="n">
-        <v>90.89</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>7.7017</v>
+        <v>13162.1122</v>
       </c>
       <c r="G6" t="n">
-        <v>91.00533333333331</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H6" t="n">
-        <v>90.56316666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90.68000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>90.40000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>90.68000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>90.40000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>450.0991</v>
+        <v>2267.4381</v>
       </c>
       <c r="G7" t="n">
-        <v>90.99199999999999</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H7" t="n">
-        <v>90.54650000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89.81</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>89.8</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>89.81</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
-        <v>89.8</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1631.9028</v>
+        <v>5703</v>
       </c>
       <c r="G8" t="n">
-        <v>90.93333333333332</v>
+        <v>63054.65021505521</v>
       </c>
       <c r="H8" t="n">
-        <v>90.51983333333335</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90.3</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>90.3</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>90.3</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>90.3</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>2732.6444</v>
       </c>
       <c r="G9" t="n">
-        <v>90.87933333333332</v>
+        <v>60322.00581505521</v>
       </c>
       <c r="H9" t="n">
-        <v>90.49333333333335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90.3</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>90.40000000000001</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>90.40000000000001</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>90.3</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>23370</v>
+        <v>2009.8166</v>
       </c>
       <c r="G10" t="n">
-        <v>90.816</v>
+        <v>60322.00581505521</v>
       </c>
       <c r="H10" t="n">
-        <v>90.46850000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>90.40000000000001</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>90.98999999999999</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>91.09</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>90.40000000000001</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>11142.4589</v>
+        <v>855.9526</v>
       </c>
       <c r="G11" t="n">
-        <v>90.79133333333334</v>
+        <v>60322.00581505521</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45350000000001</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90.98999999999999</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>90.98</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>90.98999999999999</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>90.98</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>824.5752</v>
+        <v>18090</v>
       </c>
       <c r="G12" t="n">
-        <v>90.76666666666668</v>
+        <v>78412.00581505522</v>
       </c>
       <c r="H12" t="n">
-        <v>90.45366666666665</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90.51000000000001</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>89.92</v>
+        <v>90.89</v>
       </c>
       <c r="D13" t="n">
-        <v>90.51000000000001</v>
+        <v>90.89</v>
       </c>
       <c r="E13" t="n">
-        <v>89.92</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>5596.6426</v>
+        <v>3325.519</v>
       </c>
       <c r="G13" t="n">
-        <v>90.67133333333337</v>
+        <v>81737.52481505522</v>
       </c>
       <c r="H13" t="n">
-        <v>90.43483333333332</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.92</v>
+        <v>90.2</v>
       </c>
       <c r="C14" t="n">
-        <v>89.92</v>
+        <v>90.2</v>
       </c>
       <c r="D14" t="n">
-        <v>89.92</v>
+        <v>90.2</v>
       </c>
       <c r="E14" t="n">
-        <v>89.92</v>
+        <v>90.2</v>
       </c>
       <c r="F14" t="n">
-        <v>17255.7251</v>
+        <v>11.1632</v>
       </c>
       <c r="G14" t="n">
-        <v>90.57600000000004</v>
+        <v>81726.36161505523</v>
       </c>
       <c r="H14" t="n">
-        <v>90.41616666666665</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.91</v>
+        <v>90.2</v>
       </c>
       <c r="C15" t="n">
-        <v>89.91</v>
+        <v>90.2</v>
       </c>
       <c r="D15" t="n">
-        <v>89.91</v>
+        <v>90.2</v>
       </c>
       <c r="E15" t="n">
-        <v>89.91</v>
+        <v>90.2</v>
       </c>
       <c r="F15" t="n">
-        <v>10144.2414</v>
+        <v>3064.8376</v>
       </c>
       <c r="G15" t="n">
-        <v>90.48000000000005</v>
+        <v>81726.36161505523</v>
       </c>
       <c r="H15" t="n">
-        <v>90.38666666666664</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>89.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>89.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>89.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>89.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>404.7691</v>
+        <v>178.8536</v>
       </c>
       <c r="G16" t="n">
-        <v>90.41400000000004</v>
+        <v>81905.21521505523</v>
       </c>
       <c r="H16" t="n">
-        <v>90.36383333333332</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>90.02</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>90.75</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>90.84999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>90.02</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>18651.156</v>
+        <v>1150.8303</v>
       </c>
       <c r="G17" t="n">
-        <v>90.41733333333337</v>
+        <v>81905.21521505523</v>
       </c>
       <c r="H17" t="n">
-        <v>90.35499999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>90.79000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>90.79000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="D18" t="n">
-        <v>90.79000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="E18" t="n">
-        <v>90.79000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>140.6602</v>
+        <v>2861.1692</v>
       </c>
       <c r="G18" t="n">
-        <v>90.42333333333337</v>
+        <v>84766.38441505523</v>
       </c>
       <c r="H18" t="n">
-        <v>90.37049999999999</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>90.77</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>90.77</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>90.77</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>90.77</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>250.2379</v>
+        <v>7544.9876</v>
       </c>
       <c r="G19" t="n">
-        <v>90.42800000000004</v>
+        <v>77221.39681505522</v>
       </c>
       <c r="H19" t="n">
-        <v>90.38983333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>90.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>90.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>90.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>90.91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>7680.7692</v>
+        <v>9264.0124</v>
       </c>
       <c r="G20" t="n">
-        <v>90.44266666666671</v>
+        <v>77221.39681505522</v>
       </c>
       <c r="H20" t="n">
-        <v>90.39866666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>90.97</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>90.97</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>90.97</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>90.97</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>4514.9454</v>
+        <v>369.7067</v>
       </c>
       <c r="G21" t="n">
-        <v>90.44800000000004</v>
+        <v>77591.10351505522</v>
       </c>
       <c r="H21" t="n">
-        <v>90.41966666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.98999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>90.98999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>90.98999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>90.98999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1359.6813</v>
+        <v>2220</v>
       </c>
       <c r="G22" t="n">
-        <v>90.48733333333335</v>
+        <v>79811.10351505522</v>
       </c>
       <c r="H22" t="n">
-        <v>90.43933333333332</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>90.53</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>90.53</v>
+        <v>91.11</v>
       </c>
       <c r="D23" t="n">
-        <v>90.53</v>
+        <v>91.11</v>
       </c>
       <c r="E23" t="n">
-        <v>90.53</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>13383.615</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="n">
-        <v>90.53600000000003</v>
+        <v>89811.10351505522</v>
       </c>
       <c r="H23" t="n">
-        <v>90.45133333333332</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>90.53</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>90.53</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>90.53</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>90.53</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1130.3391</v>
+        <v>1916.4114</v>
       </c>
       <c r="G24" t="n">
-        <v>90.55133333333336</v>
+        <v>91727.51491505522</v>
       </c>
       <c r="H24" t="n">
-        <v>90.46716666666664</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>90.95999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>90.95999999999999</v>
+        <v>91.36</v>
       </c>
       <c r="D25" t="n">
-        <v>90.95999999999999</v>
+        <v>91.36</v>
       </c>
       <c r="E25" t="n">
-        <v>90.95999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>1700</v>
+        <v>61955.0007</v>
       </c>
       <c r="G25" t="n">
-        <v>90.5886666666667</v>
+        <v>153682.5156150552</v>
       </c>
       <c r="H25" t="n">
-        <v>90.48016666666665</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>90.51000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>90.51000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>1387.1503</v>
+        <v>0.0001</v>
       </c>
       <c r="G26" t="n">
-        <v>90.5506666666667</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H26" t="n">
-        <v>90.48549999999997</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>90.5</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>90.5</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>5095.6806</v>
+        <v>9.8512</v>
       </c>
       <c r="G27" t="n">
-        <v>90.51333333333336</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H27" t="n">
-        <v>90.49066666666664</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>90.42</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>599.6552</v>
+        <v>49.9281</v>
       </c>
       <c r="G28" t="n">
-        <v>90.5466666666667</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H28" t="n">
-        <v>90.49899999999998</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>90.13</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>89.34</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>90.13</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>89.34</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>63799.3349</v>
+        <v>1166.8963</v>
       </c>
       <c r="G29" t="n">
-        <v>90.50800000000002</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H29" t="n">
-        <v>90.48933333333331</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.54000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>89.33</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>89.54000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>89.33</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>29371.005</v>
+        <v>4103.2771</v>
       </c>
       <c r="G30" t="n">
-        <v>90.46933333333335</v>
+        <v>149579.2384150552</v>
       </c>
       <c r="H30" t="n">
-        <v>90.48733333333331</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.33</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>89.33</v>
+        <v>90.7</v>
       </c>
       <c r="D31" t="n">
-        <v>89.33</v>
+        <v>91.19</v>
       </c>
       <c r="E31" t="n">
-        <v>89.33</v>
+        <v>90.7</v>
       </c>
       <c r="F31" t="n">
-        <v>1672.164</v>
+        <v>19787.096</v>
       </c>
       <c r="G31" t="n">
-        <v>90.43066666666667</v>
+        <v>129792.1424150552</v>
       </c>
       <c r="H31" t="n">
-        <v>90.47749999999998</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.33</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>89.33</v>
+        <v>90.7</v>
       </c>
       <c r="D32" t="n">
-        <v>89.33</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>89.33</v>
+        <v>90.7</v>
       </c>
       <c r="F32" t="n">
-        <v>14003.926</v>
+        <v>591.6422</v>
       </c>
       <c r="G32" t="n">
-        <v>90.336</v>
+        <v>129792.1424150552</v>
       </c>
       <c r="H32" t="n">
-        <v>90.46766666666664</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>89.33</v>
+        <v>90.7</v>
       </c>
       <c r="C33" t="n">
-        <v>89.25</v>
+        <v>90.7</v>
       </c>
       <c r="D33" t="n">
-        <v>89.33</v>
+        <v>90.7</v>
       </c>
       <c r="E33" t="n">
-        <v>89.25</v>
+        <v>90.7</v>
       </c>
       <c r="F33" t="n">
-        <v>5375.2604</v>
+        <v>344.0485</v>
       </c>
       <c r="G33" t="n">
-        <v>90.23333333333333</v>
+        <v>129792.1424150552</v>
       </c>
       <c r="H33" t="n">
-        <v>90.45649999999998</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>88.95999999999999</v>
+        <v>90.69</v>
       </c>
       <c r="C34" t="n">
-        <v>88.95999999999999</v>
+        <v>90.69</v>
       </c>
       <c r="D34" t="n">
-        <v>88.95999999999999</v>
+        <v>90.69</v>
       </c>
       <c r="E34" t="n">
-        <v>88.95999999999999</v>
+        <v>90.69</v>
       </c>
       <c r="F34" t="n">
-        <v>63871.4122</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="n">
-        <v>90.11266666666667</v>
+        <v>128792.1424150552</v>
       </c>
       <c r="H34" t="n">
-        <v>90.44049999999997</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>89.58</v>
+        <v>90.89</v>
       </c>
       <c r="C35" t="n">
-        <v>89.58</v>
+        <v>90.89</v>
       </c>
       <c r="D35" t="n">
-        <v>89.58</v>
+        <v>90.89</v>
       </c>
       <c r="E35" t="n">
-        <v>89.58</v>
+        <v>90.89</v>
       </c>
       <c r="F35" t="n">
-        <v>610</v>
+        <v>7.7017</v>
       </c>
       <c r="G35" t="n">
-        <v>90.02399999999999</v>
+        <v>128799.8441150552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.4263333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>89.90000000000001</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>90</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>90</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>89.90000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>7204.5607</v>
+        <v>450.0991</v>
       </c>
       <c r="G36" t="n">
-        <v>89.95933333333332</v>
+        <v>128349.7450150552</v>
       </c>
       <c r="H36" t="n">
-        <v>90.41916666666663</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>90.13</v>
+        <v>89.81</v>
       </c>
       <c r="C37" t="n">
-        <v>90.13</v>
+        <v>89.8</v>
       </c>
       <c r="D37" t="n">
-        <v>90.13</v>
+        <v>89.81</v>
       </c>
       <c r="E37" t="n">
-        <v>90.13</v>
+        <v>89.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1157.6734</v>
+        <v>1631.9028</v>
       </c>
       <c r="G37" t="n">
-        <v>89.902</v>
+        <v>126717.8422150552</v>
       </c>
       <c r="H37" t="n">
-        <v>90.41416666666663</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>89.5</v>
+        <v>90.3</v>
       </c>
       <c r="C38" t="n">
-        <v>89.45</v>
+        <v>90.3</v>
       </c>
       <c r="D38" t="n">
-        <v>89.5</v>
+        <v>90.3</v>
       </c>
       <c r="E38" t="n">
-        <v>89.45</v>
+        <v>90.3</v>
       </c>
       <c r="F38" t="n">
-        <v>1002.2344</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>89.83</v>
+        <v>126723.8422150552</v>
       </c>
       <c r="H38" t="n">
-        <v>90.39783333333328</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>89.41</v>
+        <v>90.3</v>
       </c>
       <c r="C39" t="n">
-        <v>89.41</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>89.41</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>89.41</v>
+        <v>90.3</v>
       </c>
       <c r="F39" t="n">
-        <v>20000</v>
+        <v>23370</v>
       </c>
       <c r="G39" t="n">
-        <v>89.75533333333334</v>
+        <v>150093.8422150552</v>
       </c>
       <c r="H39" t="n">
-        <v>90.38916666666661</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>89.34999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>89.34999999999999</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>89.34999999999999</v>
+        <v>91.09</v>
       </c>
       <c r="E40" t="n">
-        <v>89.34999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>1096.1235</v>
+        <v>11142.4589</v>
       </c>
       <c r="G40" t="n">
-        <v>89.648</v>
+        <v>161236.3011150552</v>
       </c>
       <c r="H40" t="n">
-        <v>90.38133333333329</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>89.18000000000001</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>89.18000000000001</v>
+        <v>90.98</v>
       </c>
       <c r="D41" t="n">
-        <v>89.18000000000001</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>89.18000000000001</v>
+        <v>90.98</v>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>824.5752</v>
       </c>
       <c r="G41" t="n">
-        <v>89.56533333333333</v>
+        <v>160411.7259150552</v>
       </c>
       <c r="H41" t="n">
-        <v>90.37066666666664</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>88.93000000000001</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>88.81999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="D42" t="n">
-        <v>88.93000000000001</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>88.81999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="F42" t="n">
-        <v>49924.8146</v>
+        <v>5596.6426</v>
       </c>
       <c r="G42" t="n">
-        <v>89.45866666666666</v>
+        <v>154815.0833150552</v>
       </c>
       <c r="H42" t="n">
-        <v>90.35399999999997</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="C43" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="D43" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="E43" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="F43" t="n">
-        <v>19.2853</v>
+        <v>17255.7251</v>
       </c>
       <c r="G43" t="n">
-        <v>89.37733333333333</v>
+        <v>154815.0833150552</v>
       </c>
       <c r="H43" t="n">
-        <v>90.3353333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.18000000000001</v>
+        <v>89.91</v>
       </c>
       <c r="C44" t="n">
-        <v>89.18000000000001</v>
+        <v>89.91</v>
       </c>
       <c r="D44" t="n">
-        <v>89.18000000000001</v>
+        <v>89.91</v>
       </c>
       <c r="E44" t="n">
-        <v>89.18000000000001</v>
+        <v>89.91</v>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>10144.2414</v>
       </c>
       <c r="G44" t="n">
-        <v>89.36666666666666</v>
+        <v>144670.8419150552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.3068333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89.09999999999999</v>
+        <v>89.91</v>
       </c>
       <c r="C45" t="n">
-        <v>89.09999999999999</v>
+        <v>89.91</v>
       </c>
       <c r="D45" t="n">
-        <v>89.09999999999999</v>
+        <v>89.91</v>
       </c>
       <c r="E45" t="n">
-        <v>89.09999999999999</v>
+        <v>89.91</v>
       </c>
       <c r="F45" t="n">
-        <v>1287.7782</v>
+        <v>404.7691</v>
       </c>
       <c r="G45" t="n">
-        <v>89.35133333333333</v>
+        <v>144670.8419150552</v>
       </c>
       <c r="H45" t="n">
-        <v>90.28849999999997</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89.13</v>
+        <v>90.02</v>
       </c>
       <c r="C46" t="n">
-        <v>89.09999999999999</v>
+        <v>90.75</v>
       </c>
       <c r="D46" t="n">
-        <v>89.13</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>89.09999999999999</v>
+        <v>90.02</v>
       </c>
       <c r="F46" t="n">
-        <v>47952.8068</v>
+        <v>18651.156</v>
       </c>
       <c r="G46" t="n">
-        <v>89.336</v>
+        <v>163321.9979150552</v>
       </c>
       <c r="H46" t="n">
-        <v>90.27016666666665</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>89.22</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>89.09999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>89.22</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>89.09999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>7708.4373</v>
+        <v>140.6602</v>
       </c>
       <c r="G47" t="n">
-        <v>89.32066666666667</v>
+        <v>163462.6581150552</v>
       </c>
       <c r="H47" t="n">
-        <v>90.24849999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>88.8</v>
+        <v>90.77</v>
       </c>
       <c r="C48" t="n">
-        <v>88.70999999999999</v>
+        <v>90.77</v>
       </c>
       <c r="D48" t="n">
-        <v>88.8</v>
+        <v>90.77</v>
       </c>
       <c r="E48" t="n">
-        <v>88.70999999999999</v>
+        <v>90.77</v>
       </c>
       <c r="F48" t="n">
-        <v>7201.3049</v>
+        <v>250.2379</v>
       </c>
       <c r="G48" t="n">
-        <v>89.28466666666667</v>
+        <v>163212.4202150552</v>
       </c>
       <c r="H48" t="n">
-        <v>90.22033333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>88.15000000000001</v>
+        <v>90.91</v>
       </c>
       <c r="C49" t="n">
-        <v>88</v>
+        <v>90.91</v>
       </c>
       <c r="D49" t="n">
-        <v>88.15000000000001</v>
+        <v>90.91</v>
       </c>
       <c r="E49" t="n">
-        <v>88</v>
+        <v>90.91</v>
       </c>
       <c r="F49" t="n">
-        <v>16000</v>
+        <v>7680.7692</v>
       </c>
       <c r="G49" t="n">
-        <v>89.22066666666666</v>
+        <v>170893.1894150552</v>
       </c>
       <c r="H49" t="n">
-        <v>90.17866666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>88.3</v>
+        <v>90.97</v>
       </c>
       <c r="C50" t="n">
-        <v>88.3</v>
+        <v>90.97</v>
       </c>
       <c r="D50" t="n">
-        <v>88.3</v>
+        <v>90.97</v>
       </c>
       <c r="E50" t="n">
-        <v>88.3</v>
+        <v>90.97</v>
       </c>
       <c r="F50" t="n">
-        <v>4363.154</v>
+        <v>4514.9454</v>
       </c>
       <c r="G50" t="n">
-        <v>89.13533333333334</v>
+        <v>175408.1348150552</v>
       </c>
       <c r="H50" t="n">
-        <v>90.14366666666668</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>88.86</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>88.86</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>88.86</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>88.86</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>13019.3752</v>
+        <v>1359.6813</v>
       </c>
       <c r="G51" t="n">
-        <v>89.05933333333333</v>
+        <v>176767.8161150552</v>
       </c>
       <c r="H51" t="n">
-        <v>90.11800000000001</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>88.86</v>
+        <v>90.53</v>
       </c>
       <c r="C52" t="n">
-        <v>88.2</v>
+        <v>90.53</v>
       </c>
       <c r="D52" t="n">
-        <v>88.86</v>
+        <v>90.53</v>
       </c>
       <c r="E52" t="n">
-        <v>88.2</v>
+        <v>90.53</v>
       </c>
       <c r="F52" t="n">
-        <v>1000.2808</v>
+        <v>13383.615</v>
       </c>
       <c r="G52" t="n">
-        <v>88.93066666666667</v>
+        <v>163384.2011150552</v>
       </c>
       <c r="H52" t="n">
-        <v>90.078</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>88.59999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="C53" t="n">
-        <v>88.59999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="D53" t="n">
-        <v>88.59999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="E53" t="n">
-        <v>88.59999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="F53" t="n">
-        <v>3629.1709</v>
+        <v>1130.3391</v>
       </c>
       <c r="G53" t="n">
-        <v>88.874</v>
+        <v>163384.2011150552</v>
       </c>
       <c r="H53" t="n">
-        <v>90.04333333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>88.09999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>88</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>88.09999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>88</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>18980</v>
+        <v>1700</v>
       </c>
       <c r="G54" t="n">
-        <v>88.77999999999999</v>
+        <v>165084.2011150552</v>
       </c>
       <c r="H54" t="n">
-        <v>89.99150000000002</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>88</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>87.95999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="D55" t="n">
-        <v>88</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>87.95999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="F55" t="n">
-        <v>4158.0137</v>
+        <v>1387.1503</v>
       </c>
       <c r="G55" t="n">
-        <v>88.68733333333333</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H55" t="n">
-        <v>89.935</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>87.8</v>
+        <v>90.5</v>
       </c>
       <c r="C56" t="n">
-        <v>87.40000000000001</v>
+        <v>90.42</v>
       </c>
       <c r="D56" t="n">
-        <v>87.8</v>
+        <v>90.5</v>
       </c>
       <c r="E56" t="n">
-        <v>87.40000000000001</v>
+        <v>90.42</v>
       </c>
       <c r="F56" t="n">
-        <v>54990.4928</v>
+        <v>5095.6806</v>
       </c>
       <c r="G56" t="n">
-        <v>88.56866666666666</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H56" t="n">
-        <v>89.869</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>87.98999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="C57" t="n">
-        <v>87.98999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="D57" t="n">
-        <v>87.98999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="E57" t="n">
-        <v>87.98999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="F57" t="n">
-        <v>550.096601886578</v>
+        <v>599.6552</v>
       </c>
       <c r="G57" t="n">
-        <v>88.51333333333334</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H57" t="n">
-        <v>89.813</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>88.3</v>
+        <v>90.13</v>
       </c>
       <c r="C58" t="n">
-        <v>88.39</v>
+        <v>89.34</v>
       </c>
       <c r="D58" t="n">
-        <v>88.39</v>
+        <v>90.13</v>
       </c>
       <c r="E58" t="n">
-        <v>88.3</v>
+        <v>89.34</v>
       </c>
       <c r="F58" t="n">
-        <v>11313.68243857902</v>
+        <v>63799.3349</v>
       </c>
       <c r="G58" t="n">
-        <v>88.45933333333333</v>
+        <v>99897.7159150552</v>
       </c>
       <c r="H58" t="n">
-        <v>89.76366666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>88.44</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>88.44</v>
+        <v>89.33</v>
       </c>
       <c r="D59" t="n">
-        <v>88.44</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>88.44</v>
+        <v>89.33</v>
       </c>
       <c r="F59" t="n">
-        <v>19998.7111</v>
+        <v>29371.005</v>
       </c>
       <c r="G59" t="n">
-        <v>88.41000000000001</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H59" t="n">
-        <v>89.71516666666665</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>88.56999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="C60" t="n">
-        <v>88.56999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="D60" t="n">
-        <v>88.56999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="E60" t="n">
-        <v>88.56999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>1672.164</v>
       </c>
       <c r="G60" t="n">
-        <v>88.37466666666667</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H60" t="n">
-        <v>89.66883333333331</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>88.56999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="C61" t="n">
-        <v>88.61</v>
+        <v>89.33</v>
       </c>
       <c r="D61" t="n">
-        <v>88.61</v>
+        <v>89.33</v>
       </c>
       <c r="E61" t="n">
-        <v>88.56999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="F61" t="n">
-        <v>31</v>
+        <v>14003.926</v>
       </c>
       <c r="G61" t="n">
-        <v>88.34200000000001</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H61" t="n">
-        <v>89.63066666666664</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>88.73</v>
+        <v>89.33</v>
       </c>
       <c r="C62" t="n">
-        <v>88.73</v>
+        <v>89.25</v>
       </c>
       <c r="D62" t="n">
-        <v>88.73</v>
+        <v>89.33</v>
       </c>
       <c r="E62" t="n">
-        <v>88.73</v>
+        <v>89.25</v>
       </c>
       <c r="F62" t="n">
-        <v>534.723</v>
+        <v>5375.2604</v>
       </c>
       <c r="G62" t="n">
-        <v>88.31733333333335</v>
+        <v>65151.4505150552</v>
       </c>
       <c r="H62" t="n">
-        <v>89.5978333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>88.09999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>88.09999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>88.09999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>88.09999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>22.37</v>
+        <v>63871.4122</v>
       </c>
       <c r="G63" t="n">
-        <v>88.27666666666667</v>
+        <v>1280.038315055201</v>
       </c>
       <c r="H63" t="n">
-        <v>89.55449999999998</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>88.09999999999999</v>
+        <v>89.58</v>
       </c>
       <c r="C64" t="n">
-        <v>88.09999999999999</v>
+        <v>89.58</v>
       </c>
       <c r="D64" t="n">
-        <v>88.09999999999999</v>
+        <v>89.58</v>
       </c>
       <c r="E64" t="n">
-        <v>88.09999999999999</v>
+        <v>89.58</v>
       </c>
       <c r="F64" t="n">
-        <v>2300</v>
+        <v>610</v>
       </c>
       <c r="G64" t="n">
-        <v>88.28333333333333</v>
+        <v>1890.038315055201</v>
       </c>
       <c r="H64" t="n">
-        <v>89.51116666666665</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>88.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>88.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="D65" t="n">
-        <v>88.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="E65" t="n">
-        <v>88.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>7204.5607</v>
       </c>
       <c r="G65" t="n">
-        <v>88.27</v>
+        <v>9094.599015055201</v>
       </c>
       <c r="H65" t="n">
-        <v>89.468</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>88.09999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="C66" t="n">
-        <v>88.09999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="D66" t="n">
-        <v>88.09999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="E66" t="n">
-        <v>88.09999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="F66" t="n">
-        <v>750</v>
+        <v>1157.6734</v>
       </c>
       <c r="G66" t="n">
-        <v>88.21933333333332</v>
+        <v>10252.2724150552</v>
       </c>
       <c r="H66" t="n">
-        <v>89.42149999999999</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>88.3</v>
+        <v>89.5</v>
       </c>
       <c r="C67" t="n">
-        <v>88.3</v>
+        <v>89.45</v>
       </c>
       <c r="D67" t="n">
-        <v>88.3</v>
+        <v>89.5</v>
       </c>
       <c r="E67" t="n">
-        <v>88.3</v>
+        <v>89.45</v>
       </c>
       <c r="F67" t="n">
-        <v>2645.3924</v>
+        <v>1002.2344</v>
       </c>
       <c r="G67" t="n">
-        <v>88.22599999999998</v>
+        <v>9250.038015055201</v>
       </c>
       <c r="H67" t="n">
-        <v>89.38650000000001</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>88.3</v>
+        <v>89.41</v>
       </c>
       <c r="C68" t="n">
-        <v>88.09999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="D68" t="n">
-        <v>88.3</v>
+        <v>89.41</v>
       </c>
       <c r="E68" t="n">
-        <v>88.09999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="F68" t="n">
-        <v>5350</v>
+        <v>20000</v>
       </c>
       <c r="G68" t="n">
-        <v>88.19266666666665</v>
+        <v>-10749.9619849448</v>
       </c>
       <c r="H68" t="n">
-        <v>89.35816666666668</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>88.2</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>88.2</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>88.2</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>88.2</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>1136.4656</v>
+        <v>1096.1235</v>
       </c>
       <c r="G69" t="n">
-        <v>88.20599999999999</v>
+        <v>-11846.0854849448</v>
       </c>
       <c r="H69" t="n">
-        <v>89.32316666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>88.40000000000001</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>88.40000000000001</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>88.40000000000001</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>88.40000000000001</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>5690.7751</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>88.23533333333333</v>
+        <v>-13846.0854849448</v>
       </c>
       <c r="H70" t="n">
-        <v>89.28983333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>88.40000000000001</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>88.40000000000001</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>88.40000000000001</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>88.40000000000001</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>1149.8564</v>
+        <v>49924.8146</v>
       </c>
       <c r="G71" t="n">
-        <v>88.30199999999999</v>
+        <v>-63770.9000849448</v>
       </c>
       <c r="H71" t="n">
-        <v>89.24666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>88.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="C72" t="n">
-        <v>88.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D72" t="n">
-        <v>88.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E72" t="n">
-        <v>88.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F72" t="n">
-        <v>3159.3685</v>
+        <v>19.2853</v>
       </c>
       <c r="G72" t="n">
-        <v>88.32933333333334</v>
+        <v>-63751.6147849448</v>
       </c>
       <c r="H72" t="n">
-        <v>89.20366666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>88.09999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>88</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>88.09999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>88</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>7056.2642</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="n">
-        <v>88.30333333333333</v>
+        <v>-64951.6147849448</v>
       </c>
       <c r="H73" t="n">
-        <v>89.17166666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>87.84999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>87.84999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>19385.5645</v>
+        <v>1287.7782</v>
       </c>
       <c r="G74" t="n">
-        <v>88.26399999999998</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H74" t="n">
-        <v>89.13716666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87.90000000000001</v>
+        <v>89.13</v>
       </c>
       <c r="C75" t="n">
-        <v>87.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>87.90000000000001</v>
+        <v>89.13</v>
       </c>
       <c r="E75" t="n">
-        <v>87.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>11820</v>
+        <v>47952.8068</v>
       </c>
       <c r="G75" t="n">
-        <v>88.21266666666665</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H75" t="n">
-        <v>89.10200000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>87.8</v>
+        <v>89.22</v>
       </c>
       <c r="C76" t="n">
-        <v>87.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>87.8</v>
+        <v>89.22</v>
       </c>
       <c r="E76" t="n">
-        <v>87.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>23000.0001</v>
+        <v>7708.4373</v>
       </c>
       <c r="G76" t="n">
-        <v>88.13200000000001</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H76" t="n">
-        <v>89.06016666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>88.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="C77" t="n">
-        <v>88.09999999999999</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>88.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="E77" t="n">
-        <v>88.09999999999999</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>4545.7495</v>
+        <v>7201.3049</v>
       </c>
       <c r="G77" t="n">
-        <v>88.08999999999999</v>
+        <v>-73440.69788494479</v>
       </c>
       <c r="H77" t="n">
-        <v>89.01600000000002</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>87.5</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="D78" t="n">
-        <v>87.5</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="F78" t="n">
-        <v>550.0966</v>
+        <v>16000</v>
       </c>
       <c r="G78" t="n">
-        <v>88.05</v>
+        <v>-89440.69788494479</v>
       </c>
       <c r="H78" t="n">
-        <v>88.96116666666668</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>87.44</v>
+        <v>88.3</v>
       </c>
       <c r="C79" t="n">
-        <v>87.42</v>
+        <v>88.3</v>
       </c>
       <c r="D79" t="n">
-        <v>87.44</v>
+        <v>88.3</v>
       </c>
       <c r="E79" t="n">
-        <v>87.42</v>
+        <v>88.3</v>
       </c>
       <c r="F79" t="n">
-        <v>6000</v>
+        <v>4363.154</v>
       </c>
       <c r="G79" t="n">
-        <v>88.00466666666668</v>
+        <v>-85077.5438849448</v>
       </c>
       <c r="H79" t="n">
-        <v>88.90533333333335</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>87.42</v>
+        <v>88.86</v>
       </c>
       <c r="C80" t="n">
-        <v>87.42</v>
+        <v>88.86</v>
       </c>
       <c r="D80" t="n">
-        <v>87.42</v>
+        <v>88.86</v>
       </c>
       <c r="E80" t="n">
-        <v>87.42</v>
+        <v>88.86</v>
       </c>
       <c r="F80" t="n">
-        <v>3846.836</v>
+        <v>13019.3752</v>
       </c>
       <c r="G80" t="n">
-        <v>87.95933333333336</v>
+        <v>-72058.1686849448</v>
       </c>
       <c r="H80" t="n">
-        <v>88.84716666666668</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>87.43000000000001</v>
+        <v>88.86</v>
       </c>
       <c r="C81" t="n">
-        <v>87.43000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="D81" t="n">
-        <v>87.43000000000001</v>
+        <v>88.86</v>
       </c>
       <c r="E81" t="n">
-        <v>87.43000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="F81" t="n">
-        <v>22900</v>
+        <v>1000.2808</v>
       </c>
       <c r="G81" t="n">
-        <v>87.9146666666667</v>
+        <v>-73058.44948494479</v>
       </c>
       <c r="H81" t="n">
-        <v>88.78816666666668</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>74739.7678</v>
+        <v>3629.1709</v>
       </c>
       <c r="G82" t="n">
-        <v>87.86133333333336</v>
+        <v>-69429.2785849448</v>
       </c>
       <c r="H82" t="n">
-        <v>88.73000000000002</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>87.42</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>87.42</v>
+        <v>88</v>
       </c>
       <c r="D83" t="n">
-        <v>87.42</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>87.42</v>
+        <v>88</v>
       </c>
       <c r="F83" t="n">
-        <v>3242.1654</v>
+        <v>18980</v>
       </c>
       <c r="G83" t="n">
-        <v>87.81600000000005</v>
+        <v>-88409.2785849448</v>
       </c>
       <c r="H83" t="n">
-        <v>88.67816666666668</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>87.42</v>
+        <v>88</v>
       </c>
       <c r="C84" t="n">
-        <v>87.39</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>87.42</v>
+        <v>88</v>
       </c>
       <c r="E84" t="n">
-        <v>87.39</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>11140</v>
+        <v>4158.0137</v>
       </c>
       <c r="G84" t="n">
-        <v>87.76200000000004</v>
+        <v>-92567.29228494479</v>
       </c>
       <c r="H84" t="n">
-        <v>88.62583333333336</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>87.39</v>
+        <v>87.8</v>
       </c>
       <c r="C85" t="n">
-        <v>87.39</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>87.39</v>
+        <v>87.8</v>
       </c>
       <c r="E85" t="n">
-        <v>87.39</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>1082.6088</v>
+        <v>54990.4928</v>
       </c>
       <c r="G85" t="n">
-        <v>87.69466666666672</v>
+        <v>-147557.7850849448</v>
       </c>
       <c r="H85" t="n">
-        <v>88.56633333333338</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87.3</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>87.3</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>87.3</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>87.3</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>150</v>
+        <v>550.096601886578</v>
       </c>
       <c r="G86" t="n">
-        <v>87.62133333333337</v>
+        <v>-147007.6884830582</v>
       </c>
       <c r="H86" t="n">
-        <v>88.51433333333337</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>87.2</v>
+        <v>88.3</v>
       </c>
       <c r="C87" t="n">
-        <v>87.05</v>
+        <v>88.39</v>
       </c>
       <c r="D87" t="n">
-        <v>87.2</v>
+        <v>88.39</v>
       </c>
       <c r="E87" t="n">
-        <v>87.05</v>
+        <v>88.3</v>
       </c>
       <c r="F87" t="n">
-        <v>4150</v>
+        <v>11313.68243857902</v>
       </c>
       <c r="G87" t="n">
-        <v>87.53133333333336</v>
+        <v>-135694.0060444792</v>
       </c>
       <c r="H87" t="n">
-        <v>88.45816666666671</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>87.03</v>
+        <v>88.44</v>
       </c>
       <c r="C88" t="n">
-        <v>86.98999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="D88" t="n">
-        <v>87.03</v>
+        <v>88.44</v>
       </c>
       <c r="E88" t="n">
-        <v>86.98999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="F88" t="n">
-        <v>13074.4027</v>
+        <v>19998.7111</v>
       </c>
       <c r="G88" t="n">
-        <v>87.46400000000003</v>
+        <v>-115695.2949444792</v>
       </c>
       <c r="H88" t="n">
-        <v>88.40100000000004</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>86.98</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>86.84999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>86.98</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>86.84999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>40349.6129</v>
+        <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>87.39733333333336</v>
+        <v>-115689.2949444792</v>
       </c>
       <c r="H89" t="n">
-        <v>88.35950000000004</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>86.84</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>86.84</v>
+        <v>88.61</v>
       </c>
       <c r="D90" t="n">
-        <v>86.84</v>
+        <v>88.61</v>
       </c>
       <c r="E90" t="n">
-        <v>86.84</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>15.2072</v>
+        <v>31</v>
       </c>
       <c r="G90" t="n">
-        <v>87.33333333333336</v>
+        <v>-115658.2949444792</v>
       </c>
       <c r="H90" t="n">
-        <v>88.31800000000004</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>87.05</v>
+        <v>88.73</v>
       </c>
       <c r="C91" t="n">
-        <v>87.05</v>
+        <v>88.73</v>
       </c>
       <c r="D91" t="n">
-        <v>87.05</v>
+        <v>88.73</v>
       </c>
       <c r="E91" t="n">
-        <v>87.05</v>
+        <v>88.73</v>
       </c>
       <c r="F91" t="n">
-        <v>63.1821</v>
+        <v>534.723</v>
       </c>
       <c r="G91" t="n">
-        <v>87.31000000000002</v>
+        <v>-115123.5719444792</v>
       </c>
       <c r="H91" t="n">
-        <v>88.28000000000004</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86.84</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>86.84</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>86.84</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>86.84</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>4081.7924</v>
+        <v>22.37</v>
       </c>
       <c r="G92" t="n">
-        <v>87.22600000000003</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H92" t="n">
-        <v>88.23850000000006</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86.84</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>87.05</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>87.05</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>86.81999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>832.3414</v>
+        <v>2300</v>
       </c>
       <c r="G93" t="n">
-        <v>87.19600000000001</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H93" t="n">
-        <v>88.20183333333338</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>86.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>87.48</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>87.48</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>86.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>11269.5005</v>
+        <v>10000</v>
       </c>
       <c r="G94" t="n">
-        <v>87.20000000000002</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H94" t="n">
-        <v>88.17716666666671</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>87.25</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>87.25</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>87.25</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>87.25</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="G95" t="n">
-        <v>87.18866666666668</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H95" t="n">
-        <v>88.13833333333338</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,42 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>87.37</v>
+        <v>88.3</v>
       </c>
       <c r="C96" t="n">
-        <v>86.61</v>
+        <v>88.3</v>
       </c>
       <c r="D96" t="n">
-        <v>87.37</v>
+        <v>88.3</v>
       </c>
       <c r="E96" t="n">
-        <v>86.61</v>
+        <v>88.3</v>
       </c>
       <c r="F96" t="n">
-        <v>39294.897</v>
+        <v>2645.3924</v>
       </c>
       <c r="G96" t="n">
-        <v>87.134</v>
+        <v>-112500.5495444792</v>
       </c>
       <c r="H96" t="n">
-        <v>88.08183333333338</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>87.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,40 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>87.3</v>
+        <v>88.3</v>
       </c>
       <c r="C97" t="n">
-        <v>87.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>87.3</v>
+        <v>88.3</v>
       </c>
       <c r="E97" t="n">
-        <v>87.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>364.4947</v>
+        <v>5350</v>
       </c>
       <c r="G97" t="n">
-        <v>87.12066666666666</v>
+        <v>-117850.5495444792</v>
       </c>
       <c r="H97" t="n">
-        <v>88.03466666666671</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,40 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>87.19</v>
+        <v>88.2</v>
       </c>
       <c r="C98" t="n">
-        <v>87.01000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="D98" t="n">
-        <v>87.56</v>
+        <v>88.2</v>
       </c>
       <c r="E98" t="n">
-        <v>87.01000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="F98" t="n">
-        <v>23345.71608040201</v>
+        <v>1136.4656</v>
       </c>
       <c r="G98" t="n">
-        <v>87.09333333333332</v>
+        <v>-116714.0839444792</v>
       </c>
       <c r="H98" t="n">
-        <v>87.99400000000006</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4138,40 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>87.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>87.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>87.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>87.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>7126.9999</v>
+        <v>5690.7751</v>
       </c>
       <c r="G99" t="n">
-        <v>87.07399999999998</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H99" t="n">
-        <v>87.95550000000006</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,40 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>87.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>87.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>87.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>87.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>1149.8564</v>
       </c>
       <c r="G100" t="n">
-        <v>87.06133333333331</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H100" t="n">
-        <v>87.91966666666671</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,40 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>87.69</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>87.79000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>87.79000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>87.69</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>1139.491969472605</v>
+        <v>3159.3685</v>
       </c>
       <c r="G101" t="n">
-        <v>87.09399999999998</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H101" t="n">
-        <v>87.89650000000005</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,40 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>87.72</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>87.72</v>
+        <v>88</v>
       </c>
       <c r="D102" t="n">
-        <v>87.72</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>87.72</v>
+        <v>88</v>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>7056.2642</v>
       </c>
       <c r="G102" t="n">
-        <v>87.13866666666665</v>
+        <v>-118079.5730444792</v>
       </c>
       <c r="H102" t="n">
-        <v>87.87816666666671</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,40 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>87.2</v>
+        <v>88</v>
       </c>
       <c r="C103" t="n">
-        <v>87.2</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>87.2</v>
+        <v>88</v>
       </c>
       <c r="E103" t="n">
-        <v>87.2</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>190.1165</v>
+        <v>19385.5645</v>
       </c>
       <c r="G103" t="n">
-        <v>87.15266666666665</v>
+        <v>-137465.1375444792</v>
       </c>
       <c r="H103" t="n">
-        <v>87.84483333333338</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,42 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>87.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>87.77</v>
+        <v>87.8</v>
       </c>
       <c r="D104" t="n">
-        <v>87.77</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>87.2</v>
+        <v>87.8</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>11820</v>
       </c>
       <c r="G104" t="n">
-        <v>87.21399999999998</v>
+        <v>-149285.1375444792</v>
       </c>
       <c r="H104" t="n">
-        <v>87.82133333333338</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>87.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,42 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>87.78</v>
+        <v>87.8</v>
       </c>
       <c r="C105" t="n">
-        <v>87.78</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>87.78</v>
+        <v>87.8</v>
       </c>
       <c r="E105" t="n">
-        <v>87.78</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>19200</v>
+        <v>23000.0001</v>
       </c>
       <c r="G105" t="n">
-        <v>87.27666666666666</v>
+        <v>-172285.1376444792</v>
       </c>
       <c r="H105" t="n">
-        <v>87.79933333333338</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>87.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,40 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>3136.8061</v>
+        <v>4545.7495</v>
       </c>
       <c r="G106" t="n">
-        <v>87.32533333333332</v>
+        <v>-167739.3881444792</v>
       </c>
       <c r="H106" t="n">
-        <v>87.77733333333337</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,40 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>87.78</v>
+        <v>87.5</v>
       </c>
       <c r="C107" t="n">
-        <v>87.78</v>
+        <v>87.5</v>
       </c>
       <c r="D107" t="n">
-        <v>87.78</v>
+        <v>87.5</v>
       </c>
       <c r="E107" t="n">
-        <v>87.78</v>
+        <v>87.5</v>
       </c>
       <c r="F107" t="n">
-        <v>702.1493</v>
+        <v>550.0966</v>
       </c>
       <c r="G107" t="n">
-        <v>87.38799999999999</v>
+        <v>-168289.4847444792</v>
       </c>
       <c r="H107" t="n">
-        <v>87.75533333333335</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,42 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>87.78</v>
+        <v>87.44</v>
       </c>
       <c r="C108" t="n">
-        <v>87.78</v>
+        <v>87.42</v>
       </c>
       <c r="D108" t="n">
-        <v>87.78</v>
+        <v>87.44</v>
       </c>
       <c r="E108" t="n">
-        <v>87.78</v>
+        <v>87.42</v>
       </c>
       <c r="F108" t="n">
-        <v>613.7361</v>
+        <v>6000</v>
       </c>
       <c r="G108" t="n">
-        <v>87.43666666666667</v>
+        <v>-174289.4847444792</v>
       </c>
       <c r="H108" t="n">
-        <v>87.73983333333335</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>87.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4564,40 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>87.81999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="C109" t="n">
-        <v>87.81999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="D109" t="n">
-        <v>87.81999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="E109" t="n">
-        <v>87.81999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="F109" t="n">
-        <v>11.387</v>
+        <v>3846.836</v>
       </c>
       <c r="G109" t="n">
-        <v>87.45933333333332</v>
+        <v>-174289.4847444792</v>
       </c>
       <c r="H109" t="n">
-        <v>87.73683333333335</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,42 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>88.52</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>88.52</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>88.52</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>88.52</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>361.0662</v>
+        <v>22900</v>
       </c>
       <c r="G110" t="n">
-        <v>87.544</v>
+        <v>-151389.4847444792</v>
       </c>
       <c r="H110" t="n">
-        <v>87.74050000000003</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>87.81999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,40 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>88.52</v>
+        <v>87.5</v>
       </c>
       <c r="C111" t="n">
-        <v>88.52</v>
+        <v>87.5</v>
       </c>
       <c r="D111" t="n">
-        <v>88.52</v>
+        <v>87.5</v>
       </c>
       <c r="E111" t="n">
-        <v>88.52</v>
+        <v>87.5</v>
       </c>
       <c r="F111" t="n">
-        <v>3221.8665</v>
+        <v>74739.7678</v>
       </c>
       <c r="G111" t="n">
-        <v>87.67133333333332</v>
+        <v>-76649.71694447921</v>
       </c>
       <c r="H111" t="n">
-        <v>87.73483333333337</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,40 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>88.47</v>
+        <v>87.42</v>
       </c>
       <c r="C112" t="n">
-        <v>88.52</v>
+        <v>87.42</v>
       </c>
       <c r="D112" t="n">
-        <v>88.52</v>
+        <v>87.42</v>
       </c>
       <c r="E112" t="n">
-        <v>88.47</v>
+        <v>87.42</v>
       </c>
       <c r="F112" t="n">
-        <v>7495.5853</v>
+        <v>3242.1654</v>
       </c>
       <c r="G112" t="n">
-        <v>87.75266666666667</v>
+        <v>-79891.88234447921</v>
       </c>
       <c r="H112" t="n">
-        <v>87.74016666666671</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,40 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>88.89</v>
+        <v>87.42</v>
       </c>
       <c r="C113" t="n">
-        <v>88.89</v>
+        <v>87.39</v>
       </c>
       <c r="D113" t="n">
-        <v>88.89</v>
+        <v>87.42</v>
       </c>
       <c r="E113" t="n">
-        <v>88.89</v>
+        <v>87.39</v>
       </c>
       <c r="F113" t="n">
-        <v>517.4899</v>
+        <v>11140</v>
       </c>
       <c r="G113" t="n">
-        <v>87.878</v>
+        <v>-91031.88234447921</v>
       </c>
       <c r="H113" t="n">
-        <v>87.74500000000005</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,40 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>88.72</v>
+        <v>87.39</v>
       </c>
       <c r="C114" t="n">
-        <v>88.8</v>
+        <v>87.39</v>
       </c>
       <c r="D114" t="n">
-        <v>88.8</v>
+        <v>87.39</v>
       </c>
       <c r="E114" t="n">
-        <v>88.72</v>
+        <v>87.39</v>
       </c>
       <c r="F114" t="n">
-        <v>50000</v>
+        <v>1082.6088</v>
       </c>
       <c r="G114" t="n">
-        <v>87.99133333333334</v>
+        <v>-91031.88234447921</v>
       </c>
       <c r="H114" t="n">
-        <v>87.75833333333338</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,40 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>88.3</v>
+        <v>87.3</v>
       </c>
       <c r="C115" t="n">
-        <v>88.3</v>
+        <v>87.3</v>
       </c>
       <c r="D115" t="n">
-        <v>88.3</v>
+        <v>87.3</v>
       </c>
       <c r="E115" t="n">
-        <v>88.3</v>
+        <v>87.3</v>
       </c>
       <c r="F115" t="n">
-        <v>181.3861</v>
+        <v>150</v>
       </c>
       <c r="G115" t="n">
-        <v>88.06466666666667</v>
+        <v>-91181.88234447921</v>
       </c>
       <c r="H115" t="n">
-        <v>87.76400000000005</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,40 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>88.3</v>
+        <v>87.2</v>
       </c>
       <c r="C116" t="n">
-        <v>88.3</v>
+        <v>87.05</v>
       </c>
       <c r="D116" t="n">
-        <v>88.3</v>
+        <v>87.2</v>
       </c>
       <c r="E116" t="n">
-        <v>88.3</v>
+        <v>87.05</v>
       </c>
       <c r="F116" t="n">
-        <v>430.7298</v>
+        <v>4150</v>
       </c>
       <c r="G116" t="n">
-        <v>88.09866666666667</v>
+        <v>-95331.88234447921</v>
       </c>
       <c r="H116" t="n">
-        <v>87.77900000000005</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,40 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>88.40000000000001</v>
+        <v>87.03</v>
       </c>
       <c r="C117" t="n">
-        <v>88.40000000000001</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>88.40000000000001</v>
+        <v>87.03</v>
       </c>
       <c r="E117" t="n">
-        <v>88.40000000000001</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>1096.5625</v>
+        <v>13074.4027</v>
       </c>
       <c r="G117" t="n">
-        <v>88.14400000000001</v>
+        <v>-108406.2850444792</v>
       </c>
       <c r="H117" t="n">
-        <v>87.78583333333339</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,40 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>88.7</v>
+        <v>86.98</v>
       </c>
       <c r="C118" t="n">
-        <v>88.88</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>88.88</v>
+        <v>86.98</v>
       </c>
       <c r="E118" t="n">
-        <v>88.7</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>5097.6894</v>
+        <v>40349.6129</v>
       </c>
       <c r="G118" t="n">
-        <v>88.256</v>
+        <v>-148755.8979444792</v>
       </c>
       <c r="H118" t="n">
-        <v>87.79400000000005</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,40 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>88.63</v>
+        <v>86.84</v>
       </c>
       <c r="C119" t="n">
-        <v>88.53</v>
+        <v>86.84</v>
       </c>
       <c r="D119" t="n">
-        <v>88.63</v>
+        <v>86.84</v>
       </c>
       <c r="E119" t="n">
-        <v>88.53</v>
+        <v>86.84</v>
       </c>
       <c r="F119" t="n">
-        <v>20000</v>
+        <v>15.2072</v>
       </c>
       <c r="G119" t="n">
-        <v>88.30666666666666</v>
+        <v>-148771.1051444792</v>
       </c>
       <c r="H119" t="n">
-        <v>87.79550000000005</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,40 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>88.59999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="C120" t="n">
-        <v>88.59999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="D120" t="n">
-        <v>88.59999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="E120" t="n">
-        <v>88.59999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="F120" t="n">
-        <v>183.0904</v>
+        <v>63.1821</v>
       </c>
       <c r="G120" t="n">
-        <v>88.36133333333332</v>
+        <v>-148707.9230444792</v>
       </c>
       <c r="H120" t="n">
-        <v>87.79600000000006</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5070,40 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>88.59999999999999</v>
+        <v>86.84</v>
       </c>
       <c r="C121" t="n">
-        <v>88.40000000000001</v>
+        <v>86.84</v>
       </c>
       <c r="D121" t="n">
-        <v>88.59999999999999</v>
+        <v>86.84</v>
       </c>
       <c r="E121" t="n">
-        <v>88.40000000000001</v>
+        <v>86.84</v>
       </c>
       <c r="F121" t="n">
-        <v>44008.9339</v>
+        <v>4081.7924</v>
       </c>
       <c r="G121" t="n">
-        <v>88.40266666666666</v>
+        <v>-152789.7154444792</v>
       </c>
       <c r="H121" t="n">
-        <v>87.79250000000006</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,40 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>88.8</v>
+        <v>86.84</v>
       </c>
       <c r="C122" t="n">
-        <v>88.84999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="D122" t="n">
-        <v>88.84999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="E122" t="n">
-        <v>88.8</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>24751.0391</v>
+        <v>832.3414</v>
       </c>
       <c r="G122" t="n">
-        <v>88.47399999999999</v>
+        <v>-151957.3740444792</v>
       </c>
       <c r="H122" t="n">
-        <v>87.79450000000007</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,40 +4668,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>88.84999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>88.98999999999999</v>
+        <v>87.48</v>
       </c>
       <c r="D123" t="n">
-        <v>88.98999999999999</v>
+        <v>87.48</v>
       </c>
       <c r="E123" t="n">
-        <v>88.84999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="F123" t="n">
-        <v>5000</v>
+        <v>11269.5005</v>
       </c>
       <c r="G123" t="n">
-        <v>88.55466666666666</v>
+        <v>-140687.8735444792</v>
       </c>
       <c r="H123" t="n">
-        <v>87.8093333333334</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,40 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>88.66</v>
+        <v>87.25</v>
       </c>
       <c r="C124" t="n">
-        <v>88.66</v>
+        <v>87.25</v>
       </c>
       <c r="D124" t="n">
-        <v>88.66</v>
+        <v>87.25</v>
       </c>
       <c r="E124" t="n">
-        <v>88.66</v>
+        <v>87.25</v>
       </c>
       <c r="F124" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="G124" t="n">
-        <v>88.61066666666667</v>
+        <v>-141047.8735444792</v>
       </c>
       <c r="H124" t="n">
-        <v>87.81866666666673</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,40 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>88.98999999999999</v>
+        <v>87.37</v>
       </c>
       <c r="C125" t="n">
-        <v>88.98999999999999</v>
+        <v>86.61</v>
       </c>
       <c r="D125" t="n">
-        <v>88.98999999999999</v>
+        <v>87.37</v>
       </c>
       <c r="E125" t="n">
-        <v>88.98999999999999</v>
+        <v>86.61</v>
       </c>
       <c r="F125" t="n">
-        <v>88.1558</v>
+        <v>39294.897</v>
       </c>
       <c r="G125" t="n">
-        <v>88.64200000000001</v>
+        <v>-180342.7705444792</v>
       </c>
       <c r="H125" t="n">
-        <v>87.83350000000004</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,40 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>89.47</v>
+        <v>87.3</v>
       </c>
       <c r="C126" t="n">
-        <v>89.47</v>
+        <v>87.3</v>
       </c>
       <c r="D126" t="n">
-        <v>89.47</v>
+        <v>87.3</v>
       </c>
       <c r="E126" t="n">
-        <v>89.47</v>
+        <v>87.3</v>
       </c>
       <c r="F126" t="n">
-        <v>13148.8821</v>
+        <v>364.4947</v>
       </c>
       <c r="G126" t="n">
-        <v>88.70533333333334</v>
+        <v>-179978.2758444792</v>
       </c>
       <c r="H126" t="n">
-        <v>87.85633333333338</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,40 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>89.47</v>
+        <v>87.19</v>
       </c>
       <c r="C127" t="n">
-        <v>89.2</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>89.47</v>
+        <v>87.56</v>
       </c>
       <c r="E127" t="n">
-        <v>89.2</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>11.2222</v>
+        <v>23345.71608040201</v>
       </c>
       <c r="G127" t="n">
-        <v>88.75066666666667</v>
+        <v>-203323.9919248812</v>
       </c>
       <c r="H127" t="n">
-        <v>87.87133333333337</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,40 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>89.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>89.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>89.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>89.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>2358.6684</v>
+        <v>7126.9999</v>
       </c>
       <c r="G128" t="n">
-        <v>88.76466666666667</v>
+        <v>-196196.9920248812</v>
       </c>
       <c r="H128" t="n">
-        <v>87.88800000000005</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5406,40 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>89.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="C129" t="n">
-        <v>89.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="D129" t="n">
-        <v>89.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="E129" t="n">
-        <v>89.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="F129" t="n">
-        <v>24.2135</v>
+        <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>88.78466666666667</v>
+        <v>-196096.9920248812</v>
       </c>
       <c r="H129" t="n">
-        <v>87.90300000000005</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,40 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>89.09999999999999</v>
+        <v>87.69</v>
       </c>
       <c r="C130" t="n">
-        <v>89.09999999999999</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>89.09999999999999</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>89.09999999999999</v>
+        <v>87.69</v>
       </c>
       <c r="F130" t="n">
-        <v>150.7571</v>
+        <v>1139.491969472605</v>
       </c>
       <c r="G130" t="n">
-        <v>88.83799999999999</v>
+        <v>-194957.5000554086</v>
       </c>
       <c r="H130" t="n">
-        <v>87.91466666666673</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5490,40 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>88.5</v>
+        <v>87.72</v>
       </c>
       <c r="C131" t="n">
-        <v>88.5</v>
+        <v>87.72</v>
       </c>
       <c r="D131" t="n">
-        <v>88.5</v>
+        <v>87.72</v>
       </c>
       <c r="E131" t="n">
-        <v>88.5</v>
+        <v>87.72</v>
       </c>
       <c r="F131" t="n">
-        <v>183.7327</v>
+        <v>5000</v>
       </c>
       <c r="G131" t="n">
-        <v>88.85133333333333</v>
+        <v>-199957.5000554086</v>
       </c>
       <c r="H131" t="n">
-        <v>87.9163333333334</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,40 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>88.5</v>
+        <v>87.2</v>
       </c>
       <c r="C132" t="n">
-        <v>88.5</v>
+        <v>87.2</v>
       </c>
       <c r="D132" t="n">
-        <v>88.5</v>
+        <v>87.2</v>
       </c>
       <c r="E132" t="n">
-        <v>88.5</v>
+        <v>87.2</v>
       </c>
       <c r="F132" t="n">
-        <v>350.105</v>
+        <v>190.1165</v>
       </c>
       <c r="G132" t="n">
-        <v>88.85799999999999</v>
+        <v>-200147.6165554086</v>
       </c>
       <c r="H132" t="n">
-        <v>87.91800000000008</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,40 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>88.5</v>
+        <v>87.2</v>
       </c>
       <c r="C133" t="n">
-        <v>88.5</v>
+        <v>87.77</v>
       </c>
       <c r="D133" t="n">
-        <v>88.5</v>
+        <v>87.77</v>
       </c>
       <c r="E133" t="n">
-        <v>88.5</v>
+        <v>87.2</v>
       </c>
       <c r="F133" t="n">
-        <v>1341.8787</v>
+        <v>10000</v>
       </c>
       <c r="G133" t="n">
-        <v>88.83266666666665</v>
+        <v>-190147.6165554086</v>
       </c>
       <c r="H133" t="n">
-        <v>87.9263333333334</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5616,40 +5053,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="C134" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="D134" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="E134" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="F134" t="n">
-        <v>1059.3372</v>
+        <v>19200</v>
       </c>
       <c r="G134" t="n">
-        <v>88.83066666666666</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H134" t="n">
-        <v>87.93716666666674</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5658,40 +5088,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="C135" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="D135" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="E135" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="F135" t="n">
-        <v>4809.3025</v>
+        <v>3136.8061</v>
       </c>
       <c r="G135" t="n">
-        <v>88.824</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H135" t="n">
-        <v>87.9488333333334</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,42 +5123,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="C136" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="D136" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="E136" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="F136" t="n">
-        <v>2341.2025</v>
+        <v>702.1493</v>
       </c>
       <c r="G136" t="n">
-        <v>88.83066666666666</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H136" t="n">
-        <v>87.96716666666674</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>88.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,42 +5158,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="C137" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="D137" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="E137" t="n">
-        <v>88.5</v>
+        <v>87.78</v>
       </c>
       <c r="F137" t="n">
-        <v>2158.6017</v>
+        <v>613.7361</v>
       </c>
       <c r="G137" t="n">
-        <v>88.80733333333333</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H137" t="n">
-        <v>87.9738333333334</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>88.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,42 +5193,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>88.5</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>88.5</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>88.5</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>88.5</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>35291.755</v>
+        <v>11.387</v>
       </c>
       <c r="G138" t="n">
-        <v>88.77466666666666</v>
+        <v>-170936.2295554086</v>
       </c>
       <c r="H138" t="n">
-        <v>87.99050000000007</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>88.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,42 +5228,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="C139" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="D139" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="E139" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="F139" t="n">
-        <v>3907.2803</v>
+        <v>361.0662</v>
       </c>
       <c r="G139" t="n">
-        <v>88.76399999999998</v>
+        <v>-170575.1633554086</v>
       </c>
       <c r="H139" t="n">
-        <v>88.00850000000007</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>88.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,40 +5263,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="C140" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="D140" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="E140" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="F140" t="n">
-        <v>965.1528</v>
+        <v>3221.8665</v>
       </c>
       <c r="G140" t="n">
-        <v>88.73133333333332</v>
+        <v>-170575.1633554086</v>
       </c>
       <c r="H140" t="n">
-        <v>88.02650000000007</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,42 +5298,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>88.59999999999999</v>
+        <v>88.47</v>
       </c>
       <c r="C141" t="n">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="D141" t="n">
-        <v>88.59999999999999</v>
+        <v>88.52</v>
       </c>
       <c r="E141" t="n">
-        <v>88.5</v>
+        <v>88.47</v>
       </c>
       <c r="F141" t="n">
-        <v>11955.5673</v>
+        <v>7495.5853</v>
       </c>
       <c r="G141" t="n">
-        <v>88.66666666666666</v>
+        <v>-170575.1633554086</v>
       </c>
       <c r="H141" t="n">
-        <v>88.0443333333334</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>88.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,42 +5333,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>88.5</v>
+        <v>88.89</v>
       </c>
       <c r="C142" t="n">
-        <v>88.5</v>
+        <v>88.89</v>
       </c>
       <c r="D142" t="n">
-        <v>88.5</v>
+        <v>88.89</v>
       </c>
       <c r="E142" t="n">
-        <v>88.5</v>
+        <v>88.89</v>
       </c>
       <c r="F142" t="n">
-        <v>2049.6148</v>
+        <v>517.4899</v>
       </c>
       <c r="G142" t="n">
-        <v>88.61999999999998</v>
+        <v>-170057.6734554087</v>
       </c>
       <c r="H142" t="n">
-        <v>88.06100000000006</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>88.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6006,42 +5368,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>88.5</v>
+        <v>88.72</v>
       </c>
       <c r="C143" t="n">
-        <v>88.5</v>
+        <v>88.8</v>
       </c>
       <c r="D143" t="n">
-        <v>88.5</v>
+        <v>88.8</v>
       </c>
       <c r="E143" t="n">
-        <v>88.5</v>
+        <v>88.72</v>
       </c>
       <c r="F143" t="n">
-        <v>5223.567</v>
+        <v>50000</v>
       </c>
       <c r="G143" t="n">
-        <v>88.57999999999998</v>
+        <v>-220057.6734554087</v>
       </c>
       <c r="H143" t="n">
-        <v>88.07900000000005</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>88.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6050,40 +5403,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C144" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="D144" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="E144" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F144" t="n">
-        <v>197.3011</v>
+        <v>181.3861</v>
       </c>
       <c r="G144" t="n">
-        <v>88.53333333333333</v>
+        <v>-220239.0595554087</v>
       </c>
       <c r="H144" t="n">
-        <v>88.09583333333337</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,42 +5438,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>88.75</v>
+        <v>88.3</v>
       </c>
       <c r="C145" t="n">
-        <v>88.75</v>
+        <v>88.3</v>
       </c>
       <c r="D145" t="n">
-        <v>88.75</v>
+        <v>88.3</v>
       </c>
       <c r="E145" t="n">
-        <v>88.75</v>
+        <v>88.3</v>
       </c>
       <c r="F145" t="n">
-        <v>83.6032</v>
+        <v>430.7298</v>
       </c>
       <c r="G145" t="n">
-        <v>88.51000000000001</v>
+        <v>-220239.0595554087</v>
       </c>
       <c r="H145" t="n">
-        <v>88.11850000000004</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,28 +5485,21 @@
         <v>88.40000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>22811.0595</v>
+        <v>1096.5625</v>
       </c>
       <c r="G146" t="n">
-        <v>88.50333333333334</v>
+        <v>-219142.4970554087</v>
       </c>
       <c r="H146" t="n">
-        <v>88.13683333333337</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6178,40 +5508,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C147" t="n">
-        <v>88.40000000000001</v>
+        <v>88.88</v>
       </c>
       <c r="D147" t="n">
-        <v>88.40000000000001</v>
+        <v>88.88</v>
       </c>
       <c r="E147" t="n">
-        <v>88.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="F147" t="n">
-        <v>7472.6434</v>
+        <v>5097.6894</v>
       </c>
       <c r="G147" t="n">
-        <v>88.49666666666668</v>
+        <v>-214044.8076554087</v>
       </c>
       <c r="H147" t="n">
-        <v>88.15933333333335</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,42 +5543,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>88.11</v>
+        <v>88.63</v>
       </c>
       <c r="C148" t="n">
-        <v>88.11</v>
+        <v>88.53</v>
       </c>
       <c r="D148" t="n">
-        <v>88.11</v>
+        <v>88.63</v>
       </c>
       <c r="E148" t="n">
-        <v>88.11</v>
+        <v>88.53</v>
       </c>
       <c r="F148" t="n">
-        <v>42429.3618</v>
+        <v>20000</v>
       </c>
       <c r="G148" t="n">
-        <v>88.47066666666667</v>
+        <v>-234044.8076554087</v>
       </c>
       <c r="H148" t="n">
-        <v>88.17800000000003</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,40 +5578,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>88.77</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>88.77</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>88.77</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>88.77</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>1265</v>
+        <v>183.0904</v>
       </c>
       <c r="G149" t="n">
-        <v>88.48866666666667</v>
+        <v>-233861.7172554087</v>
       </c>
       <c r="H149" t="n">
-        <v>88.21000000000002</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,42 +5613,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>88.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>88.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>11864.4928</v>
+        <v>44008.9339</v>
       </c>
       <c r="G150" t="n">
-        <v>88.462</v>
+        <v>-277870.6511554087</v>
       </c>
       <c r="H150" t="n">
-        <v>88.23100000000002</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>88.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6350,42 +5648,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>88.11</v>
+        <v>88.8</v>
       </c>
       <c r="C151" t="n">
-        <v>88.11</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>88.11</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>88.11</v>
+        <v>88.8</v>
       </c>
       <c r="F151" t="n">
-        <v>15000</v>
+        <v>24751.0391</v>
       </c>
       <c r="G151" t="n">
-        <v>88.43599999999999</v>
+        <v>-253119.6120554087</v>
       </c>
       <c r="H151" t="n">
-        <v>88.24866666666668</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>88.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,42 +5683,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>88.79000000000001</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="C152" t="n">
-        <v>88.79000000000001</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>88.79000000000001</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>88.79000000000001</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>6.7576</v>
+        <v>5000</v>
       </c>
       <c r="G152" t="n">
-        <v>88.45533333333333</v>
+        <v>-248119.6120554087</v>
       </c>
       <c r="H152" t="n">
-        <v>88.28116666666668</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="n">
-        <v>88.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6438,42 +5718,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>88.06999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="C153" t="n">
-        <v>88.06999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="D153" t="n">
-        <v>88.06999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="E153" t="n">
-        <v>88.06999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="F153" t="n">
-        <v>853.5921</v>
+        <v>1000</v>
       </c>
       <c r="G153" t="n">
-        <v>88.42666666666666</v>
+        <v>-249119.6120554087</v>
       </c>
       <c r="H153" t="n">
-        <v>88.29816666666667</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>88.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6482,42 +5753,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>88.37</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="C154" t="n">
-        <v>89</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>89</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>88.37</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>3991.0119</v>
+        <v>88.1558</v>
       </c>
       <c r="G154" t="n">
-        <v>88.45999999999999</v>
+        <v>-249031.4562554087</v>
       </c>
       <c r="H154" t="n">
-        <v>88.32350000000001</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="n">
-        <v>88.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6526,42 +5788,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>88.88</v>
+        <v>89.47</v>
       </c>
       <c r="C155" t="n">
-        <v>88.88</v>
+        <v>89.47</v>
       </c>
       <c r="D155" t="n">
-        <v>88.88</v>
+        <v>89.47</v>
       </c>
       <c r="E155" t="n">
-        <v>88.88</v>
+        <v>89.47</v>
       </c>
       <c r="F155" t="n">
-        <v>1000</v>
+        <v>13148.8821</v>
       </c>
       <c r="G155" t="n">
-        <v>88.48533333333332</v>
+        <v>-235882.5741554087</v>
       </c>
       <c r="H155" t="n">
-        <v>88.35066666666668</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6570,40 +5823,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>88.88</v>
+        <v>89.47</v>
       </c>
       <c r="C156" t="n">
-        <v>88.88</v>
+        <v>89.2</v>
       </c>
       <c r="D156" t="n">
-        <v>88.88</v>
+        <v>89.47</v>
       </c>
       <c r="E156" t="n">
-        <v>88.88</v>
+        <v>89.2</v>
       </c>
       <c r="F156" t="n">
-        <v>4684</v>
+        <v>11.2222</v>
       </c>
       <c r="G156" t="n">
-        <v>88.51066666666665</v>
+        <v>-235893.7963554087</v>
       </c>
       <c r="H156" t="n">
-        <v>88.38850000000002</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6612,40 +5858,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>88.88</v>
+        <v>89.2</v>
       </c>
       <c r="C157" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>88.88</v>
+        <v>89.2</v>
       </c>
       <c r="E157" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F157" t="n">
-        <v>3959</v>
+        <v>2358.6684</v>
       </c>
       <c r="G157" t="n">
-        <v>88.536</v>
+        <v>-238252.4647554087</v>
       </c>
       <c r="H157" t="n">
-        <v>88.41483333333335</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6654,40 +5893,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F158" t="n">
-        <v>1171.7991</v>
+        <v>24.2135</v>
       </c>
       <c r="G158" t="n">
-        <v>88.56133333333334</v>
+        <v>-238252.4647554087</v>
       </c>
       <c r="H158" t="n">
-        <v>88.44600000000001</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,40 +5928,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C159" t="n">
-        <v>89</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>89</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E159" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F159" t="n">
-        <v>7127.3624</v>
+        <v>150.7571</v>
       </c>
       <c r="G159" t="n">
-        <v>88.60133333333333</v>
+        <v>-238252.4647554087</v>
       </c>
       <c r="H159" t="n">
-        <v>88.47766666666668</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6738,40 +5963,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="C160" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="D160" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="E160" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="F160" t="n">
-        <v>1133</v>
+        <v>183.7327</v>
       </c>
       <c r="G160" t="n">
-        <v>88.61</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H160" t="n">
-        <v>88.50566666666668</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,40 +5998,33 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="C161" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="D161" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="E161" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="F161" t="n">
-        <v>33185</v>
+        <v>350.105</v>
       </c>
       <c r="G161" t="n">
-        <v>88.64200000000001</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H161" t="n">
-        <v>88.52383333333336</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6822,40 +6033,33 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="C162" t="n">
-        <v>88.2</v>
+        <v>88.5</v>
       </c>
       <c r="D162" t="n">
-        <v>88.88</v>
+        <v>88.5</v>
       </c>
       <c r="E162" t="n">
-        <v>88.2</v>
+        <v>88.5</v>
       </c>
       <c r="F162" t="n">
-        <v>2081.9344</v>
+        <v>1341.8787</v>
       </c>
       <c r="G162" t="n">
-        <v>88.62866666666667</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H162" t="n">
-        <v>88.53183333333335</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6864,40 +6068,1120 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>88.05</v>
+        <v>88.5</v>
       </c>
       <c r="C163" t="n">
-        <v>88.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D163" t="n">
-        <v>88.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="E163" t="n">
-        <v>88.02</v>
+        <v>88.5</v>
       </c>
       <c r="F163" t="n">
-        <v>1260.9512</v>
+        <v>1059.3372</v>
       </c>
       <c r="G163" t="n">
-        <v>88.628</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H163" t="n">
-        <v>88.54683333333335</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4809.3025</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2341.2025</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2158.6017</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>35291.755</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3907.2803</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>965.1528</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11955.5673</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2049.6148</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5223.567</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F173" t="n">
+        <v>197.3011</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-238633.4985554087</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K173" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="C174" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="D174" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="E174" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="F174" t="n">
+        <v>83.6032</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-238549.8953554087</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K174" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N163" t="n">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22811.0595</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-261360.9548554087</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="K175" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7472.6434</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-261360.9548554087</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="C177" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="D177" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="E177" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="F177" t="n">
+        <v>42429.3618</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-303790.3166554087</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K177" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="C178" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="D178" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="E178" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1265</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-302525.3166554087</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>11864.4928</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-314389.8094554087</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="C180" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="D180" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-299389.8094554087</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="C181" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="E181" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="F181" t="n">
+        <v>6.7576</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-299383.0518554087</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="K181" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="E182" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="F182" t="n">
+        <v>853.5921</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-300236.6439554087</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="K182" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="C183" t="n">
+        <v>89</v>
+      </c>
+      <c r="D183" t="n">
+        <v>89</v>
+      </c>
+      <c r="E183" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3991.0119</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-296245.6320554087</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="K183" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C184" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D184" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E184" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>89</v>
+      </c>
+      <c r="K184" t="n">
+        <v>89</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C185" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D185" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E185" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4684</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>89</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C186" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D186" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E186" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3959</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>89</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C187" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D187" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E187" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1171.7991</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C188" t="n">
+        <v>89</v>
+      </c>
+      <c r="D188" t="n">
+        <v>89</v>
+      </c>
+      <c r="E188" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7127.3624</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-290118.2696554087</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C189" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D189" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E189" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1133</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-291251.2696554087</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C190" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D190" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E190" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F190" t="n">
+        <v>33185</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-291251.2696554087</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C191" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E191" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2081.9344</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-293333.2040554088</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>88.05</v>
+      </c>
+      <c r="C192" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>88.02</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1260.9512</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-294594.1552554088</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="C2" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="D2" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="E2" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="F2" t="n">
-        <v>4347.0166</v>
+        <v>10144.2414</v>
       </c>
       <c r="G2" t="n">
-        <v>62757.6502150552</v>
+        <v>144670.8419150552</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="C3" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="D3" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="E3" t="n">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="F3" t="n">
-        <v>2463.8558</v>
+        <v>404.7691</v>
       </c>
       <c r="G3" t="n">
-        <v>62757.6502150552</v>
+        <v>144670.8419150552</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.3</v>
+        <v>90.02</v>
       </c>
       <c r="C4" t="n">
-        <v>90.43000000000001</v>
+        <v>90.75</v>
       </c>
       <c r="D4" t="n">
-        <v>90.43000000000001</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>90.3</v>
+        <v>90.02</v>
       </c>
       <c r="F4" t="n">
-        <v>6000</v>
+        <v>18651.156</v>
       </c>
       <c r="G4" t="n">
-        <v>68757.65021505521</v>
+        <v>163321.9979150552</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90.43000000000001</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>90.43000000000001</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>90.43000000000001</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>90.43000000000001</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>428.1975</v>
+        <v>140.6602</v>
       </c>
       <c r="G5" t="n">
-        <v>68757.65021505521</v>
+        <v>163462.6581150552</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>90.5</v>
+        <v>90.77</v>
       </c>
       <c r="C6" t="n">
-        <v>90.43000000000001</v>
+        <v>90.77</v>
       </c>
       <c r="D6" t="n">
-        <v>90.5</v>
+        <v>90.77</v>
       </c>
       <c r="E6" t="n">
-        <v>90.43000000000001</v>
+        <v>90.77</v>
       </c>
       <c r="F6" t="n">
-        <v>13162.1122</v>
+        <v>250.2379</v>
       </c>
       <c r="G6" t="n">
-        <v>68757.65021505521</v>
+        <v>163212.4202150552</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90.43000000000001</v>
+        <v>90.91</v>
       </c>
       <c r="C7" t="n">
-        <v>90.43000000000001</v>
+        <v>90.91</v>
       </c>
       <c r="D7" t="n">
-        <v>90.43000000000001</v>
+        <v>90.91</v>
       </c>
       <c r="E7" t="n">
-        <v>90.43000000000001</v>
+        <v>90.91</v>
       </c>
       <c r="F7" t="n">
-        <v>2267.4381</v>
+        <v>7680.7692</v>
       </c>
       <c r="G7" t="n">
-        <v>68757.65021505521</v>
+        <v>170893.1894150552</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90</v>
+        <v>90.97</v>
       </c>
       <c r="C8" t="n">
-        <v>89.93000000000001</v>
+        <v>90.97</v>
       </c>
       <c r="D8" t="n">
-        <v>90</v>
+        <v>90.97</v>
       </c>
       <c r="E8" t="n">
-        <v>89.93000000000001</v>
+        <v>90.97</v>
       </c>
       <c r="F8" t="n">
-        <v>5703</v>
+        <v>4514.9454</v>
       </c>
       <c r="G8" t="n">
-        <v>63054.65021505521</v>
+        <v>175408.1348150552</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89.93000000000001</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>89.81999999999999</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>89.93000000000001</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>89.81999999999999</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>2732.6444</v>
+        <v>1359.6813</v>
       </c>
       <c r="G9" t="n">
-        <v>60322.00581505521</v>
+        <v>176767.8161150552</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89.84999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="C10" t="n">
-        <v>89.81999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="D10" t="n">
-        <v>89.84999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="E10" t="n">
-        <v>89.81999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="F10" t="n">
-        <v>2009.8166</v>
+        <v>13383.615</v>
       </c>
       <c r="G10" t="n">
-        <v>60322.00581505521</v>
+        <v>163384.2011150552</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89.81999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="C11" t="n">
-        <v>89.81999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="D11" t="n">
-        <v>89.81999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="E11" t="n">
-        <v>89.81999999999999</v>
+        <v>90.53</v>
       </c>
       <c r="F11" t="n">
-        <v>855.9526</v>
+        <v>1130.3391</v>
       </c>
       <c r="G11" t="n">
-        <v>60322.00581505521</v>
+        <v>163384.2011150552</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89.81999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>90.31999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>90.31999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>89.81999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>18090</v>
+        <v>1700</v>
       </c>
       <c r="G12" t="n">
-        <v>78412.00581505522</v>
+        <v>165084.2011150552</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90.48999999999999</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>90.89</v>
+        <v>90.42</v>
       </c>
       <c r="D13" t="n">
-        <v>90.89</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>90.48999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="F13" t="n">
-        <v>3325.519</v>
+        <v>1387.1503</v>
       </c>
       <c r="G13" t="n">
-        <v>81737.52481505522</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>90.2</v>
+        <v>90.5</v>
       </c>
       <c r="C14" t="n">
-        <v>90.2</v>
+        <v>90.42</v>
       </c>
       <c r="D14" t="n">
-        <v>90.2</v>
+        <v>90.5</v>
       </c>
       <c r="E14" t="n">
-        <v>90.2</v>
+        <v>90.42</v>
       </c>
       <c r="F14" t="n">
-        <v>11.1632</v>
+        <v>5095.6806</v>
       </c>
       <c r="G14" t="n">
-        <v>81726.36161505523</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>90.2</v>
+        <v>90.42</v>
       </c>
       <c r="C15" t="n">
-        <v>90.2</v>
+        <v>90.42</v>
       </c>
       <c r="D15" t="n">
-        <v>90.2</v>
+        <v>90.42</v>
       </c>
       <c r="E15" t="n">
-        <v>90.2</v>
+        <v>90.42</v>
       </c>
       <c r="F15" t="n">
-        <v>3064.8376</v>
+        <v>599.6552</v>
       </c>
       <c r="G15" t="n">
-        <v>81726.36161505523</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>90.40000000000001</v>
+        <v>90.13</v>
       </c>
       <c r="C16" t="n">
-        <v>90.40000000000001</v>
+        <v>89.34</v>
       </c>
       <c r="D16" t="n">
-        <v>90.40000000000001</v>
+        <v>90.13</v>
       </c>
       <c r="E16" t="n">
-        <v>90.40000000000001</v>
+        <v>89.34</v>
       </c>
       <c r="F16" t="n">
-        <v>178.8536</v>
+        <v>63799.3349</v>
       </c>
       <c r="G16" t="n">
-        <v>81905.21521505523</v>
+        <v>99897.7159150552</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>90.40000000000001</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="D17" t="n">
-        <v>90.40000000000001</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="F17" t="n">
-        <v>1150.8303</v>
+        <v>29371.005</v>
       </c>
       <c r="G17" t="n">
-        <v>81905.21521505523</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="C18" t="n">
-        <v>90.5</v>
+        <v>89.33</v>
       </c>
       <c r="D18" t="n">
-        <v>90.5</v>
+        <v>89.33</v>
       </c>
       <c r="E18" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="F18" t="n">
-        <v>2861.1692</v>
+        <v>1672.164</v>
       </c>
       <c r="G18" t="n">
-        <v>84766.38441505523</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="C19" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="D19" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="E19" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="F19" t="n">
-        <v>7544.9876</v>
+        <v>14003.926</v>
       </c>
       <c r="G19" t="n">
-        <v>77221.39681505522</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="C20" t="n">
-        <v>90.40000000000001</v>
+        <v>89.25</v>
       </c>
       <c r="D20" t="n">
-        <v>90.40000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="E20" t="n">
-        <v>90.40000000000001</v>
+        <v>89.25</v>
       </c>
       <c r="F20" t="n">
-        <v>9264.0124</v>
+        <v>5375.2604</v>
       </c>
       <c r="G20" t="n">
-        <v>77221.39681505522</v>
+        <v>65151.4505150552</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>90.59999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>90.59999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>90.59999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>90.59999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>369.7067</v>
+        <v>63871.4122</v>
       </c>
       <c r="G21" t="n">
-        <v>77591.10351505522</v>
+        <v>1280.038315055201</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.68000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="C22" t="n">
-        <v>90.68000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="D22" t="n">
-        <v>90.68000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="E22" t="n">
-        <v>90.68000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="F22" t="n">
-        <v>2220</v>
+        <v>610</v>
       </c>
       <c r="G22" t="n">
-        <v>79811.10351505522</v>
+        <v>1890.038315055201</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>90.68000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>91.11</v>
+        <v>90</v>
       </c>
       <c r="D23" t="n">
-        <v>91.11</v>
+        <v>90</v>
       </c>
       <c r="E23" t="n">
-        <v>90.68000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>7204.5607</v>
       </c>
       <c r="G23" t="n">
-        <v>89811.10351505522</v>
+        <v>9094.599015055201</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>91.34999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="C24" t="n">
-        <v>91.34999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="D24" t="n">
-        <v>91.34999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="E24" t="n">
-        <v>91.34999999999999</v>
+        <v>90.13</v>
       </c>
       <c r="F24" t="n">
-        <v>1916.4114</v>
+        <v>1157.6734</v>
       </c>
       <c r="G24" t="n">
-        <v>91727.51491505522</v>
+        <v>10252.2724150552</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>91.34999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="C25" t="n">
-        <v>91.36</v>
+        <v>89.45</v>
       </c>
       <c r="D25" t="n">
-        <v>91.36</v>
+        <v>89.5</v>
       </c>
       <c r="E25" t="n">
-        <v>91.34999999999999</v>
+        <v>89.45</v>
       </c>
       <c r="F25" t="n">
-        <v>61955.0007</v>
+        <v>1002.2344</v>
       </c>
       <c r="G25" t="n">
-        <v>153682.5156150552</v>
+        <v>9250.038015055201</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>91.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="C26" t="n">
-        <v>91.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="D26" t="n">
-        <v>91.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="E26" t="n">
-        <v>91.34999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001</v>
+        <v>20000</v>
       </c>
       <c r="G26" t="n">
-        <v>153682.5155150552</v>
+        <v>-10749.9619849448</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>91.34999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>91.34999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>91.34999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>91.34999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>9.8512</v>
+        <v>1096.1235</v>
       </c>
       <c r="G27" t="n">
-        <v>153682.5155150552</v>
+        <v>-11846.0854849448</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>91.34999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>91.34999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>91.34999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>91.34999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>49.9281</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="n">
-        <v>153682.5155150552</v>
+        <v>-13846.0854849448</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>91.34999999999999</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>91.34999999999999</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>91.34999999999999</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>91.34999999999999</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1166.8963</v>
+        <v>49924.8146</v>
       </c>
       <c r="G29" t="n">
-        <v>153682.5155150552</v>
+        <v>-63770.9000849448</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>90.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="C30" t="n">
-        <v>90.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D30" t="n">
-        <v>90.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E30" t="n">
-        <v>90.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F30" t="n">
-        <v>4103.2771</v>
+        <v>19.2853</v>
       </c>
       <c r="G30" t="n">
-        <v>149579.2384150552</v>
+        <v>-63751.6147849448</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>91.18000000000001</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>90.7</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>91.19</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>90.7</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>19787.096</v>
+        <v>1200</v>
       </c>
       <c r="G31" t="n">
-        <v>129792.1424150552</v>
+        <v>-64951.6147849448</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>91.18000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>90.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>91.18000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>90.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>591.6422</v>
+        <v>1287.7782</v>
       </c>
       <c r="G32" t="n">
-        <v>129792.1424150552</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>90.7</v>
+        <v>89.13</v>
       </c>
       <c r="C33" t="n">
-        <v>90.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>90.7</v>
+        <v>89.13</v>
       </c>
       <c r="E33" t="n">
-        <v>90.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>344.0485</v>
+        <v>47952.8068</v>
       </c>
       <c r="G33" t="n">
-        <v>129792.1424150552</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>90.69</v>
+        <v>89.22</v>
       </c>
       <c r="C34" t="n">
-        <v>90.69</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>90.69</v>
+        <v>89.22</v>
       </c>
       <c r="E34" t="n">
-        <v>90.69</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>7708.4373</v>
       </c>
       <c r="G34" t="n">
-        <v>128792.1424150552</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>90.89</v>
+        <v>88.8</v>
       </c>
       <c r="C35" t="n">
-        <v>90.89</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>90.89</v>
+        <v>88.8</v>
       </c>
       <c r="E35" t="n">
-        <v>90.89</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>7.7017</v>
+        <v>7201.3049</v>
       </c>
       <c r="G35" t="n">
-        <v>128799.8441150552</v>
+        <v>-73440.69788494479</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>90.68000000000001</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>90.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="D36" t="n">
-        <v>90.68000000000001</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>90.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="F36" t="n">
-        <v>450.0991</v>
+        <v>16000</v>
       </c>
       <c r="G36" t="n">
-        <v>128349.7450150552</v>
+        <v>-89440.69788494479</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>89.81</v>
+        <v>88.3</v>
       </c>
       <c r="C37" t="n">
-        <v>89.8</v>
+        <v>88.3</v>
       </c>
       <c r="D37" t="n">
-        <v>89.81</v>
+        <v>88.3</v>
       </c>
       <c r="E37" t="n">
-        <v>89.8</v>
+        <v>88.3</v>
       </c>
       <c r="F37" t="n">
-        <v>1631.9028</v>
+        <v>4363.154</v>
       </c>
       <c r="G37" t="n">
-        <v>126717.8422150552</v>
+        <v>-85077.5438849448</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>90.3</v>
+        <v>88.86</v>
       </c>
       <c r="C38" t="n">
-        <v>90.3</v>
+        <v>88.86</v>
       </c>
       <c r="D38" t="n">
-        <v>90.3</v>
+        <v>88.86</v>
       </c>
       <c r="E38" t="n">
-        <v>90.3</v>
+        <v>88.86</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>13019.3752</v>
       </c>
       <c r="G38" t="n">
-        <v>126723.8422150552</v>
+        <v>-72058.1686849448</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>90.3</v>
+        <v>88.86</v>
       </c>
       <c r="C39" t="n">
-        <v>90.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="D39" t="n">
-        <v>90.40000000000001</v>
+        <v>88.86</v>
       </c>
       <c r="E39" t="n">
-        <v>90.3</v>
+        <v>88.2</v>
       </c>
       <c r="F39" t="n">
-        <v>23370</v>
+        <v>1000.2808</v>
       </c>
       <c r="G39" t="n">
-        <v>150093.8422150552</v>
+        <v>-73058.44948494479</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>90.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>90.98999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>91.09</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>90.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>11142.4589</v>
+        <v>3629.1709</v>
       </c>
       <c r="G40" t="n">
-        <v>161236.3011150552</v>
+        <v>-69429.2785849448</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>90.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>90.98</v>
+        <v>88</v>
       </c>
       <c r="D41" t="n">
-        <v>90.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>90.98</v>
+        <v>88</v>
       </c>
       <c r="F41" t="n">
-        <v>824.5752</v>
+        <v>18980</v>
       </c>
       <c r="G41" t="n">
-        <v>160411.7259150552</v>
+        <v>-88409.2785849448</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>90.51000000000001</v>
+        <v>88</v>
       </c>
       <c r="C42" t="n">
-        <v>89.92</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>90.51000000000001</v>
+        <v>88</v>
       </c>
       <c r="E42" t="n">
-        <v>89.92</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>5596.6426</v>
+        <v>4158.0137</v>
       </c>
       <c r="G42" t="n">
-        <v>154815.0833150552</v>
+        <v>-92567.29228494479</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.92</v>
+        <v>87.8</v>
       </c>
       <c r="C43" t="n">
-        <v>89.92</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>89.92</v>
+        <v>87.8</v>
       </c>
       <c r="E43" t="n">
-        <v>89.92</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>17255.7251</v>
+        <v>54990.4928</v>
       </c>
       <c r="G43" t="n">
-        <v>154815.0833150552</v>
+        <v>-147557.7850849448</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.91</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>89.91</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>89.91</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>89.91</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>10144.2414</v>
+        <v>550.096601886578</v>
       </c>
       <c r="G44" t="n">
-        <v>144670.8419150552</v>
+        <v>-147007.6884830582</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89.91</v>
+        <v>88.3</v>
       </c>
       <c r="C45" t="n">
-        <v>89.91</v>
+        <v>88.39</v>
       </c>
       <c r="D45" t="n">
-        <v>89.91</v>
+        <v>88.39</v>
       </c>
       <c r="E45" t="n">
-        <v>89.91</v>
+        <v>88.3</v>
       </c>
       <c r="F45" t="n">
-        <v>404.7691</v>
+        <v>11313.68243857902</v>
       </c>
       <c r="G45" t="n">
-        <v>144670.8419150552</v>
+        <v>-135694.0060444792</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.02</v>
+        <v>88.44</v>
       </c>
       <c r="C46" t="n">
-        <v>90.75</v>
+        <v>88.44</v>
       </c>
       <c r="D46" t="n">
-        <v>90.84999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="E46" t="n">
-        <v>90.02</v>
+        <v>88.44</v>
       </c>
       <c r="F46" t="n">
-        <v>18651.156</v>
+        <v>19998.7111</v>
       </c>
       <c r="G46" t="n">
-        <v>163321.9979150552</v>
+        <v>-115695.2949444792</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>90.79000000000001</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>90.79000000000001</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>90.79000000000001</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>90.79000000000001</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>140.6602</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>163462.6581150552</v>
+        <v>-115689.2949444792</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>90.77</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>90.77</v>
+        <v>88.61</v>
       </c>
       <c r="D48" t="n">
-        <v>90.77</v>
+        <v>88.61</v>
       </c>
       <c r="E48" t="n">
-        <v>90.77</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>250.2379</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n">
-        <v>163212.4202150552</v>
+        <v>-115658.2949444792</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>90.91</v>
+        <v>88.73</v>
       </c>
       <c r="C49" t="n">
-        <v>90.91</v>
+        <v>88.73</v>
       </c>
       <c r="D49" t="n">
-        <v>90.91</v>
+        <v>88.73</v>
       </c>
       <c r="E49" t="n">
-        <v>90.91</v>
+        <v>88.73</v>
       </c>
       <c r="F49" t="n">
-        <v>7680.7692</v>
+        <v>534.723</v>
       </c>
       <c r="G49" t="n">
-        <v>170893.1894150552</v>
+        <v>-115123.5719444792</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>90.97</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>90.97</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>90.97</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>90.97</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>4514.9454</v>
+        <v>22.37</v>
       </c>
       <c r="G50" t="n">
-        <v>175408.1348150552</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>90.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>90.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>90.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>90.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>1359.6813</v>
+        <v>2300</v>
       </c>
       <c r="G51" t="n">
-        <v>176767.8161150552</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>13383.615</v>
+        <v>10000</v>
       </c>
       <c r="G52" t="n">
-        <v>163384.2011150552</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>90.53</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1130.3391</v>
+        <v>750</v>
       </c>
       <c r="G53" t="n">
-        <v>163384.2011150552</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>90.95999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="C54" t="n">
-        <v>90.95999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="D54" t="n">
-        <v>90.95999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="E54" t="n">
-        <v>90.95999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="F54" t="n">
-        <v>1700</v>
+        <v>2645.3924</v>
       </c>
       <c r="G54" t="n">
-        <v>165084.2011150552</v>
+        <v>-112500.5495444792</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>90.51000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C55" t="n">
-        <v>90.42</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>90.51000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="E55" t="n">
-        <v>90.42</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>1387.1503</v>
+        <v>5350</v>
       </c>
       <c r="G55" t="n">
-        <v>163697.0508150552</v>
+        <v>-117850.5495444792</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>90.5</v>
+        <v>88.2</v>
       </c>
       <c r="C56" t="n">
-        <v>90.42</v>
+        <v>88.2</v>
       </c>
       <c r="D56" t="n">
-        <v>90.5</v>
+        <v>88.2</v>
       </c>
       <c r="E56" t="n">
-        <v>90.42</v>
+        <v>88.2</v>
       </c>
       <c r="F56" t="n">
-        <v>5095.6806</v>
+        <v>1136.4656</v>
       </c>
       <c r="G56" t="n">
-        <v>163697.0508150552</v>
+        <v>-116714.0839444792</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>90.42</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>90.42</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>90.42</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>90.42</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>599.6552</v>
+        <v>5690.7751</v>
       </c>
       <c r="G57" t="n">
-        <v>163697.0508150552</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>90.13</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>89.34</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>90.13</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>89.34</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>63799.3349</v>
+        <v>1149.8564</v>
       </c>
       <c r="G58" t="n">
-        <v>99897.7159150552</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>89.54000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>89.33</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>89.54000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>89.33</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>29371.005</v>
+        <v>3159.3685</v>
       </c>
       <c r="G59" t="n">
-        <v>70526.7109150552</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>89.33</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>89.33</v>
+        <v>88</v>
       </c>
       <c r="D60" t="n">
-        <v>89.33</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>89.33</v>
+        <v>88</v>
       </c>
       <c r="F60" t="n">
-        <v>1672.164</v>
+        <v>7056.2642</v>
       </c>
       <c r="G60" t="n">
-        <v>70526.7109150552</v>
+        <v>-118079.5730444792</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>89.33</v>
+        <v>88</v>
       </c>
       <c r="C61" t="n">
-        <v>89.33</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>89.33</v>
+        <v>88</v>
       </c>
       <c r="E61" t="n">
-        <v>89.33</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>14003.926</v>
+        <v>19385.5645</v>
       </c>
       <c r="G61" t="n">
-        <v>70526.7109150552</v>
+        <v>-137465.1375444792</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>89.33</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>89.25</v>
+        <v>87.8</v>
       </c>
       <c r="D62" t="n">
-        <v>89.33</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>89.25</v>
+        <v>87.8</v>
       </c>
       <c r="F62" t="n">
-        <v>5375.2604</v>
+        <v>11820</v>
       </c>
       <c r="G62" t="n">
-        <v>65151.4505150552</v>
+        <v>-149285.1375444792</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>88.95999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C63" t="n">
-        <v>88.95999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>88.95999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="E63" t="n">
-        <v>88.95999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>63871.4122</v>
+        <v>23000.0001</v>
       </c>
       <c r="G63" t="n">
-        <v>1280.038315055201</v>
+        <v>-172285.1376444792</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>89.58</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>89.58</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>89.58</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>89.58</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>610</v>
+        <v>4545.7495</v>
       </c>
       <c r="G64" t="n">
-        <v>1890.038315055201</v>
+        <v>-167739.3881444792</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>89.90000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="C65" t="n">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="D65" t="n">
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="E65" t="n">
-        <v>89.90000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="F65" t="n">
-        <v>7204.5607</v>
+        <v>550.0966</v>
       </c>
       <c r="G65" t="n">
-        <v>9094.599015055201</v>
+        <v>-168289.4847444792</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>90.13</v>
+        <v>87.44</v>
       </c>
       <c r="C66" t="n">
-        <v>90.13</v>
+        <v>87.42</v>
       </c>
       <c r="D66" t="n">
-        <v>90.13</v>
+        <v>87.44</v>
       </c>
       <c r="E66" t="n">
-        <v>90.13</v>
+        <v>87.42</v>
       </c>
       <c r="F66" t="n">
-        <v>1157.6734</v>
+        <v>6000</v>
       </c>
       <c r="G66" t="n">
-        <v>10252.2724150552</v>
+        <v>-174289.4847444792</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>89.5</v>
+        <v>87.42</v>
       </c>
       <c r="C67" t="n">
-        <v>89.45</v>
+        <v>87.42</v>
       </c>
       <c r="D67" t="n">
-        <v>89.5</v>
+        <v>87.42</v>
       </c>
       <c r="E67" t="n">
-        <v>89.45</v>
+        <v>87.42</v>
       </c>
       <c r="F67" t="n">
-        <v>1002.2344</v>
+        <v>3846.836</v>
       </c>
       <c r="G67" t="n">
-        <v>9250.038015055201</v>
+        <v>-174289.4847444792</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>89.41</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>89.41</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>89.41</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>89.41</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>20000</v>
+        <v>22900</v>
       </c>
       <c r="G68" t="n">
-        <v>-10749.9619849448</v>
+        <v>-151389.4847444792</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>89.34999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="C69" t="n">
-        <v>89.34999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="D69" t="n">
-        <v>89.34999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="E69" t="n">
-        <v>89.34999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1096.1235</v>
+        <v>74739.7678</v>
       </c>
       <c r="G69" t="n">
-        <v>-11846.0854849448</v>
+        <v>-76649.71694447921</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>89.18000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="C70" t="n">
-        <v>89.18000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="D70" t="n">
-        <v>89.18000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="E70" t="n">
-        <v>89.18000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="F70" t="n">
-        <v>2000</v>
+        <v>3242.1654</v>
       </c>
       <c r="G70" t="n">
-        <v>-13846.0854849448</v>
+        <v>-79891.88234447921</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>88.93000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="C71" t="n">
-        <v>88.81999999999999</v>
+        <v>87.39</v>
       </c>
       <c r="D71" t="n">
-        <v>88.93000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="E71" t="n">
-        <v>88.81999999999999</v>
+        <v>87.39</v>
       </c>
       <c r="F71" t="n">
-        <v>49924.8146</v>
+        <v>11140</v>
       </c>
       <c r="G71" t="n">
-        <v>-63770.9000849448</v>
+        <v>-91031.88234447921</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>89.2</v>
+        <v>87.39</v>
       </c>
       <c r="C72" t="n">
-        <v>89.2</v>
+        <v>87.39</v>
       </c>
       <c r="D72" t="n">
-        <v>89.2</v>
+        <v>87.39</v>
       </c>
       <c r="E72" t="n">
-        <v>89.2</v>
+        <v>87.39</v>
       </c>
       <c r="F72" t="n">
-        <v>19.2853</v>
+        <v>1082.6088</v>
       </c>
       <c r="G72" t="n">
-        <v>-63751.6147849448</v>
+        <v>-91031.88234447921</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>89.18000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="C73" t="n">
-        <v>89.18000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="D73" t="n">
-        <v>89.18000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="E73" t="n">
-        <v>89.18000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="F73" t="n">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="G73" t="n">
-        <v>-64951.6147849448</v>
+        <v>-91181.88234447921</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>89.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="C74" t="n">
-        <v>89.09999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="D74" t="n">
-        <v>89.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="E74" t="n">
-        <v>89.09999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="F74" t="n">
-        <v>1287.7782</v>
+        <v>4150</v>
       </c>
       <c r="G74" t="n">
-        <v>-66239.39298494479</v>
+        <v>-95331.88234447921</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>89.13</v>
+        <v>87.03</v>
       </c>
       <c r="C75" t="n">
-        <v>89.09999999999999</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>89.13</v>
+        <v>87.03</v>
       </c>
       <c r="E75" t="n">
-        <v>89.09999999999999</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>47952.8068</v>
+        <v>13074.4027</v>
       </c>
       <c r="G75" t="n">
-        <v>-66239.39298494479</v>
+        <v>-108406.2850444792</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>89.22</v>
+        <v>86.98</v>
       </c>
       <c r="C76" t="n">
-        <v>89.09999999999999</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>89.22</v>
+        <v>86.98</v>
       </c>
       <c r="E76" t="n">
-        <v>89.09999999999999</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>7708.4373</v>
+        <v>40349.6129</v>
       </c>
       <c r="G76" t="n">
-        <v>-66239.39298494479</v>
+        <v>-148755.8979444792</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>88.8</v>
+        <v>86.84</v>
       </c>
       <c r="C77" t="n">
-        <v>88.70999999999999</v>
+        <v>86.84</v>
       </c>
       <c r="D77" t="n">
-        <v>88.8</v>
+        <v>86.84</v>
       </c>
       <c r="E77" t="n">
-        <v>88.70999999999999</v>
+        <v>86.84</v>
       </c>
       <c r="F77" t="n">
-        <v>7201.3049</v>
+        <v>15.2072</v>
       </c>
       <c r="G77" t="n">
-        <v>-73440.69788494479</v>
+        <v>-148771.1051444792</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>88.15000000000001</v>
+        <v>87.05</v>
       </c>
       <c r="C78" t="n">
-        <v>88</v>
+        <v>87.05</v>
       </c>
       <c r="D78" t="n">
-        <v>88.15000000000001</v>
+        <v>87.05</v>
       </c>
       <c r="E78" t="n">
-        <v>88</v>
+        <v>87.05</v>
       </c>
       <c r="F78" t="n">
-        <v>16000</v>
+        <v>63.1821</v>
       </c>
       <c r="G78" t="n">
-        <v>-89440.69788494479</v>
+        <v>-148707.9230444792</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>88.3</v>
+        <v>86.84</v>
       </c>
       <c r="C79" t="n">
-        <v>88.3</v>
+        <v>86.84</v>
       </c>
       <c r="D79" t="n">
-        <v>88.3</v>
+        <v>86.84</v>
       </c>
       <c r="E79" t="n">
-        <v>88.3</v>
+        <v>86.84</v>
       </c>
       <c r="F79" t="n">
-        <v>4363.154</v>
+        <v>4081.7924</v>
       </c>
       <c r="G79" t="n">
-        <v>-85077.5438849448</v>
+        <v>-152789.7154444792</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>88.86</v>
+        <v>86.84</v>
       </c>
       <c r="C80" t="n">
-        <v>88.86</v>
+        <v>87.05</v>
       </c>
       <c r="D80" t="n">
-        <v>88.86</v>
+        <v>87.05</v>
       </c>
       <c r="E80" t="n">
-        <v>88.86</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>13019.3752</v>
+        <v>832.3414</v>
       </c>
       <c r="G80" t="n">
-        <v>-72058.1686849448</v>
+        <v>-151957.3740444792</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>88.86</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>88.2</v>
+        <v>87.48</v>
       </c>
       <c r="D81" t="n">
-        <v>88.86</v>
+        <v>87.48</v>
       </c>
       <c r="E81" t="n">
-        <v>88.2</v>
+        <v>86.8</v>
       </c>
       <c r="F81" t="n">
-        <v>1000.2808</v>
+        <v>11269.5005</v>
       </c>
       <c r="G81" t="n">
-        <v>-73058.44948494479</v>
+        <v>-140687.8735444792</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>88.59999999999999</v>
+        <v>87.25</v>
       </c>
       <c r="C82" t="n">
-        <v>88.59999999999999</v>
+        <v>87.25</v>
       </c>
       <c r="D82" t="n">
-        <v>88.59999999999999</v>
+        <v>87.25</v>
       </c>
       <c r="E82" t="n">
-        <v>88.59999999999999</v>
+        <v>87.25</v>
       </c>
       <c r="F82" t="n">
-        <v>3629.1709</v>
+        <v>360</v>
       </c>
       <c r="G82" t="n">
-        <v>-69429.2785849448</v>
+        <v>-141047.8735444792</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>88.09999999999999</v>
+        <v>87.37</v>
       </c>
       <c r="C83" t="n">
-        <v>88</v>
+        <v>86.61</v>
       </c>
       <c r="D83" t="n">
-        <v>88.09999999999999</v>
+        <v>87.37</v>
       </c>
       <c r="E83" t="n">
-        <v>88</v>
+        <v>86.61</v>
       </c>
       <c r="F83" t="n">
-        <v>18980</v>
+        <v>39294.897</v>
       </c>
       <c r="G83" t="n">
-        <v>-88409.2785849448</v>
+        <v>-180342.7705444792</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>88</v>
+        <v>87.3</v>
       </c>
       <c r="C84" t="n">
-        <v>87.95999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="D84" t="n">
-        <v>88</v>
+        <v>87.3</v>
       </c>
       <c r="E84" t="n">
-        <v>87.95999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="F84" t="n">
-        <v>4158.0137</v>
+        <v>364.4947</v>
       </c>
       <c r="G84" t="n">
-        <v>-92567.29228494479</v>
+        <v>-179978.2758444792</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>87.8</v>
+        <v>87.19</v>
       </c>
       <c r="C85" t="n">
-        <v>87.40000000000001</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>87.8</v>
+        <v>87.56</v>
       </c>
       <c r="E85" t="n">
-        <v>87.40000000000001</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>54990.4928</v>
+        <v>23345.71608040201</v>
       </c>
       <c r="G85" t="n">
-        <v>-147557.7850849448</v>
+        <v>-203323.9919248812</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87.98999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>87.98999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>87.98999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>87.98999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>550.096601886578</v>
+        <v>7126.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>-147007.6884830582</v>
+        <v>-196196.9920248812</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>88.3</v>
+        <v>87.2</v>
       </c>
       <c r="C87" t="n">
-        <v>88.39</v>
+        <v>87.2</v>
       </c>
       <c r="D87" t="n">
-        <v>88.39</v>
+        <v>87.2</v>
       </c>
       <c r="E87" t="n">
-        <v>88.3</v>
+        <v>87.2</v>
       </c>
       <c r="F87" t="n">
-        <v>11313.68243857902</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>-135694.0060444792</v>
+        <v>-196096.9920248812</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>88.44</v>
+        <v>87.69</v>
       </c>
       <c r="C88" t="n">
-        <v>88.44</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>88.44</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>88.44</v>
+        <v>87.69</v>
       </c>
       <c r="F88" t="n">
-        <v>19998.7111</v>
+        <v>1139.491969472605</v>
       </c>
       <c r="G88" t="n">
-        <v>-115695.2949444792</v>
+        <v>-194957.5000554086</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>88.56999999999999</v>
+        <v>87.72</v>
       </c>
       <c r="C89" t="n">
-        <v>88.56999999999999</v>
+        <v>87.72</v>
       </c>
       <c r="D89" t="n">
-        <v>88.56999999999999</v>
+        <v>87.72</v>
       </c>
       <c r="E89" t="n">
-        <v>88.56999999999999</v>
+        <v>87.72</v>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>-115689.2949444792</v>
+        <v>-199957.5000554086</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>88.56999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="C90" t="n">
-        <v>88.61</v>
+        <v>87.2</v>
       </c>
       <c r="D90" t="n">
-        <v>88.61</v>
+        <v>87.2</v>
       </c>
       <c r="E90" t="n">
-        <v>88.56999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="F90" t="n">
-        <v>31</v>
+        <v>190.1165</v>
       </c>
       <c r="G90" t="n">
-        <v>-115658.2949444792</v>
+        <v>-200147.6165554086</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>88.73</v>
+        <v>87.2</v>
       </c>
       <c r="C91" t="n">
-        <v>88.73</v>
+        <v>87.77</v>
       </c>
       <c r="D91" t="n">
-        <v>88.73</v>
+        <v>87.77</v>
       </c>
       <c r="E91" t="n">
-        <v>88.73</v>
+        <v>87.2</v>
       </c>
       <c r="F91" t="n">
-        <v>534.723</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
-        <v>-115123.5719444792</v>
+        <v>-190147.6165554086</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="C92" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="D92" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="E92" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="F92" t="n">
-        <v>22.37</v>
+        <v>19200</v>
       </c>
       <c r="G92" t="n">
-        <v>-115145.9419444792</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="C93" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="D93" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="E93" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="F93" t="n">
-        <v>2300</v>
+        <v>3136.8061</v>
       </c>
       <c r="G93" t="n">
-        <v>-115145.9419444792</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="C94" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="D94" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="E94" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="F94" t="n">
-        <v>10000</v>
+        <v>702.1493</v>
       </c>
       <c r="G94" t="n">
-        <v>-115145.9419444792</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="C95" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="D95" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="E95" t="n">
-        <v>88.09999999999999</v>
+        <v>87.78</v>
       </c>
       <c r="F95" t="n">
-        <v>750</v>
+        <v>613.7361</v>
       </c>
       <c r="G95" t="n">
-        <v>-115145.9419444792</v>
+        <v>-170947.6165554086</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>88.3</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>88.3</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>88.3</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>88.3</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>2645.3924</v>
+        <v>11.387</v>
       </c>
       <c r="G96" t="n">
-        <v>-112500.5495444792</v>
+        <v>-170936.2295554086</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>88.3</v>
+        <v>88.52</v>
       </c>
       <c r="C97" t="n">
-        <v>88.09999999999999</v>
+        <v>88.52</v>
       </c>
       <c r="D97" t="n">
-        <v>88.3</v>
+        <v>88.52</v>
       </c>
       <c r="E97" t="n">
-        <v>88.09999999999999</v>
+        <v>88.52</v>
       </c>
       <c r="F97" t="n">
-        <v>5350</v>
+        <v>361.0662</v>
       </c>
       <c r="G97" t="n">
-        <v>-117850.5495444792</v>
+        <v>-170575.1633554086</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>88.2</v>
+        <v>88.52</v>
       </c>
       <c r="C98" t="n">
-        <v>88.2</v>
+        <v>88.52</v>
       </c>
       <c r="D98" t="n">
-        <v>88.2</v>
+        <v>88.52</v>
       </c>
       <c r="E98" t="n">
-        <v>88.2</v>
+        <v>88.52</v>
       </c>
       <c r="F98" t="n">
-        <v>1136.4656</v>
+        <v>3221.8665</v>
       </c>
       <c r="G98" t="n">
-        <v>-116714.0839444792</v>
+        <v>-170575.1633554086</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>88.40000000000001</v>
+        <v>88.47</v>
       </c>
       <c r="C99" t="n">
-        <v>88.40000000000001</v>
+        <v>88.52</v>
       </c>
       <c r="D99" t="n">
-        <v>88.40000000000001</v>
+        <v>88.52</v>
       </c>
       <c r="E99" t="n">
-        <v>88.40000000000001</v>
+        <v>88.47</v>
       </c>
       <c r="F99" t="n">
-        <v>5690.7751</v>
+        <v>7495.5853</v>
       </c>
       <c r="G99" t="n">
-        <v>-111023.3088444792</v>
+        <v>-170575.1633554086</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>88.40000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="C100" t="n">
-        <v>88.40000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="D100" t="n">
-        <v>88.40000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="E100" t="n">
-        <v>88.40000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="F100" t="n">
-        <v>1149.8564</v>
+        <v>517.4899</v>
       </c>
       <c r="G100" t="n">
-        <v>-111023.3088444792</v>
+        <v>-170057.6734554087</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>88.40000000000001</v>
+        <v>88.72</v>
       </c>
       <c r="C101" t="n">
-        <v>88.40000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="D101" t="n">
-        <v>88.40000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="E101" t="n">
-        <v>88.40000000000001</v>
+        <v>88.72</v>
       </c>
       <c r="F101" t="n">
-        <v>3159.3685</v>
+        <v>50000</v>
       </c>
       <c r="G101" t="n">
-        <v>-111023.3088444792</v>
+        <v>-220057.6734554087</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="C102" t="n">
-        <v>88</v>
+        <v>88.3</v>
       </c>
       <c r="D102" t="n">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="E102" t="n">
-        <v>88</v>
+        <v>88.3</v>
       </c>
       <c r="F102" t="n">
-        <v>7056.2642</v>
+        <v>181.3861</v>
       </c>
       <c r="G102" t="n">
-        <v>-118079.5730444792</v>
+        <v>-220239.0595554087</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>88</v>
+        <v>88.3</v>
       </c>
       <c r="C103" t="n">
-        <v>87.84999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="D103" t="n">
-        <v>88</v>
+        <v>88.3</v>
       </c>
       <c r="E103" t="n">
-        <v>87.84999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="F103" t="n">
-        <v>19385.5645</v>
+        <v>430.7298</v>
       </c>
       <c r="G103" t="n">
-        <v>-137465.1375444792</v>
+        <v>-220239.0595554087</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>87.90000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>87.90000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>87.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>11820</v>
+        <v>1096.5625</v>
       </c>
       <c r="G104" t="n">
-        <v>-149285.1375444792</v>
+        <v>-219142.4970554087</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>87.8</v>
+        <v>88.7</v>
       </c>
       <c r="C105" t="n">
-        <v>87.40000000000001</v>
+        <v>88.88</v>
       </c>
       <c r="D105" t="n">
-        <v>87.8</v>
+        <v>88.88</v>
       </c>
       <c r="E105" t="n">
-        <v>87.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="F105" t="n">
-        <v>23000.0001</v>
+        <v>5097.6894</v>
       </c>
       <c r="G105" t="n">
-        <v>-172285.1376444792</v>
+        <v>-214044.8076554087</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>88.09999999999999</v>
+        <v>88.63</v>
       </c>
       <c r="C106" t="n">
-        <v>88.09999999999999</v>
+        <v>88.53</v>
       </c>
       <c r="D106" t="n">
-        <v>88.09999999999999</v>
+        <v>88.63</v>
       </c>
       <c r="E106" t="n">
-        <v>88.09999999999999</v>
+        <v>88.53</v>
       </c>
       <c r="F106" t="n">
-        <v>4545.7495</v>
+        <v>20000</v>
       </c>
       <c r="G106" t="n">
-        <v>-167739.3881444792</v>
+        <v>-234044.8076554087</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>87.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>550.0966</v>
+        <v>183.0904</v>
       </c>
       <c r="G107" t="n">
-        <v>-168289.4847444792</v>
+        <v>-233861.7172554087</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>87.44</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>87.42</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>87.44</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>87.42</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>6000</v>
+        <v>44008.9339</v>
       </c>
       <c r="G108" t="n">
-        <v>-174289.4847444792</v>
+        <v>-277870.6511554087</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>87.42</v>
+        <v>88.8</v>
       </c>
       <c r="C109" t="n">
-        <v>87.42</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>87.42</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>87.42</v>
+        <v>88.8</v>
       </c>
       <c r="F109" t="n">
-        <v>3846.836</v>
+        <v>24751.0391</v>
       </c>
       <c r="G109" t="n">
-        <v>-174289.4847444792</v>
+        <v>-253119.6120554087</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>87.43000000000001</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>87.43000000000001</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>87.43000000000001</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>87.43000000000001</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>22900</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="n">
-        <v>-151389.4847444792</v>
+        <v>-248119.6120554087</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>87.5</v>
+        <v>88.66</v>
       </c>
       <c r="C111" t="n">
-        <v>87.5</v>
+        <v>88.66</v>
       </c>
       <c r="D111" t="n">
-        <v>87.5</v>
+        <v>88.66</v>
       </c>
       <c r="E111" t="n">
-        <v>87.5</v>
+        <v>88.66</v>
       </c>
       <c r="F111" t="n">
-        <v>74739.7678</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>-76649.71694447921</v>
+        <v>-249119.6120554087</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>87.42</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>87.42</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>87.42</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>87.42</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>3242.1654</v>
+        <v>88.1558</v>
       </c>
       <c r="G112" t="n">
-        <v>-79891.88234447921</v>
+        <v>-249031.4562554087</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>87.42</v>
+        <v>89.47</v>
       </c>
       <c r="C113" t="n">
-        <v>87.39</v>
+        <v>89.47</v>
       </c>
       <c r="D113" t="n">
-        <v>87.42</v>
+        <v>89.47</v>
       </c>
       <c r="E113" t="n">
-        <v>87.39</v>
+        <v>89.47</v>
       </c>
       <c r="F113" t="n">
-        <v>11140</v>
+        <v>13148.8821</v>
       </c>
       <c r="G113" t="n">
-        <v>-91031.88234447921</v>
+        <v>-235882.5741554087</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>87.39</v>
+        <v>89.47</v>
       </c>
       <c r="C114" t="n">
-        <v>87.39</v>
+        <v>89.2</v>
       </c>
       <c r="D114" t="n">
-        <v>87.39</v>
+        <v>89.47</v>
       </c>
       <c r="E114" t="n">
-        <v>87.39</v>
+        <v>89.2</v>
       </c>
       <c r="F114" t="n">
-        <v>1082.6088</v>
+        <v>11.2222</v>
       </c>
       <c r="G114" t="n">
-        <v>-91031.88234447921</v>
+        <v>-235893.7963554087</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>87.3</v>
+        <v>89.2</v>
       </c>
       <c r="C115" t="n">
-        <v>87.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>87.3</v>
+        <v>89.2</v>
       </c>
       <c r="E115" t="n">
-        <v>87.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>150</v>
+        <v>2358.6684</v>
       </c>
       <c r="G115" t="n">
-        <v>-91181.88234447921</v>
+        <v>-238252.4647554087</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>87.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>87.05</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>87.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>87.05</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>4150</v>
+        <v>24.2135</v>
       </c>
       <c r="G116" t="n">
-        <v>-95331.88234447921</v>
+        <v>-238252.4647554087</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>87.03</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>86.98999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>87.03</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>86.98999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>13074.4027</v>
+        <v>150.7571</v>
       </c>
       <c r="G117" t="n">
-        <v>-108406.2850444792</v>
+        <v>-238252.4647554087</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>86.98</v>
+        <v>88.5</v>
       </c>
       <c r="C118" t="n">
-        <v>86.84999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D118" t="n">
-        <v>86.98</v>
+        <v>88.5</v>
       </c>
       <c r="E118" t="n">
-        <v>86.84999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="F118" t="n">
-        <v>40349.6129</v>
+        <v>183.7327</v>
       </c>
       <c r="G118" t="n">
-        <v>-148755.8979444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="C119" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="D119" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="E119" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="F119" t="n">
-        <v>15.2072</v>
+        <v>350.105</v>
       </c>
       <c r="G119" t="n">
-        <v>-148771.1051444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>87.05</v>
+        <v>88.5</v>
       </c>
       <c r="C120" t="n">
-        <v>87.05</v>
+        <v>88.5</v>
       </c>
       <c r="D120" t="n">
-        <v>87.05</v>
+        <v>88.5</v>
       </c>
       <c r="E120" t="n">
-        <v>87.05</v>
+        <v>88.5</v>
       </c>
       <c r="F120" t="n">
-        <v>63.1821</v>
+        <v>1341.8787</v>
       </c>
       <c r="G120" t="n">
-        <v>-148707.9230444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="C121" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="D121" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="E121" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="F121" t="n">
-        <v>4081.7924</v>
+        <v>1059.3372</v>
       </c>
       <c r="G121" t="n">
-        <v>-152789.7154444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>86.84</v>
+        <v>88.5</v>
       </c>
       <c r="C122" t="n">
-        <v>87.05</v>
+        <v>88.5</v>
       </c>
       <c r="D122" t="n">
-        <v>87.05</v>
+        <v>88.5</v>
       </c>
       <c r="E122" t="n">
-        <v>86.81999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="F122" t="n">
-        <v>832.3414</v>
+        <v>4809.3025</v>
       </c>
       <c r="G122" t="n">
-        <v>-151957.3740444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>86.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="C123" t="n">
-        <v>87.48</v>
+        <v>88.5</v>
       </c>
       <c r="D123" t="n">
-        <v>87.48</v>
+        <v>88.5</v>
       </c>
       <c r="E123" t="n">
-        <v>86.8</v>
+        <v>88.5</v>
       </c>
       <c r="F123" t="n">
-        <v>11269.5005</v>
+        <v>2341.2025</v>
       </c>
       <c r="G123" t="n">
-        <v>-140687.8735444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>87.25</v>
+        <v>88.5</v>
       </c>
       <c r="C124" t="n">
-        <v>87.25</v>
+        <v>88.5</v>
       </c>
       <c r="D124" t="n">
-        <v>87.25</v>
+        <v>88.5</v>
       </c>
       <c r="E124" t="n">
-        <v>87.25</v>
+        <v>88.5</v>
       </c>
       <c r="F124" t="n">
-        <v>360</v>
+        <v>2158.6017</v>
       </c>
       <c r="G124" t="n">
-        <v>-141047.8735444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>87.37</v>
+        <v>88.5</v>
       </c>
       <c r="C125" t="n">
-        <v>86.61</v>
+        <v>88.5</v>
       </c>
       <c r="D125" t="n">
-        <v>87.37</v>
+        <v>88.5</v>
       </c>
       <c r="E125" t="n">
-        <v>86.61</v>
+        <v>88.5</v>
       </c>
       <c r="F125" t="n">
-        <v>39294.897</v>
+        <v>35291.755</v>
       </c>
       <c r="G125" t="n">
-        <v>-180342.7705444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="C126" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="D126" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="E126" t="n">
-        <v>87.3</v>
+        <v>88.5</v>
       </c>
       <c r="F126" t="n">
-        <v>364.4947</v>
+        <v>3907.2803</v>
       </c>
       <c r="G126" t="n">
-        <v>-179978.2758444792</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>87.19</v>
+        <v>88.5</v>
       </c>
       <c r="C127" t="n">
-        <v>87.01000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="D127" t="n">
-        <v>87.56</v>
+        <v>88.5</v>
       </c>
       <c r="E127" t="n">
-        <v>87.01000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F127" t="n">
-        <v>23345.71608040201</v>
+        <v>965.1528</v>
       </c>
       <c r="G127" t="n">
-        <v>-203323.9919248812</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>87.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>87.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D128" t="n">
-        <v>87.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>87.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="F128" t="n">
-        <v>7126.9999</v>
+        <v>11955.5673</v>
       </c>
       <c r="G128" t="n">
-        <v>-196196.9920248812</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,63 +5003,69 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>87.2</v>
+        <v>88.5</v>
       </c>
       <c r="C129" t="n">
-        <v>87.2</v>
+        <v>88.5</v>
       </c>
       <c r="D129" t="n">
-        <v>87.2</v>
+        <v>88.5</v>
       </c>
       <c r="E129" t="n">
-        <v>87.2</v>
+        <v>88.5</v>
       </c>
       <c r="F129" t="n">
-        <v>100</v>
+        <v>2049.6148</v>
       </c>
       <c r="G129" t="n">
-        <v>-196096.9920248812</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K129" t="n">
+        <v>88.5</v>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>87.69</v>
+        <v>88.5</v>
       </c>
       <c r="C130" t="n">
-        <v>87.79000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="D130" t="n">
-        <v>87.79000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="E130" t="n">
-        <v>87.69</v>
+        <v>88.5</v>
       </c>
       <c r="F130" t="n">
-        <v>1139.491969472605</v>
+        <v>5223.567</v>
       </c>
       <c r="G130" t="n">
-        <v>-194957.5000554086</v>
+        <v>-238436.1974554087</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,103 +5074,124 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>87.72</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>87.72</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>87.72</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>87.72</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>5000</v>
+        <v>197.3011</v>
       </c>
       <c r="G131" t="n">
-        <v>-199957.5000554086</v>
+        <v>-238633.4985554087</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>87.2</v>
+        <v>88.75</v>
       </c>
       <c r="C132" t="n">
-        <v>87.2</v>
+        <v>88.75</v>
       </c>
       <c r="D132" t="n">
-        <v>87.2</v>
+        <v>88.75</v>
       </c>
       <c r="E132" t="n">
-        <v>87.2</v>
+        <v>88.75</v>
       </c>
       <c r="F132" t="n">
-        <v>190.1165</v>
+        <v>83.6032</v>
       </c>
       <c r="G132" t="n">
-        <v>-200147.6165554086</v>
+        <v>-238549.8953554087</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K132" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>87.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>87.77</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>87.77</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>87.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>10000</v>
+        <v>22811.0595</v>
       </c>
       <c r="G133" t="n">
-        <v>-190147.6165554086</v>
+        <v>-261360.9548554087</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,33 +5200,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>87.78</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>87.78</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>87.78</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>87.78</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>19200</v>
+        <v>7472.6434</v>
       </c>
       <c r="G134" t="n">
-        <v>-170947.6165554086</v>
+        <v>-261360.9548554087</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,278 +5242,336 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>87.78</v>
+        <v>88.11</v>
       </c>
       <c r="C135" t="n">
-        <v>87.78</v>
+        <v>88.11</v>
       </c>
       <c r="D135" t="n">
-        <v>87.78</v>
+        <v>88.11</v>
       </c>
       <c r="E135" t="n">
-        <v>87.78</v>
+        <v>88.11</v>
       </c>
       <c r="F135" t="n">
-        <v>3136.8061</v>
+        <v>42429.3618</v>
       </c>
       <c r="G135" t="n">
-        <v>-170947.6165554086</v>
+        <v>-303790.3166554087</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K135" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>87.78</v>
+        <v>88.77</v>
       </c>
       <c r="C136" t="n">
-        <v>87.78</v>
+        <v>88.77</v>
       </c>
       <c r="D136" t="n">
-        <v>87.78</v>
+        <v>88.77</v>
       </c>
       <c r="E136" t="n">
-        <v>87.78</v>
+        <v>88.77</v>
       </c>
       <c r="F136" t="n">
-        <v>702.1493</v>
+        <v>1265</v>
       </c>
       <c r="G136" t="n">
-        <v>-170947.6165554086</v>
+        <v>-302525.3166554087</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="K136" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>87.78</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>613.7361</v>
+        <v>11864.4928</v>
       </c>
       <c r="G137" t="n">
-        <v>-170947.6165554086</v>
+        <v>-314389.8094554087</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="K137" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>87.81999999999999</v>
+        <v>88.11</v>
       </c>
       <c r="C138" t="n">
-        <v>87.81999999999999</v>
+        <v>88.11</v>
       </c>
       <c r="D138" t="n">
-        <v>87.81999999999999</v>
+        <v>88.11</v>
       </c>
       <c r="E138" t="n">
-        <v>87.81999999999999</v>
+        <v>88.11</v>
       </c>
       <c r="F138" t="n">
-        <v>11.387</v>
+        <v>15000</v>
       </c>
       <c r="G138" t="n">
-        <v>-170936.2295554086</v>
+        <v>-299389.8094554087</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="K138" t="n">
+        <v>88.09999999999999</v>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>88.52</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>88.52</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>88.52</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>88.52</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>361.0662</v>
+        <v>6.7576</v>
       </c>
       <c r="G139" t="n">
-        <v>-170575.1633554086</v>
+        <v>-299383.0518554087</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="K139" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>88.52</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>88.52</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>88.52</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>88.52</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>3221.8665</v>
+        <v>853.5921</v>
       </c>
       <c r="G140" t="n">
-        <v>-170575.1633554086</v>
+        <v>-300236.6439554087</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="K140" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>88.47</v>
+        <v>88.37</v>
       </c>
       <c r="C141" t="n">
-        <v>88.52</v>
+        <v>89</v>
       </c>
       <c r="D141" t="n">
-        <v>88.52</v>
+        <v>89</v>
       </c>
       <c r="E141" t="n">
-        <v>88.47</v>
+        <v>88.37</v>
       </c>
       <c r="F141" t="n">
-        <v>7495.5853</v>
+        <v>3991.0119</v>
       </c>
       <c r="G141" t="n">
-        <v>-170575.1633554086</v>
+        <v>-296245.6320554087</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="K141" t="n">
+        <v>88.06999999999999</v>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>88.89</v>
+        <v>88.88</v>
       </c>
       <c r="C142" t="n">
-        <v>88.89</v>
+        <v>88.88</v>
       </c>
       <c r="D142" t="n">
-        <v>88.89</v>
+        <v>88.88</v>
       </c>
       <c r="E142" t="n">
-        <v>88.89</v>
+        <v>88.88</v>
       </c>
       <c r="F142" t="n">
-        <v>517.4899</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="n">
-        <v>-170057.6734554087</v>
+        <v>-297245.6320554087</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,158 +5580,197 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>88.72</v>
+        <v>88.88</v>
       </c>
       <c r="C143" t="n">
-        <v>88.8</v>
+        <v>88.88</v>
       </c>
       <c r="D143" t="n">
-        <v>88.8</v>
+        <v>88.88</v>
       </c>
       <c r="E143" t="n">
-        <v>88.72</v>
+        <v>88.88</v>
       </c>
       <c r="F143" t="n">
-        <v>50000</v>
+        <v>4684</v>
       </c>
       <c r="G143" t="n">
-        <v>-220057.6734554087</v>
+        <v>-297245.6320554087</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="K143" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="C144" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="D144" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="E144" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="F144" t="n">
-        <v>181.3861</v>
+        <v>3959</v>
       </c>
       <c r="G144" t="n">
-        <v>-220239.0595554087</v>
+        <v>-297245.6320554087</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="K144" t="n">
+        <v>88.88</v>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="C145" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="D145" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="E145" t="n">
-        <v>88.3</v>
+        <v>88.88</v>
       </c>
       <c r="F145" t="n">
-        <v>430.7298</v>
+        <v>1171.7991</v>
       </c>
       <c r="G145" t="n">
-        <v>-220239.0595554087</v>
+        <v>-297245.6320554087</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="K145" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>88.40000000000001</v>
+        <v>88.88</v>
       </c>
       <c r="C146" t="n">
-        <v>88.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="D146" t="n">
-        <v>88.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="E146" t="n">
-        <v>88.40000000000001</v>
+        <v>88.88</v>
       </c>
       <c r="F146" t="n">
-        <v>1096.5625</v>
+        <v>7127.3624</v>
       </c>
       <c r="G146" t="n">
-        <v>-219142.4970554087</v>
+        <v>-290118.2696554087</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="K146" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>88.7</v>
+        <v>88.88</v>
       </c>
       <c r="C147" t="n">
         <v>88.88</v>
@@ -5517,1673 +5779,167 @@
         <v>88.88</v>
       </c>
       <c r="E147" t="n">
-        <v>88.7</v>
+        <v>88.88</v>
       </c>
       <c r="F147" t="n">
-        <v>5097.6894</v>
+        <v>1133</v>
       </c>
       <c r="G147" t="n">
-        <v>-214044.8076554087</v>
+        <v>-291251.2696554087</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>89</v>
+      </c>
+      <c r="K147" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>88.63</v>
+        <v>88.88</v>
       </c>
       <c r="C148" t="n">
-        <v>88.53</v>
+        <v>88.88</v>
       </c>
       <c r="D148" t="n">
-        <v>88.63</v>
+        <v>88.88</v>
       </c>
       <c r="E148" t="n">
-        <v>88.53</v>
+        <v>88.88</v>
       </c>
       <c r="F148" t="n">
-        <v>20000</v>
+        <v>33185</v>
       </c>
       <c r="G148" t="n">
-        <v>-234044.8076554087</v>
+        <v>-291251.2696554087</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="K148" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>88.59999999999999</v>
+        <v>88.88</v>
       </c>
       <c r="C149" t="n">
-        <v>88.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="D149" t="n">
-        <v>88.59999999999999</v>
+        <v>88.88</v>
       </c>
       <c r="E149" t="n">
-        <v>88.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="F149" t="n">
-        <v>183.0904</v>
+        <v>2081.9344</v>
       </c>
       <c r="G149" t="n">
-        <v>-233861.7172554087</v>
+        <v>-293333.2040554088</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="K149" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>88.59999999999999</v>
+        <v>88.05</v>
       </c>
       <c r="C150" t="n">
-        <v>88.40000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>88.59999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>88.40000000000001</v>
+        <v>88.02</v>
       </c>
       <c r="F150" t="n">
-        <v>44008.9339</v>
+        <v>1260.9512</v>
       </c>
       <c r="G150" t="n">
-        <v>-277870.6511554087</v>
+        <v>-294594.1552554088</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>88.84999999999999</v>
-      </c>
-      <c r="D151" t="n">
-        <v>88.84999999999999</v>
-      </c>
-      <c r="E151" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>24751.0391</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-253119.6120554087</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>88.84999999999999</v>
-      </c>
-      <c r="C152" t="n">
-        <v>88.98999999999999</v>
-      </c>
-      <c r="D152" t="n">
-        <v>88.98999999999999</v>
-      </c>
-      <c r="E152" t="n">
-        <v>88.84999999999999</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-248119.6120554087</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>88.66</v>
-      </c>
-      <c r="C153" t="n">
-        <v>88.66</v>
-      </c>
-      <c r="D153" t="n">
-        <v>88.66</v>
-      </c>
-      <c r="E153" t="n">
-        <v>88.66</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-249119.6120554087</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>88.98999999999999</v>
-      </c>
-      <c r="C154" t="n">
-        <v>88.98999999999999</v>
-      </c>
-      <c r="D154" t="n">
-        <v>88.98999999999999</v>
-      </c>
-      <c r="E154" t="n">
-        <v>88.98999999999999</v>
-      </c>
-      <c r="F154" t="n">
-        <v>88.1558</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-249031.4562554087</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>89.47</v>
-      </c>
-      <c r="C155" t="n">
-        <v>89.47</v>
-      </c>
-      <c r="D155" t="n">
-        <v>89.47</v>
-      </c>
-      <c r="E155" t="n">
-        <v>89.47</v>
-      </c>
-      <c r="F155" t="n">
-        <v>13148.8821</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-235882.5741554087</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>89.47</v>
-      </c>
-      <c r="C156" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>89.47</v>
-      </c>
-      <c r="E156" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>11.2222</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-235893.7963554087</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="C157" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D157" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="E157" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2358.6684</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-238252.4647554087</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>24.2135</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-238252.4647554087</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F159" t="n">
-        <v>150.7571</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-238252.4647554087</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D160" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>183.7327</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D161" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>350.105</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1341.8787</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1059.3372</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4809.3025</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C165" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D165" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E165" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2341.2025</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C166" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E166" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2158.6017</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C167" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D167" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>35291.755</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D168" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3907.2803</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C169" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D169" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E169" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>965.1528</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="C170" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D170" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F170" t="n">
-        <v>11955.5673</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D171" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E171" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2049.6148</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="C172" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E172" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5223.567</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C173" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D173" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E173" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F173" t="n">
-        <v>197.3011</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-238633.4985554087</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K173" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="C174" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="D174" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="E174" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="F174" t="n">
-        <v>83.6032</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-238549.8953554087</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K174" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C175" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D175" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E175" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F175" t="n">
-        <v>22811.0595</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-261360.9548554087</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="K175" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C176" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D176" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E176" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F176" t="n">
-        <v>7472.6434</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-261360.9548554087</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="C177" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="D177" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="E177" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="F177" t="n">
-        <v>42429.3618</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-303790.3166554087</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K177" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="C178" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="D178" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="E178" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1265</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-302525.3166554087</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="C179" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D179" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E179" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="F179" t="n">
-        <v>11864.4928</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-314389.8094554087</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="C180" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="D180" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="E180" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="F180" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-299389.8094554087</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="C181" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="D181" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="F181" t="n">
-        <v>6.7576</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-299383.0518554087</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="K181" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="D182" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="E182" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="F182" t="n">
-        <v>853.5921</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-300236.6439554087</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="K182" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="C183" t="n">
-        <v>89</v>
-      </c>
-      <c r="D183" t="n">
-        <v>89</v>
-      </c>
-      <c r="E183" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3991.0119</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-296245.6320554087</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="K183" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C184" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D184" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E184" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>89</v>
-      </c>
-      <c r="K184" t="n">
-        <v>89</v>
-      </c>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C185" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D185" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E185" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4684</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>89</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C186" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D186" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E186" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F186" t="n">
-        <v>3959</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>89</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C187" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D187" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E187" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1171.7991</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C188" t="n">
-        <v>89</v>
-      </c>
-      <c r="D188" t="n">
-        <v>89</v>
-      </c>
-      <c r="E188" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F188" t="n">
-        <v>7127.3624</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-290118.2696554087</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C189" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D189" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E189" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1133</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-291251.2696554087</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C190" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D190" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E190" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F190" t="n">
-        <v>33185</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-291251.2696554087</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C191" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D191" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E191" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2081.9344</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-293333.2040554088</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>88.05</v>
-      </c>
-      <c r="C192" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D192" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E192" t="n">
-        <v>88.02</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1260.9512</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-294594.1552554088</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>10144.2414</v>
+        <v>5286.6363</v>
       </c>
       <c r="G2" t="n">
-        <v>144670.8419150552</v>
+        <v>91430.15841505519</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>89.91</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>404.7691</v>
+        <v>9618.740900000001</v>
       </c>
       <c r="G3" t="n">
-        <v>144670.8419150552</v>
+        <v>91430.15841505519</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.02</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>90.75</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>90.84999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>90.02</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>18651.156</v>
+        <v>0.0001</v>
       </c>
       <c r="G4" t="n">
-        <v>163321.9979150552</v>
+        <v>91430.15841505519</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90.79000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>90.79000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>90.79000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>90.79000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>140.6602</v>
+        <v>17099.9839</v>
       </c>
       <c r="G5" t="n">
-        <v>163462.6581150552</v>
+        <v>91430.15841505519</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>90.77</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>90.77</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>90.77</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>90.77</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>250.2379</v>
+        <v>3206.247</v>
       </c>
       <c r="G6" t="n">
-        <v>163212.4202150552</v>
+        <v>91430.15841505519</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90.91</v>
+        <v>91.89</v>
       </c>
       <c r="C7" t="n">
-        <v>90.91</v>
+        <v>91.89</v>
       </c>
       <c r="D7" t="n">
-        <v>90.91</v>
+        <v>91.89</v>
       </c>
       <c r="E7" t="n">
-        <v>90.91</v>
+        <v>91.89</v>
       </c>
       <c r="F7" t="n">
-        <v>7680.7692</v>
+        <v>320</v>
       </c>
       <c r="G7" t="n">
-        <v>170893.1894150552</v>
+        <v>91750.15841505519</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90.97</v>
+        <v>91.89</v>
       </c>
       <c r="C8" t="n">
-        <v>90.97</v>
+        <v>91.89</v>
       </c>
       <c r="D8" t="n">
-        <v>90.97</v>
+        <v>91.89</v>
       </c>
       <c r="E8" t="n">
-        <v>90.97</v>
+        <v>91.89</v>
       </c>
       <c r="F8" t="n">
-        <v>4514.9454</v>
+        <v>2393.1627</v>
       </c>
       <c r="G8" t="n">
-        <v>175408.1348150552</v>
+        <v>91750.15841505519</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90.98999999999999</v>
+        <v>91.89</v>
       </c>
       <c r="C9" t="n">
-        <v>90.98999999999999</v>
+        <v>91.89</v>
       </c>
       <c r="D9" t="n">
-        <v>90.98999999999999</v>
+        <v>91.89</v>
       </c>
       <c r="E9" t="n">
-        <v>90.98999999999999</v>
+        <v>91.89</v>
       </c>
       <c r="F9" t="n">
-        <v>1359.6813</v>
+        <v>1822.6913</v>
       </c>
       <c r="G9" t="n">
-        <v>176767.8161150552</v>
+        <v>91750.15841505519</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90.53</v>
+        <v>91.89</v>
       </c>
       <c r="C10" t="n">
-        <v>90.53</v>
+        <v>90.97</v>
       </c>
       <c r="D10" t="n">
-        <v>90.53</v>
+        <v>91.89</v>
       </c>
       <c r="E10" t="n">
-        <v>90.53</v>
+        <v>90.97</v>
       </c>
       <c r="F10" t="n">
-        <v>13383.615</v>
+        <v>991.4008</v>
       </c>
       <c r="G10" t="n">
-        <v>163384.2011150552</v>
+        <v>90758.75761505519</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>90.53</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>90.53</v>
+        <v>91.05</v>
       </c>
       <c r="D11" t="n">
-        <v>90.53</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>90.53</v>
+        <v>91.05</v>
       </c>
       <c r="F11" t="n">
-        <v>1130.3391</v>
+        <v>3353.5701</v>
       </c>
       <c r="G11" t="n">
-        <v>163384.2011150552</v>
+        <v>94112.32771505519</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90.95999999999999</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>90.95999999999999</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>90.95999999999999</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>90.95999999999999</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1700</v>
+        <v>42730</v>
       </c>
       <c r="G12" t="n">
-        <v>165084.2011150552</v>
+        <v>51382.32771505519</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90.51000000000001</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>90.42</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>90.51000000000001</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>90.42</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1387.1503</v>
+        <v>25624.248</v>
       </c>
       <c r="G13" t="n">
-        <v>163697.0508150552</v>
+        <v>77006.57571505519</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>90.5</v>
+        <v>91.3</v>
       </c>
       <c r="C14" t="n">
-        <v>90.42</v>
+        <v>91.28</v>
       </c>
       <c r="D14" t="n">
-        <v>90.5</v>
+        <v>91.3</v>
       </c>
       <c r="E14" t="n">
-        <v>90.42</v>
+        <v>91.28</v>
       </c>
       <c r="F14" t="n">
-        <v>5095.6806</v>
+        <v>7782.4692</v>
       </c>
       <c r="G14" t="n">
-        <v>163697.0508150552</v>
+        <v>69224.1065150552</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>90.42</v>
+        <v>91.28</v>
       </c>
       <c r="C15" t="n">
-        <v>90.42</v>
+        <v>91.28</v>
       </c>
       <c r="D15" t="n">
-        <v>90.42</v>
+        <v>91.28</v>
       </c>
       <c r="E15" t="n">
-        <v>90.42</v>
+        <v>91.28</v>
       </c>
       <c r="F15" t="n">
-        <v>599.6552</v>
+        <v>437.238</v>
       </c>
       <c r="G15" t="n">
-        <v>163697.0508150552</v>
+        <v>69224.1065150552</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>90.13</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>89.34</v>
+        <v>89.86</v>
       </c>
       <c r="D16" t="n">
-        <v>90.13</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>89.34</v>
+        <v>89.86</v>
       </c>
       <c r="F16" t="n">
-        <v>63799.3349</v>
+        <v>3001.771</v>
       </c>
       <c r="G16" t="n">
-        <v>99897.7159150552</v>
+        <v>66222.33551505521</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>89.54000000000001</v>
+        <v>89.61</v>
       </c>
       <c r="C17" t="n">
-        <v>89.33</v>
+        <v>89.61</v>
       </c>
       <c r="D17" t="n">
-        <v>89.54000000000001</v>
+        <v>89.61</v>
       </c>
       <c r="E17" t="n">
-        <v>89.33</v>
+        <v>89.61</v>
       </c>
       <c r="F17" t="n">
-        <v>29371.005</v>
+        <v>106.84</v>
       </c>
       <c r="G17" t="n">
-        <v>70526.7109150552</v>
+        <v>66115.49551505521</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>89.33</v>
+        <v>90.38</v>
       </c>
       <c r="C18" t="n">
-        <v>89.33</v>
+        <v>90.38</v>
       </c>
       <c r="D18" t="n">
-        <v>89.33</v>
+        <v>90.38</v>
       </c>
       <c r="E18" t="n">
-        <v>89.33</v>
+        <v>90.38</v>
       </c>
       <c r="F18" t="n">
-        <v>1672.164</v>
+        <v>991.2346</v>
       </c>
       <c r="G18" t="n">
-        <v>70526.7109150552</v>
+        <v>67106.73011505521</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>89.33</v>
+        <v>89.81</v>
       </c>
       <c r="C19" t="n">
-        <v>89.33</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>89.33</v>
+        <v>89.81</v>
       </c>
       <c r="E19" t="n">
-        <v>89.33</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>14003.926</v>
+        <v>24831.9708</v>
       </c>
       <c r="G19" t="n">
-        <v>70526.7109150552</v>
+        <v>42274.75931505521</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>89.33</v>
+        <v>89.81</v>
       </c>
       <c r="C20" t="n">
-        <v>89.25</v>
+        <v>89.81</v>
       </c>
       <c r="D20" t="n">
-        <v>89.33</v>
+        <v>89.81</v>
       </c>
       <c r="E20" t="n">
-        <v>89.25</v>
+        <v>89.81</v>
       </c>
       <c r="F20" t="n">
-        <v>5375.2604</v>
+        <v>11603.2425</v>
       </c>
       <c r="G20" t="n">
-        <v>65151.4505150552</v>
+        <v>53878.00181505521</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>88.95999999999999</v>
+        <v>89.81</v>
       </c>
       <c r="C21" t="n">
-        <v>88.95999999999999</v>
+        <v>89.81</v>
       </c>
       <c r="D21" t="n">
-        <v>88.95999999999999</v>
+        <v>89.81</v>
       </c>
       <c r="E21" t="n">
-        <v>88.95999999999999</v>
+        <v>89.81</v>
       </c>
       <c r="F21" t="n">
-        <v>63871.4122</v>
+        <v>864.2592</v>
       </c>
       <c r="G21" t="n">
-        <v>1280.038315055201</v>
+        <v>53878.00181505521</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>89.58</v>
+        <v>89.61</v>
       </c>
       <c r="C22" t="n">
         <v>89.58</v>
       </c>
       <c r="D22" t="n">
-        <v>89.58</v>
+        <v>89.61</v>
       </c>
       <c r="E22" t="n">
         <v>89.58</v>
       </c>
       <c r="F22" t="n">
-        <v>610</v>
+        <v>9664.0957</v>
       </c>
       <c r="G22" t="n">
-        <v>1890.038315055201</v>
+        <v>44213.90611505522</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>89.90000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="C23" t="n">
-        <v>90</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>90</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>89.90000000000001</v>
+        <v>89.31</v>
       </c>
       <c r="F23" t="n">
-        <v>7204.5607</v>
+        <v>31428.9501</v>
       </c>
       <c r="G23" t="n">
-        <v>9094.599015055201</v>
+        <v>75642.85621505522</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>90.13</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>90.13</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>90.13</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>90.13</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1157.6734</v>
+        <v>187.4597</v>
       </c>
       <c r="G24" t="n">
-        <v>10252.2724150552</v>
+        <v>75455.39651505521</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>89.5</v>
+        <v>90.11</v>
       </c>
       <c r="C25" t="n">
-        <v>89.45</v>
+        <v>90.11</v>
       </c>
       <c r="D25" t="n">
-        <v>89.5</v>
+        <v>90.11</v>
       </c>
       <c r="E25" t="n">
-        <v>89.45</v>
+        <v>90.11</v>
       </c>
       <c r="F25" t="n">
-        <v>1002.2344</v>
+        <v>410</v>
       </c>
       <c r="G25" t="n">
-        <v>9250.038015055201</v>
+        <v>75865.39651505521</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>89.41</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>89.41</v>
+        <v>89.92</v>
       </c>
       <c r="D26" t="n">
-        <v>89.41</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>89.41</v>
+        <v>89.92</v>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>10714.6986</v>
       </c>
       <c r="G26" t="n">
-        <v>-10749.9619849448</v>
+        <v>65150.69791505521</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>89.34999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="C27" t="n">
-        <v>89.34999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="D27" t="n">
-        <v>89.34999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="E27" t="n">
-        <v>89.34999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="F27" t="n">
-        <v>1096.1235</v>
+        <v>2524.7574</v>
       </c>
       <c r="G27" t="n">
-        <v>-11846.0854849448</v>
+        <v>65150.69791505521</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>89.18000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C28" t="n">
-        <v>89.18000000000001</v>
+        <v>89.45</v>
       </c>
       <c r="D28" t="n">
-        <v>89.18000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E28" t="n">
-        <v>89.18000000000001</v>
+        <v>89.45</v>
       </c>
       <c r="F28" t="n">
-        <v>2000</v>
+        <v>3040</v>
       </c>
       <c r="G28" t="n">
-        <v>-13846.0854849448</v>
+        <v>62110.69791505521</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>88.93000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="C29" t="n">
-        <v>88.81999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="D29" t="n">
-        <v>88.93000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="E29" t="n">
-        <v>88.81999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="F29" t="n">
-        <v>49924.8146</v>
+        <v>646.9523</v>
       </c>
       <c r="G29" t="n">
-        <v>-63770.9000849448</v>
+        <v>62757.6502150552</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="C30" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="D30" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="E30" t="n">
-        <v>89.2</v>
+        <v>89.92</v>
       </c>
       <c r="F30" t="n">
-        <v>19.2853</v>
+        <v>2334.1002</v>
       </c>
       <c r="G30" t="n">
-        <v>-63751.6147849448</v>
+        <v>62757.6502150552</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.18000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="C31" t="n">
-        <v>89.18000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="D31" t="n">
-        <v>89.18000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="E31" t="n">
-        <v>89.18000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>4347.0166</v>
       </c>
       <c r="G31" t="n">
-        <v>-64951.6147849448</v>
+        <v>62757.6502150552</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.09999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="C32" t="n">
-        <v>89.09999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="D32" t="n">
-        <v>89.09999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="E32" t="n">
-        <v>89.09999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="F32" t="n">
-        <v>1287.7782</v>
+        <v>2463.8558</v>
       </c>
       <c r="G32" t="n">
-        <v>-66239.39298494479</v>
+        <v>62757.6502150552</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>89.13</v>
+        <v>90.3</v>
       </c>
       <c r="C33" t="n">
-        <v>89.09999999999999</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>89.13</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>89.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="F33" t="n">
-        <v>47952.8068</v>
+        <v>6000</v>
       </c>
       <c r="G33" t="n">
-        <v>-66239.39298494479</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>89.22</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>89.09999999999999</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>89.22</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>89.09999999999999</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>7708.4373</v>
+        <v>428.1975</v>
       </c>
       <c r="G34" t="n">
-        <v>-66239.39298494479</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>88.8</v>
+        <v>90.5</v>
       </c>
       <c r="C35" t="n">
-        <v>88.70999999999999</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>88.8</v>
+        <v>90.5</v>
       </c>
       <c r="E35" t="n">
-        <v>88.70999999999999</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>7201.3049</v>
+        <v>13162.1122</v>
       </c>
       <c r="G35" t="n">
-        <v>-73440.69788494479</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>88.15000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>88</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>88.15000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>88</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>16000</v>
+        <v>2267.4381</v>
       </c>
       <c r="G36" t="n">
-        <v>-89440.69788494479</v>
+        <v>68757.65021505521</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>88.3</v>
+        <v>90</v>
       </c>
       <c r="C37" t="n">
-        <v>88.3</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>88.3</v>
+        <v>90</v>
       </c>
       <c r="E37" t="n">
-        <v>88.3</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>4363.154</v>
+        <v>5703</v>
       </c>
       <c r="G37" t="n">
-        <v>-85077.5438849448</v>
+        <v>63054.65021505521</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>88.86</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>88.86</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>88.86</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>88.86</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>13019.3752</v>
+        <v>2732.6444</v>
       </c>
       <c r="G38" t="n">
-        <v>-72058.1686849448</v>
+        <v>60322.00581505521</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>88.86</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>88.2</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>88.86</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>88.2</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>1000.2808</v>
+        <v>2009.8166</v>
       </c>
       <c r="G39" t="n">
-        <v>-73058.44948494479</v>
+        <v>60322.00581505521</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>88.59999999999999</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>88.59999999999999</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>88.59999999999999</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>88.59999999999999</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>3629.1709</v>
+        <v>855.9526</v>
       </c>
       <c r="G40" t="n">
-        <v>-69429.2785849448</v>
+        <v>60322.00581505521</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>88.09999999999999</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>88</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>88.09999999999999</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>88</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>18980</v>
+        <v>18090</v>
       </c>
       <c r="G41" t="n">
-        <v>-88409.2785849448</v>
+        <v>78412.00581505522</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>88</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>87.95999999999999</v>
+        <v>90.89</v>
       </c>
       <c r="D42" t="n">
-        <v>88</v>
+        <v>90.89</v>
       </c>
       <c r="E42" t="n">
-        <v>87.95999999999999</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>4158.0137</v>
+        <v>3325.519</v>
       </c>
       <c r="G42" t="n">
-        <v>-92567.29228494479</v>
+        <v>81737.52481505522</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87.8</v>
+        <v>90.2</v>
       </c>
       <c r="C43" t="n">
-        <v>87.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="D43" t="n">
-        <v>87.8</v>
+        <v>90.2</v>
       </c>
       <c r="E43" t="n">
-        <v>87.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="F43" t="n">
-        <v>54990.4928</v>
+        <v>11.1632</v>
       </c>
       <c r="G43" t="n">
-        <v>-147557.7850849448</v>
+        <v>81726.36161505523</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>87.98999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C44" t="n">
-        <v>87.98999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="D44" t="n">
-        <v>87.98999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="E44" t="n">
-        <v>87.98999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F44" t="n">
-        <v>550.096601886578</v>
+        <v>3064.8376</v>
       </c>
       <c r="G44" t="n">
-        <v>-147007.6884830582</v>
+        <v>81726.36161505523</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>88.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>88.39</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>88.39</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>88.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>11313.68243857902</v>
+        <v>178.8536</v>
       </c>
       <c r="G45" t="n">
-        <v>-135694.0060444792</v>
+        <v>81905.21521505523</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88.44</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>88.44</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>88.44</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>88.44</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>19998.7111</v>
+        <v>1150.8303</v>
       </c>
       <c r="G46" t="n">
-        <v>-115695.2949444792</v>
+        <v>81905.21521505523</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88.56999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>88.56999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="D47" t="n">
-        <v>88.56999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="E47" t="n">
-        <v>88.56999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>6</v>
+        <v>2861.1692</v>
       </c>
       <c r="G47" t="n">
-        <v>-115689.2949444792</v>
+        <v>84766.38441505523</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>88.56999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>88.61</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>88.61</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>88.56999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>7544.9876</v>
       </c>
       <c r="G48" t="n">
-        <v>-115658.2949444792</v>
+        <v>77221.39681505522</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>88.73</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>88.73</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>88.73</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>88.73</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>534.723</v>
+        <v>9264.0124</v>
       </c>
       <c r="G49" t="n">
-        <v>-115123.5719444792</v>
+        <v>77221.39681505522</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>88.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>88.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>88.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>88.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>22.37</v>
+        <v>369.7067</v>
       </c>
       <c r="G50" t="n">
-        <v>-115145.9419444792</v>
+        <v>77591.10351505522</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>88.09999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>88.09999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>88.09999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>88.09999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>2300</v>
+        <v>2220</v>
       </c>
       <c r="G51" t="n">
-        <v>-115145.9419444792</v>
+        <v>79811.10351505522</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>88.09999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>88.09999999999999</v>
+        <v>91.11</v>
       </c>
       <c r="D52" t="n">
-        <v>88.09999999999999</v>
+        <v>91.11</v>
       </c>
       <c r="E52" t="n">
-        <v>88.09999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="F52" t="n">
         <v>10000</v>
       </c>
       <c r="G52" t="n">
-        <v>-115145.9419444792</v>
+        <v>89811.10351505522</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>88.09999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>88.09999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>88.09999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>88.09999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>750</v>
+        <v>1916.4114</v>
       </c>
       <c r="G53" t="n">
-        <v>-115145.9419444792</v>
+        <v>91727.51491505522</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>88.3</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>88.3</v>
+        <v>91.36</v>
       </c>
       <c r="D54" t="n">
-        <v>88.3</v>
+        <v>91.36</v>
       </c>
       <c r="E54" t="n">
-        <v>88.3</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>2645.3924</v>
+        <v>61955.0007</v>
       </c>
       <c r="G54" t="n">
-        <v>-112500.5495444792</v>
+        <v>153682.5156150552</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>88.3</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>88.09999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>88.3</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>88.09999999999999</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>5350</v>
+        <v>0.0001</v>
       </c>
       <c r="G55" t="n">
-        <v>-117850.5495444792</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>88.2</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>88.2</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>88.2</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>88.2</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>1136.4656</v>
+        <v>9.8512</v>
       </c>
       <c r="G56" t="n">
-        <v>-116714.0839444792</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>5690.7751</v>
+        <v>49.9281</v>
       </c>
       <c r="G57" t="n">
-        <v>-111023.3088444792</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>88.40000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>1149.8564</v>
+        <v>1166.8963</v>
       </c>
       <c r="G58" t="n">
-        <v>-111023.3088444792</v>
+        <v>153682.5155150552</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>88.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>88.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>88.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>88.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>3159.3685</v>
+        <v>4103.2771</v>
       </c>
       <c r="G59" t="n">
-        <v>-111023.3088444792</v>
+        <v>149579.2384150552</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>88.09999999999999</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>88</v>
+        <v>90.7</v>
       </c>
       <c r="D60" t="n">
-        <v>88.09999999999999</v>
+        <v>91.19</v>
       </c>
       <c r="E60" t="n">
-        <v>88</v>
+        <v>90.7</v>
       </c>
       <c r="F60" t="n">
-        <v>7056.2642</v>
+        <v>19787.096</v>
       </c>
       <c r="G60" t="n">
-        <v>-118079.5730444792</v>
+        <v>129792.1424150552</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>88</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>87.84999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="D61" t="n">
-        <v>88</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>87.84999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="F61" t="n">
-        <v>19385.5645</v>
+        <v>591.6422</v>
       </c>
       <c r="G61" t="n">
-        <v>-137465.1375444792</v>
+        <v>129792.1424150552</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>87.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="C62" t="n">
-        <v>87.8</v>
+        <v>90.7</v>
       </c>
       <c r="D62" t="n">
-        <v>87.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="E62" t="n">
-        <v>87.8</v>
+        <v>90.7</v>
       </c>
       <c r="F62" t="n">
-        <v>11820</v>
+        <v>344.0485</v>
       </c>
       <c r="G62" t="n">
-        <v>-149285.1375444792</v>
+        <v>129792.1424150552</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>87.8</v>
+        <v>90.69</v>
       </c>
       <c r="C63" t="n">
-        <v>87.40000000000001</v>
+        <v>90.69</v>
       </c>
       <c r="D63" t="n">
-        <v>87.8</v>
+        <v>90.69</v>
       </c>
       <c r="E63" t="n">
-        <v>87.40000000000001</v>
+        <v>90.69</v>
       </c>
       <c r="F63" t="n">
-        <v>23000.0001</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>-172285.1376444792</v>
+        <v>128792.1424150552</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>88.09999999999999</v>
+        <v>90.89</v>
       </c>
       <c r="C64" t="n">
-        <v>88.09999999999999</v>
+        <v>90.89</v>
       </c>
       <c r="D64" t="n">
-        <v>88.09999999999999</v>
+        <v>90.89</v>
       </c>
       <c r="E64" t="n">
-        <v>88.09999999999999</v>
+        <v>90.89</v>
       </c>
       <c r="F64" t="n">
-        <v>4545.7495</v>
+        <v>7.7017</v>
       </c>
       <c r="G64" t="n">
-        <v>-167739.3881444792</v>
+        <v>128799.8441150552</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>87.5</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>87.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>87.5</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>87.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>550.0966</v>
+        <v>450.0991</v>
       </c>
       <c r="G65" t="n">
-        <v>-168289.4847444792</v>
+        <v>128349.7450150552</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>87.44</v>
+        <v>89.81</v>
       </c>
       <c r="C66" t="n">
-        <v>87.42</v>
+        <v>89.8</v>
       </c>
       <c r="D66" t="n">
-        <v>87.44</v>
+        <v>89.81</v>
       </c>
       <c r="E66" t="n">
-        <v>87.42</v>
+        <v>89.8</v>
       </c>
       <c r="F66" t="n">
-        <v>6000</v>
+        <v>1631.9028</v>
       </c>
       <c r="G66" t="n">
-        <v>-174289.4847444792</v>
+        <v>126717.8422150552</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>87.42</v>
+        <v>90.3</v>
       </c>
       <c r="C67" t="n">
-        <v>87.42</v>
+        <v>90.3</v>
       </c>
       <c r="D67" t="n">
-        <v>87.42</v>
+        <v>90.3</v>
       </c>
       <c r="E67" t="n">
-        <v>87.42</v>
+        <v>90.3</v>
       </c>
       <c r="F67" t="n">
-        <v>3846.836</v>
+        <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>-174289.4847444792</v>
+        <v>126723.8422150552</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>87.43000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="C68" t="n">
-        <v>87.43000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>87.43000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>87.43000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="F68" t="n">
-        <v>22900</v>
+        <v>23370</v>
       </c>
       <c r="G68" t="n">
-        <v>-151389.4847444792</v>
+        <v>150093.8422150552</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>87.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>87.5</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>87.5</v>
+        <v>91.09</v>
       </c>
       <c r="E69" t="n">
-        <v>87.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>74739.7678</v>
+        <v>11142.4589</v>
       </c>
       <c r="G69" t="n">
-        <v>-76649.71694447921</v>
+        <v>161236.3011150552</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,28 +2886,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>87.42</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>87.42</v>
+        <v>90.98</v>
       </c>
       <c r="D70" t="n">
-        <v>87.42</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>87.42</v>
+        <v>90.98</v>
       </c>
       <c r="F70" t="n">
-        <v>3242.1654</v>
+        <v>824.5752</v>
       </c>
       <c r="G70" t="n">
-        <v>-79891.88234447921</v>
+        <v>160411.7259150552</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>87.42</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>87.39</v>
+        <v>89.92</v>
       </c>
       <c r="D71" t="n">
-        <v>87.42</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>87.39</v>
+        <v>89.92</v>
       </c>
       <c r="F71" t="n">
-        <v>11140</v>
+        <v>5596.6426</v>
       </c>
       <c r="G71" t="n">
-        <v>-91031.88234447921</v>
+        <v>154815.0833150552</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>87.39</v>
+        <v>89.92</v>
       </c>
       <c r="C72" t="n">
-        <v>87.39</v>
+        <v>89.92</v>
       </c>
       <c r="D72" t="n">
-        <v>87.39</v>
+        <v>89.92</v>
       </c>
       <c r="E72" t="n">
-        <v>87.39</v>
+        <v>89.92</v>
       </c>
       <c r="F72" t="n">
-        <v>1082.6088</v>
+        <v>17255.7251</v>
       </c>
       <c r="G72" t="n">
-        <v>-91031.88234447921</v>
+        <v>154815.0833150552</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>87.3</v>
+        <v>89.91</v>
       </c>
       <c r="C73" t="n">
-        <v>87.3</v>
+        <v>89.91</v>
       </c>
       <c r="D73" t="n">
-        <v>87.3</v>
+        <v>89.91</v>
       </c>
       <c r="E73" t="n">
-        <v>87.3</v>
+        <v>89.91</v>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>10144.2414</v>
       </c>
       <c r="G73" t="n">
-        <v>-91181.88234447921</v>
+        <v>144670.8419150552</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87.2</v>
+        <v>89.91</v>
       </c>
       <c r="C74" t="n">
-        <v>87.05</v>
+        <v>89.91</v>
       </c>
       <c r="D74" t="n">
-        <v>87.2</v>
+        <v>89.91</v>
       </c>
       <c r="E74" t="n">
-        <v>87.05</v>
+        <v>89.91</v>
       </c>
       <c r="F74" t="n">
-        <v>4150</v>
+        <v>404.7691</v>
       </c>
       <c r="G74" t="n">
-        <v>-95331.88234447921</v>
+        <v>144670.8419150552</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87.03</v>
+        <v>90.02</v>
       </c>
       <c r="C75" t="n">
-        <v>86.98999999999999</v>
+        <v>90.75</v>
       </c>
       <c r="D75" t="n">
-        <v>87.03</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>86.98999999999999</v>
+        <v>90.02</v>
       </c>
       <c r="F75" t="n">
-        <v>13074.4027</v>
+        <v>18651.156</v>
       </c>
       <c r="G75" t="n">
-        <v>-108406.2850444792</v>
+        <v>163321.9979150552</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>86.98</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>86.84999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>86.98</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>86.84999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>40349.6129</v>
+        <v>140.6602</v>
       </c>
       <c r="G76" t="n">
-        <v>-148755.8979444792</v>
+        <v>163462.6581150552</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>86.84</v>
+        <v>90.77</v>
       </c>
       <c r="C77" t="n">
-        <v>86.84</v>
+        <v>90.77</v>
       </c>
       <c r="D77" t="n">
-        <v>86.84</v>
+        <v>90.77</v>
       </c>
       <c r="E77" t="n">
-        <v>86.84</v>
+        <v>90.77</v>
       </c>
       <c r="F77" t="n">
-        <v>15.2072</v>
+        <v>250.2379</v>
       </c>
       <c r="G77" t="n">
-        <v>-148771.1051444792</v>
+        <v>163212.4202150552</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>87.05</v>
+        <v>90.91</v>
       </c>
       <c r="C78" t="n">
-        <v>87.05</v>
+        <v>90.91</v>
       </c>
       <c r="D78" t="n">
-        <v>87.05</v>
+        <v>90.91</v>
       </c>
       <c r="E78" t="n">
-        <v>87.05</v>
+        <v>90.91</v>
       </c>
       <c r="F78" t="n">
-        <v>63.1821</v>
+        <v>7680.7692</v>
       </c>
       <c r="G78" t="n">
-        <v>-148707.9230444792</v>
+        <v>170893.1894150552</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>86.84</v>
+        <v>90.97</v>
       </c>
       <c r="C79" t="n">
-        <v>86.84</v>
+        <v>90.97</v>
       </c>
       <c r="D79" t="n">
-        <v>86.84</v>
+        <v>90.97</v>
       </c>
       <c r="E79" t="n">
-        <v>86.84</v>
+        <v>90.97</v>
       </c>
       <c r="F79" t="n">
-        <v>4081.7924</v>
+        <v>4514.9454</v>
       </c>
       <c r="G79" t="n">
-        <v>-152789.7154444792</v>
+        <v>175408.1348150552</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>86.84</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>87.05</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>87.05</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>86.81999999999999</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>832.3414</v>
+        <v>1359.6813</v>
       </c>
       <c r="G80" t="n">
-        <v>-151957.3740444792</v>
+        <v>176767.8161150552</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>86.90000000000001</v>
+        <v>90.53</v>
       </c>
       <c r="C81" t="n">
-        <v>87.48</v>
+        <v>90.53</v>
       </c>
       <c r="D81" t="n">
-        <v>87.48</v>
+        <v>90.53</v>
       </c>
       <c r="E81" t="n">
-        <v>86.8</v>
+        <v>90.53</v>
       </c>
       <c r="F81" t="n">
-        <v>11269.5005</v>
+        <v>13383.615</v>
       </c>
       <c r="G81" t="n">
-        <v>-140687.8735444792</v>
+        <v>163384.2011150552</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87.25</v>
+        <v>90.53</v>
       </c>
       <c r="C82" t="n">
-        <v>87.25</v>
+        <v>90.53</v>
       </c>
       <c r="D82" t="n">
-        <v>87.25</v>
+        <v>90.53</v>
       </c>
       <c r="E82" t="n">
-        <v>87.25</v>
+        <v>90.53</v>
       </c>
       <c r="F82" t="n">
-        <v>360</v>
+        <v>1130.3391</v>
       </c>
       <c r="G82" t="n">
-        <v>-141047.8735444792</v>
+        <v>163384.2011150552</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>87.37</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>86.61</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>87.37</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>86.61</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>39294.897</v>
+        <v>1700</v>
       </c>
       <c r="G83" t="n">
-        <v>-180342.7705444792</v>
+        <v>165084.2011150552</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>87.3</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>87.3</v>
+        <v>90.42</v>
       </c>
       <c r="D84" t="n">
-        <v>87.3</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>87.3</v>
+        <v>90.42</v>
       </c>
       <c r="F84" t="n">
-        <v>364.4947</v>
+        <v>1387.1503</v>
       </c>
       <c r="G84" t="n">
-        <v>-179978.2758444792</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>87.19</v>
+        <v>90.5</v>
       </c>
       <c r="C85" t="n">
-        <v>87.01000000000001</v>
+        <v>90.42</v>
       </c>
       <c r="D85" t="n">
-        <v>87.56</v>
+        <v>90.5</v>
       </c>
       <c r="E85" t="n">
-        <v>87.01000000000001</v>
+        <v>90.42</v>
       </c>
       <c r="F85" t="n">
-        <v>23345.71608040201</v>
+        <v>5095.6806</v>
       </c>
       <c r="G85" t="n">
-        <v>-203323.9919248812</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87.09999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="C86" t="n">
-        <v>87.09999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="D86" t="n">
-        <v>87.09999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="E86" t="n">
-        <v>87.09999999999999</v>
+        <v>90.42</v>
       </c>
       <c r="F86" t="n">
-        <v>7126.9999</v>
+        <v>599.6552</v>
       </c>
       <c r="G86" t="n">
-        <v>-196196.9920248812</v>
+        <v>163697.0508150552</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>87.2</v>
+        <v>90.13</v>
       </c>
       <c r="C87" t="n">
-        <v>87.2</v>
+        <v>89.34</v>
       </c>
       <c r="D87" t="n">
-        <v>87.2</v>
+        <v>90.13</v>
       </c>
       <c r="E87" t="n">
-        <v>87.2</v>
+        <v>89.34</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>63799.3349</v>
       </c>
       <c r="G87" t="n">
-        <v>-196096.9920248812</v>
+        <v>99897.7159150552</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>87.69</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>87.79000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="D88" t="n">
-        <v>87.79000000000001</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>87.69</v>
+        <v>89.33</v>
       </c>
       <c r="F88" t="n">
-        <v>1139.491969472605</v>
+        <v>29371.005</v>
       </c>
       <c r="G88" t="n">
-        <v>-194957.5000554086</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>87.72</v>
+        <v>89.33</v>
       </c>
       <c r="C89" t="n">
-        <v>87.72</v>
+        <v>89.33</v>
       </c>
       <c r="D89" t="n">
-        <v>87.72</v>
+        <v>89.33</v>
       </c>
       <c r="E89" t="n">
-        <v>87.72</v>
+        <v>89.33</v>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>1672.164</v>
       </c>
       <c r="G89" t="n">
-        <v>-199957.5000554086</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>87.2</v>
+        <v>89.33</v>
       </c>
       <c r="C90" t="n">
-        <v>87.2</v>
+        <v>89.33</v>
       </c>
       <c r="D90" t="n">
-        <v>87.2</v>
+        <v>89.33</v>
       </c>
       <c r="E90" t="n">
-        <v>87.2</v>
+        <v>89.33</v>
       </c>
       <c r="F90" t="n">
-        <v>190.1165</v>
+        <v>14003.926</v>
       </c>
       <c r="G90" t="n">
-        <v>-200147.6165554086</v>
+        <v>70526.7109150552</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>87.2</v>
+        <v>89.33</v>
       </c>
       <c r="C91" t="n">
-        <v>87.77</v>
+        <v>89.25</v>
       </c>
       <c r="D91" t="n">
-        <v>87.77</v>
+        <v>89.33</v>
       </c>
       <c r="E91" t="n">
-        <v>87.2</v>
+        <v>89.25</v>
       </c>
       <c r="F91" t="n">
-        <v>10000</v>
+        <v>5375.2604</v>
       </c>
       <c r="G91" t="n">
-        <v>-190147.6165554086</v>
+        <v>65151.4505150552</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>87.78</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>87.78</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>87.78</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>87.78</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>19200</v>
+        <v>63871.4122</v>
       </c>
       <c r="G92" t="n">
-        <v>-170947.6165554086</v>
+        <v>1280.038315055201</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>87.78</v>
+        <v>89.58</v>
       </c>
       <c r="C93" t="n">
-        <v>87.78</v>
+        <v>89.58</v>
       </c>
       <c r="D93" t="n">
-        <v>87.78</v>
+        <v>89.58</v>
       </c>
       <c r="E93" t="n">
-        <v>87.78</v>
+        <v>89.58</v>
       </c>
       <c r="F93" t="n">
-        <v>3136.8061</v>
+        <v>610</v>
       </c>
       <c r="G93" t="n">
-        <v>-170947.6165554086</v>
+        <v>1890.038315055201</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>87.78</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>87.78</v>
+        <v>90</v>
       </c>
       <c r="D94" t="n">
-        <v>87.78</v>
+        <v>90</v>
       </c>
       <c r="E94" t="n">
-        <v>87.78</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>702.1493</v>
+        <v>7204.5607</v>
       </c>
       <c r="G94" t="n">
-        <v>-170947.6165554086</v>
+        <v>9094.599015055201</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>87.78</v>
+        <v>90.13</v>
       </c>
       <c r="C95" t="n">
-        <v>87.78</v>
+        <v>90.13</v>
       </c>
       <c r="D95" t="n">
-        <v>87.78</v>
+        <v>90.13</v>
       </c>
       <c r="E95" t="n">
-        <v>87.78</v>
+        <v>90.13</v>
       </c>
       <c r="F95" t="n">
-        <v>613.7361</v>
+        <v>1157.6734</v>
       </c>
       <c r="G95" t="n">
-        <v>-170947.6165554086</v>
+        <v>10252.2724150552</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>87.81999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="C96" t="n">
-        <v>87.81999999999999</v>
+        <v>89.45</v>
       </c>
       <c r="D96" t="n">
-        <v>87.81999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="E96" t="n">
-        <v>87.81999999999999</v>
+        <v>89.45</v>
       </c>
       <c r="F96" t="n">
-        <v>11.387</v>
+        <v>1002.2344</v>
       </c>
       <c r="G96" t="n">
-        <v>-170936.2295554086</v>
+        <v>9250.038015055201</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>88.52</v>
+        <v>89.41</v>
       </c>
       <c r="C97" t="n">
-        <v>88.52</v>
+        <v>89.41</v>
       </c>
       <c r="D97" t="n">
-        <v>88.52</v>
+        <v>89.41</v>
       </c>
       <c r="E97" t="n">
-        <v>88.52</v>
+        <v>89.41</v>
       </c>
       <c r="F97" t="n">
-        <v>361.0662</v>
+        <v>20000</v>
       </c>
       <c r="G97" t="n">
-        <v>-170575.1633554086</v>
+        <v>-10749.9619849448</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>88.52</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>88.52</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>88.52</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>88.52</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>3221.8665</v>
+        <v>1096.1235</v>
       </c>
       <c r="G98" t="n">
-        <v>-170575.1633554086</v>
+        <v>-11846.0854849448</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>88.47</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>88.52</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>88.52</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>88.47</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>7495.5853</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>-170575.1633554086</v>
+        <v>-13846.0854849448</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>88.89</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>88.89</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>88.89</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>88.89</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>517.4899</v>
+        <v>49924.8146</v>
       </c>
       <c r="G100" t="n">
-        <v>-170057.6734554087</v>
+        <v>-63770.9000849448</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>88.72</v>
+        <v>89.2</v>
       </c>
       <c r="C101" t="n">
-        <v>88.8</v>
+        <v>89.2</v>
       </c>
       <c r="D101" t="n">
-        <v>88.8</v>
+        <v>89.2</v>
       </c>
       <c r="E101" t="n">
-        <v>88.72</v>
+        <v>89.2</v>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>19.2853</v>
       </c>
       <c r="G101" t="n">
-        <v>-220057.6734554087</v>
+        <v>-63751.6147849448</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>88.3</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>88.3</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>88.3</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>88.3</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>181.3861</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="n">
-        <v>-220239.0595554087</v>
+        <v>-64951.6147849448</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>430.7298</v>
+        <v>1287.7782</v>
       </c>
       <c r="G103" t="n">
-        <v>-220239.0595554087</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>88.40000000000001</v>
+        <v>89.13</v>
       </c>
       <c r="C104" t="n">
-        <v>88.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>88.40000000000001</v>
+        <v>89.13</v>
       </c>
       <c r="E104" t="n">
-        <v>88.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>1096.5625</v>
+        <v>47952.8068</v>
       </c>
       <c r="G104" t="n">
-        <v>-219142.4970554087</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>88.7</v>
+        <v>89.22</v>
       </c>
       <c r="C105" t="n">
-        <v>88.88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>88.88</v>
+        <v>89.22</v>
       </c>
       <c r="E105" t="n">
-        <v>88.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>5097.6894</v>
+        <v>7708.4373</v>
       </c>
       <c r="G105" t="n">
-        <v>-214044.8076554087</v>
+        <v>-66239.39298494479</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>88.63</v>
+        <v>88.8</v>
       </c>
       <c r="C106" t="n">
-        <v>88.53</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>88.63</v>
+        <v>88.8</v>
       </c>
       <c r="E106" t="n">
-        <v>88.53</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>20000</v>
+        <v>7201.3049</v>
       </c>
       <c r="G106" t="n">
-        <v>-234044.8076554087</v>
+        <v>-73440.69788494479</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>88.59999999999999</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>88.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="D107" t="n">
-        <v>88.59999999999999</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>88.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="F107" t="n">
-        <v>183.0904</v>
+        <v>16000</v>
       </c>
       <c r="G107" t="n">
-        <v>-233861.7172554087</v>
+        <v>-89440.69788494479</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>88.59999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="C108" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="D108" t="n">
-        <v>88.59999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="E108" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F108" t="n">
-        <v>44008.9339</v>
+        <v>4363.154</v>
       </c>
       <c r="G108" t="n">
-        <v>-277870.6511554087</v>
+        <v>-85077.5438849448</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>88.8</v>
+        <v>88.86</v>
       </c>
       <c r="C109" t="n">
-        <v>88.84999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="D109" t="n">
-        <v>88.84999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="E109" t="n">
-        <v>88.8</v>
+        <v>88.86</v>
       </c>
       <c r="F109" t="n">
-        <v>24751.0391</v>
+        <v>13019.3752</v>
       </c>
       <c r="G109" t="n">
-        <v>-253119.6120554087</v>
+        <v>-72058.1686849448</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>88.84999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="C110" t="n">
-        <v>88.98999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="D110" t="n">
-        <v>88.98999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="E110" t="n">
-        <v>88.84999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>1000.2808</v>
       </c>
       <c r="G110" t="n">
-        <v>-248119.6120554087</v>
+        <v>-73058.44948494479</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>88.66</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>88.66</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>88.66</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>88.66</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>3629.1709</v>
       </c>
       <c r="G111" t="n">
-        <v>-249119.6120554087</v>
+        <v>-69429.2785849448</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>88.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>88.98999999999999</v>
+        <v>88</v>
       </c>
       <c r="D112" t="n">
-        <v>88.98999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>88.98999999999999</v>
+        <v>88</v>
       </c>
       <c r="F112" t="n">
-        <v>88.1558</v>
+        <v>18980</v>
       </c>
       <c r="G112" t="n">
-        <v>-249031.4562554087</v>
+        <v>-88409.2785849448</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>89.47</v>
+        <v>88</v>
       </c>
       <c r="C113" t="n">
-        <v>89.47</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>89.47</v>
+        <v>88</v>
       </c>
       <c r="E113" t="n">
-        <v>89.47</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>13148.8821</v>
+        <v>4158.0137</v>
       </c>
       <c r="G113" t="n">
-        <v>-235882.5741554087</v>
+        <v>-92567.29228494479</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>89.47</v>
+        <v>87.8</v>
       </c>
       <c r="C114" t="n">
-        <v>89.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>89.47</v>
+        <v>87.8</v>
       </c>
       <c r="E114" t="n">
-        <v>89.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>11.2222</v>
+        <v>54990.4928</v>
       </c>
       <c r="G114" t="n">
-        <v>-235893.7963554087</v>
+        <v>-147557.7850849448</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>89.2</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>89.09999999999999</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>89.2</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>89.09999999999999</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>2358.6684</v>
+        <v>550.096601886578</v>
       </c>
       <c r="G115" t="n">
-        <v>-238252.4647554087</v>
+        <v>-147007.6884830582</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>89.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="C116" t="n">
-        <v>89.09999999999999</v>
+        <v>88.39</v>
       </c>
       <c r="D116" t="n">
-        <v>89.09999999999999</v>
+        <v>88.39</v>
       </c>
       <c r="E116" t="n">
-        <v>89.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="F116" t="n">
-        <v>24.2135</v>
+        <v>11313.68243857902</v>
       </c>
       <c r="G116" t="n">
-        <v>-238252.4647554087</v>
+        <v>-135694.0060444792</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>89.09999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="C117" t="n">
-        <v>89.09999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="D117" t="n">
-        <v>89.09999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="E117" t="n">
-        <v>89.09999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="F117" t="n">
-        <v>150.7571</v>
+        <v>19998.7111</v>
       </c>
       <c r="G117" t="n">
-        <v>-238252.4647554087</v>
+        <v>-115695.2949444792</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>88.5</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>88.5</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>88.5</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>88.5</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>183.7327</v>
+        <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>-238436.1974554087</v>
+        <v>-115689.2949444792</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>88.5</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>88.5</v>
+        <v>88.61</v>
       </c>
       <c r="D119" t="n">
-        <v>88.5</v>
+        <v>88.61</v>
       </c>
       <c r="E119" t="n">
-        <v>88.5</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>350.105</v>
+        <v>31</v>
       </c>
       <c r="G119" t="n">
-        <v>-238436.1974554087</v>
+        <v>-115658.2949444792</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>88.5</v>
+        <v>88.73</v>
       </c>
       <c r="C120" t="n">
-        <v>88.5</v>
+        <v>88.73</v>
       </c>
       <c r="D120" t="n">
-        <v>88.5</v>
+        <v>88.73</v>
       </c>
       <c r="E120" t="n">
-        <v>88.5</v>
+        <v>88.73</v>
       </c>
       <c r="F120" t="n">
-        <v>1341.8787</v>
+        <v>534.723</v>
       </c>
       <c r="G120" t="n">
-        <v>-238436.1974554087</v>
+        <v>-115123.5719444792</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>1059.3372</v>
+        <v>22.37</v>
       </c>
       <c r="G121" t="n">
-        <v>-238436.1974554087</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>4809.3025</v>
+        <v>2300</v>
       </c>
       <c r="G122" t="n">
-        <v>-238436.1974554087</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>2341.2025</v>
+        <v>10000</v>
       </c>
       <c r="G123" t="n">
-        <v>-238436.1974554087</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>2158.6017</v>
+        <v>750</v>
       </c>
       <c r="G124" t="n">
-        <v>-238436.1974554087</v>
+        <v>-115145.9419444792</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="C125" t="n">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="D125" t="n">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="E125" t="n">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="F125" t="n">
-        <v>35291.755</v>
+        <v>2645.3924</v>
       </c>
       <c r="G125" t="n">
-        <v>-238436.1974554087</v>
+        <v>-112500.5495444792</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="C126" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>88.5</v>
+        <v>88.3</v>
       </c>
       <c r="E126" t="n">
-        <v>88.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>3907.2803</v>
+        <v>5350</v>
       </c>
       <c r="G126" t="n">
-        <v>-238436.1974554087</v>
+        <v>-117850.5495444792</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="C127" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="D127" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="E127" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="F127" t="n">
-        <v>965.1528</v>
+        <v>1136.4656</v>
       </c>
       <c r="G127" t="n">
-        <v>-238436.1974554087</v>
+        <v>-116714.0839444792</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>88.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>88.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>11955.5673</v>
+        <v>5690.7751</v>
       </c>
       <c r="G128" t="n">
-        <v>-238436.1974554087</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,35 +5010,31 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>2049.6148</v>
+        <v>1149.8564</v>
       </c>
       <c r="G129" t="n">
-        <v>-238436.1974554087</v>
+        <v>-111023.3088444792</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K129" t="n">
-        <v>88.5</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -5050,896 +5046,3432 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3159.3685</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-111023.3088444792</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>88</v>
+      </c>
+      <c r="D131" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>88</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7056.2642</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-118079.5730444792</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>88</v>
+      </c>
+      <c r="C132" t="n">
+        <v>87.84999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>88</v>
+      </c>
+      <c r="E132" t="n">
+        <v>87.84999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19385.5645</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-137465.1375444792</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11820</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-149285.1375444792</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>23000.0001</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-172285.1376444792</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4545.7495</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-167739.3881444792</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>550.0966</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-168289.4847444792</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>87.44</v>
+      </c>
+      <c r="C137" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="D137" t="n">
+        <v>87.44</v>
+      </c>
+      <c r="E137" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-174289.4847444792</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="C138" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="D138" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="E138" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3846.836</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-174289.4847444792</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>87.43000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>87.43000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>87.43000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>87.43000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22900</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-151389.4847444792</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>74739.7678</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-76649.71694447921</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="C141" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="D141" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="E141" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3242.1654</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-79891.88234447921</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="C142" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="D142" t="n">
+        <v>87.42</v>
+      </c>
+      <c r="E142" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11140</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-91031.88234447921</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="C143" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="D143" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="E143" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1082.6088</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-91031.88234447921</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>150</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-91181.88234447921</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4150</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-95331.88234447921</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="C146" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="E146" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>13074.4027</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-108406.2850444792</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>86.98</v>
+      </c>
+      <c r="C147" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>86.98</v>
+      </c>
+      <c r="E147" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>40349.6129</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-148755.8979444792</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="C148" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="D148" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="E148" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15.2072</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-148771.1051444792</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="C149" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="F149" t="n">
+        <v>63.1821</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-148707.9230444792</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="C150" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="D150" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="E150" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4081.7924</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-152789.7154444792</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="C151" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="F151" t="n">
+        <v>832.3414</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-151957.3740444792</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="D152" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="E152" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11269.5005</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-140687.8735444792</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="C153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="D153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="F153" t="n">
+        <v>360</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-141047.8735444792</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>87.37</v>
+      </c>
+      <c r="C154" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="D154" t="n">
+        <v>87.37</v>
+      </c>
+      <c r="E154" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="F154" t="n">
+        <v>39294.897</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-180342.7705444792</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>364.4947</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-179978.2758444792</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="C156" t="n">
+        <v>87.01000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>87.56</v>
+      </c>
+      <c r="E156" t="n">
+        <v>87.01000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>23345.71608040201</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-203323.9919248812</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7126.9999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-196196.9920248812</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-196096.9920248812</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="C159" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="D159" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1139.491969472605</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-194957.5000554086</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>87.72</v>
+      </c>
+      <c r="C160" t="n">
+        <v>87.72</v>
+      </c>
+      <c r="D160" t="n">
+        <v>87.72</v>
+      </c>
+      <c r="E160" t="n">
+        <v>87.72</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-199957.5000554086</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>190.1165</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-200147.6165554086</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>87.77</v>
+      </c>
+      <c r="D162" t="n">
+        <v>87.77</v>
+      </c>
+      <c r="E162" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-190147.6165554086</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="C163" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="D163" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="E163" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-170947.6165554086</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="C164" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="D164" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="E164" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3136.8061</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-170947.6165554086</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="C165" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="D165" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="E165" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="F165" t="n">
+        <v>702.1493</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-170947.6165554086</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="C166" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="D166" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="E166" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="F166" t="n">
+        <v>613.7361</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-170947.6165554086</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11.387</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-170936.2295554086</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="C168" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="D168" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="E168" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="F168" t="n">
+        <v>361.0662</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-170575.1633554086</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="C169" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="D169" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="E169" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3221.8665</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-170575.1633554086</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>88.47</v>
+      </c>
+      <c r="C170" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="D170" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="E170" t="n">
+        <v>88.47</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7495.5853</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-170575.1633554086</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="C171" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="D171" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="E171" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F171" t="n">
+        <v>517.4899</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-170057.6734554087</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>88.72</v>
+      </c>
+      <c r="C172" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>88.72</v>
+      </c>
+      <c r="F172" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-220057.6734554087</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>181.3861</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-220239.0595554087</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E174" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>430.7298</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-220239.0595554087</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1096.5625</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-219142.4970554087</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D176" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E176" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5097.6894</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-214044.8076554087</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>88.63</v>
+      </c>
+      <c r="C177" t="n">
+        <v>88.53</v>
+      </c>
+      <c r="D177" t="n">
+        <v>88.63</v>
+      </c>
+      <c r="E177" t="n">
+        <v>88.53</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-234044.8076554087</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="D178" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="F178" t="n">
+        <v>183.0904</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-233861.7172554087</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D179" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F179" t="n">
+        <v>44008.9339</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-277870.6511554087</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="D180" t="n">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>24751.0391</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-253119.6120554087</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="E181" t="n">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-248119.6120554087</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>88.66</v>
+      </c>
+      <c r="C182" t="n">
+        <v>88.66</v>
+      </c>
+      <c r="D182" t="n">
+        <v>88.66</v>
+      </c>
+      <c r="E182" t="n">
+        <v>88.66</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-249119.6120554087</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="D183" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="E183" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="F183" t="n">
+        <v>88.1558</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-249031.4562554087</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="C184" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="D184" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="E184" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13148.8821</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-235882.5741554087</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="C185" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="E185" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>11.2222</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-235893.7963554087</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2358.6684</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-238252.4647554087</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24.2135</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-238252.4647554087</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>150.7571</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-238252.4647554087</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
         <v>88.5</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C189" t="n">
         <v>88.5</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D189" t="n">
         <v>88.5</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E189" t="n">
         <v>88.5</v>
       </c>
-      <c r="F130" t="n">
-        <v>5223.567</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="F189" t="n">
+        <v>183.7327</v>
+      </c>
+      <c r="G189" t="n">
         <v>-238436.1974554087</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
         <v>88.5</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="C190" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>350.105</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1341.8787</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1059.3372</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4809.3025</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2341.2025</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2158.6017</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>35291.755</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C131" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D131" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E131" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F131" t="n">
-        <v>197.3011</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-238633.4985554087</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
         <v>88.5</v>
       </c>
-      <c r="K131" t="n">
+      <c r="C197" t="n">
         <v>88.5</v>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="D197" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3907.2803</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K197" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="C132" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="D132" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="E132" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="F132" t="n">
-        <v>83.6032</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-238549.8953554087</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K132" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C133" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D133" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F133" t="n">
-        <v>22811.0595</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-261360.9548554087</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>7472.6434</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-261360.9548554087</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="C135" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="D135" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="E135" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="F135" t="n">
-        <v>42429.3618</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-303790.3166554087</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="C136" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="D136" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="E136" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1265</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-302525.3166554087</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="K136" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="C137" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D137" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E137" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="F137" t="n">
-        <v>11864.4928</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-314389.8094554087</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="K137" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="C138" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="D138" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="E138" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="F138" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-299389.8094554087</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K138" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="C139" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="D139" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="E139" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="F139" t="n">
-        <v>6.7576</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-299383.0518554087</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="K139" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="D140" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="E140" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>853.5921</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-300236.6439554087</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>88.79000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="C141" t="n">
-        <v>89</v>
-      </c>
-      <c r="D141" t="n">
-        <v>89</v>
-      </c>
-      <c r="E141" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3991.0119</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-296245.6320554087</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="K141" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C142" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D142" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E142" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C143" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D143" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E143" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4684</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="K143" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C144" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D144" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E144" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3959</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="K144" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C145" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D145" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E145" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1171.7991</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="K145" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C146" t="n">
-        <v>89</v>
-      </c>
-      <c r="D146" t="n">
-        <v>89</v>
-      </c>
-      <c r="E146" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F146" t="n">
-        <v>7127.3624</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-290118.2696554087</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="K146" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>965.1528</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>11955.5673</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C147" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D147" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E147" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1133</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-291251.2696554087</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>89</v>
-      </c>
-      <c r="K147" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2049.6148</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C148" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="D148" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E148" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="F148" t="n">
-        <v>33185</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-291251.2696554087</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="K148" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5223.567</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-238436.1974554087</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="C149" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="E149" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2081.9344</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-293333.2040554088</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="K149" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C202" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D202" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E202" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F202" t="n">
+        <v>197.3011</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-238633.4985554087</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>88.05</v>
-      </c>
-      <c r="C150" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="D150" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="E150" t="n">
-        <v>88.02</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1260.9512</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-294594.1552554088</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="K150" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="C203" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="D203" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="E203" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="F203" t="n">
+        <v>83.6032</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-238549.8953554087</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D204" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E204" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F204" t="n">
+        <v>22811.0595</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-261360.9548554087</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D205" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E205" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F205" t="n">
+        <v>7472.6434</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-261360.9548554087</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="C206" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="D206" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="E206" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="F206" t="n">
+        <v>42429.3618</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-303790.3166554087</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="C207" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="D207" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="E207" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1265</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-302525.3166554087</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F208" t="n">
+        <v>11864.4928</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-314389.8094554087</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="C209" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="D209" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="E209" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="F209" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-299389.8094554087</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="C210" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="D210" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="E210" t="n">
+        <v>88.79000000000001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>6.7576</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-299383.0518554087</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="C211" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="D211" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="E211" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="F211" t="n">
+        <v>853.5921</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-300236.6439554087</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="C212" t="n">
+        <v>89</v>
+      </c>
+      <c r="D212" t="n">
+        <v>89</v>
+      </c>
+      <c r="E212" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3991.0119</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-296245.6320554087</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C213" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D213" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E213" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C214" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D214" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E214" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F214" t="n">
+        <v>4684</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C215" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D215" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E215" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3959</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C216" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D216" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E216" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1171.7991</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-297245.6320554087</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C217" t="n">
+        <v>89</v>
+      </c>
+      <c r="D217" t="n">
+        <v>89</v>
+      </c>
+      <c r="E217" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7127.3624</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-290118.2696554087</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C218" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D218" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E218" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1133</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-291251.2696554087</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C219" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="D219" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E219" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="F219" t="n">
+        <v>33185</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-291251.2696554087</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="C220" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="E220" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2081.9344</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-293333.2040554088</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>88.05</v>
+      </c>
+      <c r="C221" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="D221" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="E221" t="n">
+        <v>88.02</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1260.9512</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-294594.1552554088</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N221"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>90758.75761505519</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>94112.32771505519</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>51382.32771505519</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>91727.51491505522</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>153682.5156150552</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>129792.1424150552</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>129792.1424150552</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>128792.1424150552</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>128799.8441150552</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,19 @@
         <v>-148707.9230444792</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J149" t="n">
+        <v>86.84</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5341,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5378,23 @@
         <v>-151957.3740444792</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J151" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +5419,23 @@
         <v>-140687.8735444792</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>87.05</v>
+      </c>
+      <c r="J152" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5460,23 @@
         <v>-141047.8735444792</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>87.48</v>
+      </c>
+      <c r="J153" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5503,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5542,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5581,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5620,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5659,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5698,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5737,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5776,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5815,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5854,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5893,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5932,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5971,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6010,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6049,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6088,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6127,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6166,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6205,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6244,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6283,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6322,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6361,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6400,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6439,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6478,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6517,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6556,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6595,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6634,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6673,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6712,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6751,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6790,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6829,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6868,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6907,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6946,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6985,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +7024,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +7063,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,22 +7100,23 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="J195" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K195" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7444,26 +7141,23 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="J196" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K196" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7488,26 +7182,23 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="J197" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K197" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7532,18 +7223,23 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>88.5</v>
+      </c>
+      <c r="J198" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7568,24 +7264,21 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7610,24 +7303,21 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7654,20 +7344,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7692,24 +7381,21 @@
         <v>-238633.4985554087</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7734,24 +7420,21 @@
         <v>-238549.8953554087</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7778,20 +7461,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7818,20 +7500,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7858,20 +7539,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7898,20 +7578,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7938,20 +7617,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7978,20 +7656,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8018,20 +7695,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8058,20 +7734,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8098,20 +7773,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8138,20 +7812,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8178,20 +7851,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8218,20 +7890,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8258,20 +7929,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8298,20 +7968,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8338,20 +8007,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8378,20 +8046,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8418,20 +8085,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8458,22 +8124,21 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>90758.75761505519</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>94112.32771505519</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>51382.32771505519</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>77006.57571505519</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>66222.33551505521</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>66115.49551505521</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>67106.73011505521</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>42274.75931505521</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>53878.00181505521</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>53878.00181505521</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>44213.90611505522</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>75642.85621505522</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>75455.39651505521</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>75865.39651505521</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>62110.69791505521</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>77221.39681505522</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>77591.10351505522</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>91727.51491505522</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>153682.5156150552</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>129792.1424150552</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>129792.1424150552</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>128792.1424150552</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>128799.8441150552</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>128349.7450150552</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>126717.8422150552</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>126723.8422150552</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>161236.3011150552</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>160411.7259150552</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>154815.0833150552</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>154815.0833150552</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>144670.8419150552</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>144670.8419150552</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>163321.9979150552</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>163462.6581150552</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>163212.4202150552</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>170893.1894150552</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>175408.1348150552</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>176767.8161150552</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>165084.2011150552</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>9094.599015055201</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>9250.038015055201</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10749.9619849448</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-11846.0854849448</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-13846.0854849448</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-63770.9000849448</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-63751.6147849448</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-64951.6147849448</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -5302,14 +5302,10 @@
         <v>-148707.9230444792</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="J149" t="n">
-        <v>86.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5342,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5378,140 +5368,116 @@
         <v>-151957.3740444792</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="J151" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="D152" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="E152" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11269.5005</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-140687.8735444792</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="C153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="D153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="F153" t="n">
+        <v>360</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-141047.8735444792</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>87.37</v>
+      </c>
+      <c r="C154" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="D154" t="n">
+        <v>87.37</v>
+      </c>
+      <c r="E154" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="F154" t="n">
+        <v>39294.897</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-180342.7705444792</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="C152" t="n">
-        <v>87.48</v>
-      </c>
-      <c r="D152" t="n">
-        <v>87.48</v>
-      </c>
-      <c r="E152" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>11269.5005</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-140687.8735444792</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="J152" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>87.25</v>
-      </c>
-      <c r="C153" t="n">
-        <v>87.25</v>
-      </c>
-      <c r="D153" t="n">
-        <v>87.25</v>
-      </c>
-      <c r="E153" t="n">
-        <v>87.25</v>
-      </c>
-      <c r="F153" t="n">
-        <v>360</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-141047.8735444792</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>87.48</v>
-      </c>
-      <c r="J153" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>87.37</v>
-      </c>
-      <c r="C154" t="n">
-        <v>86.61</v>
-      </c>
-      <c r="D154" t="n">
-        <v>87.37</v>
-      </c>
-      <c r="E154" t="n">
-        <v>86.61</v>
-      </c>
-      <c r="F154" t="n">
-        <v>39294.897</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-180342.7705444792</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5543,9 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,12 +5543,12 @@
         <v>-203323.9919248812</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5621,9 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5657,12 +5619,12 @@
         <v>-196096.9920248812</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,12 +5658,12 @@
         <v>-194957.5000554086</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,12 +5697,12 @@
         <v>-199957.5000554086</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5774,12 +5736,12 @@
         <v>-200147.6165554086</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>87.72</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,12 +5775,12 @@
         <v>-190147.6165554086</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,12 +5814,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>87.77</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5891,12 +5853,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,12 +5892,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5969,12 +5931,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,9 +5973,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6047,12 +6007,12 @@
         <v>-170575.1633554086</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,12 +6046,12 @@
         <v>-170575.1633554086</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6128,9 +6088,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,9 +6125,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,9 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,9 +6199,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6284,9 +6236,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,9 +6273,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,9 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6401,9 +6347,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,9 +6384,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6479,9 +6421,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,9 +6458,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,9 +6495,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,9 +6532,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,9 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,9 +6606,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,9 +6643,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,9 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6791,9 +6717,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6830,9 +6754,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,9 +6791,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,9 +6828,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,9 +6865,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,9 +6902,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7025,9 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,14 +7010,10 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J195" t="n">
-        <v>86.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,14 +7047,10 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>86.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7182,14 +7084,10 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J197" t="n">
-        <v>86.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,14 +7121,10 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J198" t="n">
-        <v>86.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7267,9 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7306,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7342,12 +7232,12 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7384,9 +7274,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7420,12 +7308,12 @@
         <v>-238549.8953554087</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7462,9 +7350,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7501,9 +7387,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7540,9 +7424,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7576,12 +7458,12 @@
         <v>-302525.3166554087</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7618,9 +7500,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,12 +7534,12 @@
         <v>-299389.8094554087</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7696,9 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7735,9 +7613,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7774,9 +7650,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7813,9 +7687,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7852,9 +7724,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7891,9 +7761,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7930,9 +7798,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7966,12 +7832,12 @@
         <v>-290118.2696554087</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,9 +7874,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8044,12 +7908,12 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>86.84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8086,9 +7950,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,9 +7987,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>86.84</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,6 +7999,6 @@
       <c r="M221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>90758.75761505519</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>94112.32771505519</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>51382.32771505519</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>77006.57571505519</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>66222.33551505521</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>66115.49551505521</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>53878.00181505521</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>53878.00181505521</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>44213.90611505522</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>75865.39651505521</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>77221.39681505522</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>77591.10351505522</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>128799.8441150552</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>128349.7450150552</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>126717.8422150552</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>126723.8422150552</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>161236.3011150552</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>160411.7259150552</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>154815.0833150552</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>154815.0833150552</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>144670.8419150552</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>144670.8419150552</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>163321.9979150552</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>163462.6581150552</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>163212.4202150552</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>175408.1348150552</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>176767.8161150552</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>163697.0508150552</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>163697.0508150552</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>9094.599015055201</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>9250.038015055201</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10749.9619849448</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-11846.0854849448</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-13846.0854849448</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-63770.9000849448</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-63751.6147849448</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-64951.6147849448</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -5335,10 +5335,14 @@
         <v>-152789.7154444792</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="J150" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5368,11 +5372,19 @@
         <v>-151957.3740444792</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J151" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5416,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5452,19 @@
         <v>-141047.8735444792</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="J153" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,15 +5493,15 @@
         <v>-180342.7705444792</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>87.25</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5509,7 +5535,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,12 +5571,12 @@
         <v>-203323.9919248812</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,10 +5610,14 @@
         <v>-196196.9920248812</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>87.01000000000001</v>
+      </c>
+      <c r="J157" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,7 +5656,9 @@
       <c r="I158" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5663,7 +5697,9 @@
       <c r="I159" t="n">
         <v>87.2</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,12 +5733,12 @@
         <v>-199957.5000554086</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>87.79000000000001</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,12 +5772,12 @@
         <v>-200147.6165554086</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>87.72</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5780,7 +5816,9 @@
       <c r="I162" t="n">
         <v>87.2</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,12 +5852,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>87.77</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,12 +5891,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>87.78</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,12 +5930,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>87.78</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,12 +5969,12 @@
         <v>-170947.6165554086</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>87.78</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5973,7 +6011,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,12 +6047,12 @@
         <v>-170575.1633554086</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>87.81999999999999</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,12 +6086,12 @@
         <v>-170575.1633554086</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>88.52</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,7 +6128,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,7 +6167,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,7 +6206,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6199,7 +6245,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6236,7 +6284,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6273,7 +6323,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6310,7 +6362,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,7 +6401,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,7 +6440,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6421,7 +6479,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6455,17 +6515,19 @@
         <v>-253119.6120554087</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>87.05</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>1.01567777139575</v>
       </c>
       <c r="M180" t="inlineStr"/>
     </row>
@@ -6496,11 +6558,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +6591,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6570,11 +6624,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6603,15 +6653,11 @@
         <v>-235882.5741554087</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6640,15 +6686,11 @@
         <v>-235893.7963554087</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6677,15 +6719,11 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6714,15 +6752,11 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6751,15 +6785,11 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6788,15 +6818,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6825,15 +6851,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6862,15 +6884,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6899,15 +6917,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6936,15 +6950,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6973,15 +6983,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7010,15 +7016,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7047,15 +7049,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7084,15 +7082,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7121,15 +7115,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7158,15 +7148,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7195,15 +7181,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7232,17 +7214,11 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>88.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7271,15 +7247,11 @@
         <v>-238633.4985554087</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7308,17 +7280,11 @@
         <v>-238549.8953554087</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>88.40000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7347,15 +7313,11 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7384,15 +7346,11 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7421,15 +7379,11 @@
         <v>-303790.3166554087</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7458,17 +7412,11 @@
         <v>-302525.3166554087</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>88.11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7497,15 +7445,11 @@
         <v>-314389.8094554087</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7539,12 +7483,10 @@
       <c r="I209" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7573,13 +7515,17 @@
         <v>-299383.0518554087</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="J210" t="n">
+        <v>88.09999999999999</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -7610,13 +7556,15 @@
         <v>-300236.6439554087</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>88.09999999999999</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -7647,15 +7595,11 @@
         <v>-296245.6320554087</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +7632,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7721,15 +7661,11 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7758,15 +7694,11 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7795,15 +7727,11 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7832,17 +7760,11 @@
         <v>-290118.2696554087</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>88.88</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7871,15 +7793,11 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7908,17 +7826,11 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>88.88</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7951,11 +7863,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7984,13 +7892,15 @@
         <v>-294594.1552554088</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>88.2</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7999,6 +7909,6 @@
       <c r="M221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -484,7 +484,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>90758.75761505519</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>94112.32771505519</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>51382.32771505519</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>77006.57571505519</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>66222.33551505521</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>67106.73011505521</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>75642.85621505522</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>75455.39651505521</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>62110.69791505521</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>149579.2384150552</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>128792.1424150552</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>128349.7450150552</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>175408.1348150552</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>165084.2011150552</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>163697.0508150552</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -5335,14 +5335,10 @@
         <v>-152789.7154444792</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="J150" t="n">
-        <v>87.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5372,19 +5368,11 @@
         <v>-151957.3740444792</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="J151" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5416,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5452,19 +5434,11 @@
         <v>-141047.8735444792</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>87.48</v>
-      </c>
-      <c r="J153" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5535,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5574,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5610,19 +5566,11 @@
         <v>-196196.9920248812</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>87.01000000000001</v>
-      </c>
-      <c r="J157" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5651,19 +5599,11 @@
         <v>-196096.9920248812</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J158" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5692,19 +5632,11 @@
         <v>-194957.5000554086</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="J159" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5736,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5775,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5811,19 +5731,11 @@
         <v>-190147.6165554086</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="J162" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5855,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5894,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5933,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5972,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6011,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6050,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6089,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6128,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6167,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6206,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6245,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6284,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6323,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6362,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6401,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6440,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6479,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6515,19 +6325,13 @@
         <v>-253119.6120554087</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>1.01567777139575</v>
+        <v>1</v>
       </c>
       <c r="M180" t="inlineStr"/>
     </row>
@@ -6653,7 +6457,7 @@
         <v>-235882.5741554087</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6686,7 +6490,7 @@
         <v>-235893.7963554087</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6719,7 +6523,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6752,7 +6556,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6785,7 +6589,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6818,7 +6622,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6851,7 +6655,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6884,7 +6688,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6917,7 +6721,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6950,7 +6754,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6983,10 +6787,14 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J194" t="n">
+        <v>88.5</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
@@ -7016,11 +6824,19 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J195" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7049,11 +6865,19 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J196" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7082,10 +6906,14 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J197" t="n">
+        <v>88.5</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
@@ -7115,11 +6943,19 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J198" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7148,11 +6984,19 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J199" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +7025,19 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J200" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7214,11 +7066,19 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J201" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7247,11 +7107,19 @@
         <v>-238633.4985554087</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J202" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7280,11 +7148,19 @@
         <v>-238549.8953554087</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="J203" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +7189,19 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="J204" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7346,11 +7230,19 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="J205" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7379,11 +7271,19 @@
         <v>-303790.3166554087</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="J206" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7412,11 +7312,17 @@
         <v>-302525.3166554087</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7445,11 +7351,17 @@
         <v>-314389.8094554087</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7478,15 +7390,17 @@
         <v>-299389.8094554087</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>88.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+        <v>88.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7521,11 +7435,11 @@
         <v>88.11</v>
       </c>
       <c r="J210" t="n">
-        <v>88.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -7556,15 +7470,15 @@
         <v>-300236.6439554087</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>88.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -7595,11 +7509,19 @@
         <v>-296245.6320554087</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="J212" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7631,8 +7553,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +7589,17 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +7628,17 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7667,19 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="J216" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7708,19 @@
         <v>-290118.2696554087</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="J217" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7749,19 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>89</v>
+      </c>
+      <c r="J218" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +7790,19 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="J219" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7862,8 +7834,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7892,15 +7870,15 @@
         <v>-294594.1552554088</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>88.5</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">

--- a/BackTest/2020-01-19 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5286.6363</v>
       </c>
       <c r="G2" t="n">
-        <v>91430.15841505519</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>9618.740900000001</v>
       </c>
       <c r="G3" t="n">
-        <v>91430.15841505519</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.0001</v>
       </c>
       <c r="G4" t="n">
-        <v>91430.15841505519</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>17099.9839</v>
       </c>
       <c r="G5" t="n">
-        <v>91430.15841505519</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3206.247</v>
       </c>
       <c r="G6" t="n">
-        <v>91430.15841505519</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>320</v>
       </c>
       <c r="G7" t="n">
-        <v>91750.15841505519</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2393.1627</v>
       </c>
       <c r="G8" t="n">
-        <v>91750.15841505519</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1822.6913</v>
       </c>
       <c r="G9" t="n">
-        <v>91750.15841505519</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>991.4008</v>
       </c>
       <c r="G10" t="n">
-        <v>90758.75761505519</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3353.5701</v>
       </c>
       <c r="G11" t="n">
-        <v>94112.32771505519</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>42730</v>
       </c>
       <c r="G12" t="n">
-        <v>51382.32771505519</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>25624.248</v>
       </c>
       <c r="G13" t="n">
-        <v>77006.57571505519</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>7782.4692</v>
       </c>
       <c r="G14" t="n">
-        <v>69224.1065150552</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>437.238</v>
       </c>
       <c r="G15" t="n">
-        <v>69224.1065150552</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3001.771</v>
       </c>
       <c r="G16" t="n">
-        <v>66222.33551505521</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>106.84</v>
       </c>
       <c r="G17" t="n">
-        <v>66115.49551505521</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>991.2346</v>
       </c>
       <c r="G18" t="n">
-        <v>67106.73011505521</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>24831.9708</v>
       </c>
       <c r="G19" t="n">
-        <v>42274.75931505521</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>11603.2425</v>
       </c>
       <c r="G20" t="n">
-        <v>53878.00181505521</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>864.2592</v>
       </c>
       <c r="G21" t="n">
-        <v>53878.00181505521</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>9664.0957</v>
       </c>
       <c r="G22" t="n">
-        <v>44213.90611505522</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>31428.9501</v>
       </c>
       <c r="G23" t="n">
-        <v>75642.85621505522</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>187.4597</v>
       </c>
       <c r="G24" t="n">
-        <v>75455.39651505521</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>410</v>
       </c>
       <c r="G25" t="n">
-        <v>75865.39651505521</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10714.6986</v>
       </c>
       <c r="G26" t="n">
-        <v>65150.69791505521</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2524.7574</v>
       </c>
       <c r="G27" t="n">
-        <v>65150.69791505521</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3040</v>
       </c>
       <c r="G28" t="n">
-        <v>62110.69791505521</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>646.9523</v>
       </c>
       <c r="G29" t="n">
-        <v>62757.6502150552</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2334.1002</v>
       </c>
       <c r="G30" t="n">
-        <v>62757.6502150552</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4347.0166</v>
       </c>
       <c r="G31" t="n">
-        <v>62757.6502150552</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2463.8558</v>
       </c>
       <c r="G32" t="n">
-        <v>62757.6502150552</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>6000</v>
       </c>
       <c r="G33" t="n">
-        <v>68757.65021505521</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>428.1975</v>
       </c>
       <c r="G34" t="n">
-        <v>68757.65021505521</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>13162.1122</v>
       </c>
       <c r="G35" t="n">
-        <v>68757.65021505521</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2267.4381</v>
       </c>
       <c r="G36" t="n">
-        <v>68757.65021505521</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>5703</v>
       </c>
       <c r="G37" t="n">
-        <v>63054.65021505521</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2732.6444</v>
       </c>
       <c r="G38" t="n">
-        <v>60322.00581505521</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2009.8166</v>
       </c>
       <c r="G39" t="n">
-        <v>60322.00581505521</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>855.9526</v>
       </c>
       <c r="G40" t="n">
-        <v>60322.00581505521</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>18090</v>
       </c>
       <c r="G41" t="n">
-        <v>78412.00581505522</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3325.519</v>
       </c>
       <c r="G42" t="n">
-        <v>81737.52481505522</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>11.1632</v>
       </c>
       <c r="G43" t="n">
-        <v>81726.36161505523</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>3064.8376</v>
       </c>
       <c r="G44" t="n">
-        <v>81726.36161505523</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>178.8536</v>
       </c>
       <c r="G45" t="n">
-        <v>81905.21521505523</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1150.8303</v>
       </c>
       <c r="G46" t="n">
-        <v>81905.21521505523</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2861.1692</v>
       </c>
       <c r="G47" t="n">
-        <v>84766.38441505523</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>7544.9876</v>
       </c>
       <c r="G48" t="n">
-        <v>77221.39681505522</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>9264.0124</v>
       </c>
       <c r="G49" t="n">
-        <v>77221.39681505522</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>369.7067</v>
       </c>
       <c r="G50" t="n">
-        <v>77591.10351505522</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2220</v>
       </c>
       <c r="G51" t="n">
-        <v>79811.10351505522</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10000</v>
       </c>
       <c r="G52" t="n">
-        <v>89811.10351505522</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1916.4114</v>
       </c>
       <c r="G53" t="n">
-        <v>91727.51491505522</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>61955.0007</v>
       </c>
       <c r="G54" t="n">
-        <v>153682.5156150552</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>0.0001</v>
       </c>
       <c r="G55" t="n">
-        <v>153682.5155150552</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>9.8512</v>
       </c>
       <c r="G56" t="n">
-        <v>153682.5155150552</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>49.9281</v>
       </c>
       <c r="G57" t="n">
-        <v>153682.5155150552</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1166.8963</v>
       </c>
       <c r="G58" t="n">
-        <v>153682.5155150552</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>4103.2771</v>
       </c>
       <c r="G59" t="n">
-        <v>149579.2384150552</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>19787.096</v>
       </c>
       <c r="G60" t="n">
-        <v>129792.1424150552</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>591.6422</v>
       </c>
       <c r="G61" t="n">
-        <v>129792.1424150552</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>344.0485</v>
       </c>
       <c r="G62" t="n">
-        <v>129792.1424150552</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>128792.1424150552</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>7.7017</v>
       </c>
       <c r="G64" t="n">
-        <v>128799.8441150552</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>450.0991</v>
       </c>
       <c r="G65" t="n">
-        <v>128349.7450150552</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1631.9028</v>
       </c>
       <c r="G66" t="n">
-        <v>126717.8422150552</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>126723.8422150552</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>23370</v>
       </c>
       <c r="G68" t="n">
-        <v>150093.8422150552</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>11142.4589</v>
       </c>
       <c r="G69" t="n">
-        <v>161236.3011150552</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>824.5752</v>
       </c>
       <c r="G70" t="n">
-        <v>160411.7259150552</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>5596.6426</v>
       </c>
       <c r="G71" t="n">
-        <v>154815.0833150552</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>17255.7251</v>
       </c>
       <c r="G72" t="n">
-        <v>154815.0833150552</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>10144.2414</v>
       </c>
       <c r="G73" t="n">
-        <v>144670.8419150552</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>404.7691</v>
       </c>
       <c r="G74" t="n">
-        <v>144670.8419150552</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>18651.156</v>
       </c>
       <c r="G75" t="n">
-        <v>163321.9979150552</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>140.6602</v>
       </c>
       <c r="G76" t="n">
-        <v>163462.6581150552</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>250.2379</v>
       </c>
       <c r="G77" t="n">
-        <v>163212.4202150552</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>7680.7692</v>
       </c>
       <c r="G78" t="n">
-        <v>170893.1894150552</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>4514.9454</v>
       </c>
       <c r="G79" t="n">
-        <v>175408.1348150552</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1359.6813</v>
       </c>
       <c r="G80" t="n">
-        <v>176767.8161150552</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>13383.615</v>
       </c>
       <c r="G81" t="n">
-        <v>163384.2011150552</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1130.3391</v>
       </c>
       <c r="G82" t="n">
-        <v>163384.2011150552</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1700</v>
       </c>
       <c r="G83" t="n">
-        <v>165084.2011150552</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1387.1503</v>
       </c>
       <c r="G84" t="n">
-        <v>163697.0508150552</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>5095.6806</v>
       </c>
       <c r="G85" t="n">
-        <v>163697.0508150552</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>599.6552</v>
       </c>
       <c r="G86" t="n">
-        <v>163697.0508150552</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>63799.3349</v>
       </c>
       <c r="G87" t="n">
-        <v>99897.7159150552</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>29371.005</v>
       </c>
       <c r="G88" t="n">
-        <v>70526.7109150552</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1672.164</v>
       </c>
       <c r="G89" t="n">
-        <v>70526.7109150552</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>14003.926</v>
       </c>
       <c r="G90" t="n">
-        <v>70526.7109150552</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>5375.2604</v>
       </c>
       <c r="G91" t="n">
-        <v>65151.4505150552</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>63871.4122</v>
       </c>
       <c r="G92" t="n">
-        <v>1280.038315055201</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>610</v>
       </c>
       <c r="G93" t="n">
-        <v>1890.038315055201</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>7204.5607</v>
       </c>
       <c r="G94" t="n">
-        <v>9094.599015055201</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1157.6734</v>
       </c>
       <c r="G95" t="n">
-        <v>10252.2724150552</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1002.2344</v>
       </c>
       <c r="G96" t="n">
-        <v>9250.038015055201</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>20000</v>
       </c>
       <c r="G97" t="n">
-        <v>-10749.9619849448</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1096.1235</v>
       </c>
       <c r="G98" t="n">
-        <v>-11846.0854849448</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>-13846.0854849448</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>49924.8146</v>
       </c>
       <c r="G100" t="n">
-        <v>-63770.9000849448</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>19.2853</v>
       </c>
       <c r="G101" t="n">
-        <v>-63751.6147849448</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1200</v>
       </c>
       <c r="G102" t="n">
-        <v>-64951.6147849448</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1287.7782</v>
       </c>
       <c r="G103" t="n">
-        <v>-66239.39298494479</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>47952.8068</v>
       </c>
       <c r="G104" t="n">
-        <v>-66239.39298494479</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>7708.4373</v>
       </c>
       <c r="G105" t="n">
-        <v>-66239.39298494479</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>7201.3049</v>
       </c>
       <c r="G106" t="n">
-        <v>-73440.69788494479</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>16000</v>
       </c>
       <c r="G107" t="n">
-        <v>-89440.69788494479</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>4363.154</v>
       </c>
       <c r="G108" t="n">
-        <v>-85077.5438849448</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>13019.3752</v>
       </c>
       <c r="G109" t="n">
-        <v>-72058.1686849448</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1000.2808</v>
       </c>
       <c r="G110" t="n">
-        <v>-73058.44948494479</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>3629.1709</v>
       </c>
       <c r="G111" t="n">
-        <v>-69429.2785849448</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>18980</v>
       </c>
       <c r="G112" t="n">
-        <v>-88409.2785849448</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>4158.0137</v>
       </c>
       <c r="G113" t="n">
-        <v>-92567.29228494479</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>54990.4928</v>
       </c>
       <c r="G114" t="n">
-        <v>-147557.7850849448</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>550.096601886578</v>
       </c>
       <c r="G115" t="n">
-        <v>-147007.6884830582</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>11313.68243857902</v>
       </c>
       <c r="G116" t="n">
-        <v>-135694.0060444792</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>19998.7111</v>
       </c>
       <c r="G117" t="n">
-        <v>-115695.2949444792</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>-115689.2949444792</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>31</v>
       </c>
       <c r="G119" t="n">
-        <v>-115658.2949444792</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>534.723</v>
       </c>
       <c r="G120" t="n">
-        <v>-115123.5719444792</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>22.37</v>
       </c>
       <c r="G121" t="n">
-        <v>-115145.9419444792</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>2300</v>
       </c>
       <c r="G122" t="n">
-        <v>-115145.9419444792</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>10000</v>
       </c>
       <c r="G123" t="n">
-        <v>-115145.9419444792</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>750</v>
       </c>
       <c r="G124" t="n">
-        <v>-115145.9419444792</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>2645.3924</v>
       </c>
       <c r="G125" t="n">
-        <v>-112500.5495444792</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>5350</v>
       </c>
       <c r="G126" t="n">
-        <v>-117850.5495444792</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1136.4656</v>
       </c>
       <c r="G127" t="n">
-        <v>-116714.0839444792</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>5690.7751</v>
       </c>
       <c r="G128" t="n">
-        <v>-111023.3088444792</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1149.8564</v>
       </c>
       <c r="G129" t="n">
-        <v>-111023.3088444792</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>3159.3685</v>
       </c>
       <c r="G130" t="n">
-        <v>-111023.3088444792</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>7056.2642</v>
       </c>
       <c r="G131" t="n">
-        <v>-118079.5730444792</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>19385.5645</v>
       </c>
       <c r="G132" t="n">
-        <v>-137465.1375444792</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>11820</v>
       </c>
       <c r="G133" t="n">
-        <v>-149285.1375444792</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>23000.0001</v>
       </c>
       <c r="G134" t="n">
-        <v>-172285.1376444792</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>4545.7495</v>
       </c>
       <c r="G135" t="n">
-        <v>-167739.3881444792</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>550.0966</v>
       </c>
       <c r="G136" t="n">
-        <v>-168289.4847444792</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>6000</v>
       </c>
       <c r="G137" t="n">
-        <v>-174289.4847444792</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>3846.836</v>
       </c>
       <c r="G138" t="n">
-        <v>-174289.4847444792</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>22900</v>
       </c>
       <c r="G139" t="n">
-        <v>-151389.4847444792</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>74739.7678</v>
       </c>
       <c r="G140" t="n">
-        <v>-76649.71694447921</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>3242.1654</v>
       </c>
       <c r="G141" t="n">
-        <v>-79891.88234447921</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>11140</v>
       </c>
       <c r="G142" t="n">
-        <v>-91031.88234447921</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1082.6088</v>
       </c>
       <c r="G143" t="n">
-        <v>-91031.88234447921</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>150</v>
       </c>
       <c r="G144" t="n">
-        <v>-91181.88234447921</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>4150</v>
       </c>
       <c r="G145" t="n">
-        <v>-95331.88234447921</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>13074.4027</v>
       </c>
       <c r="G146" t="n">
-        <v>-108406.2850444792</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>40349.6129</v>
       </c>
       <c r="G147" t="n">
-        <v>-148755.8979444792</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>15.2072</v>
       </c>
       <c r="G148" t="n">
-        <v>-148771.1051444792</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,19 @@
         <v>63.1821</v>
       </c>
       <c r="G149" t="n">
-        <v>-148707.9230444792</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="I149" t="n">
+        <v>86.84</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4887,23 @@
         <v>4081.7924</v>
       </c>
       <c r="G150" t="n">
-        <v>-152789.7154444792</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>87.05</v>
+      </c>
+      <c r="I150" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4925,23 @@
         <v>832.3414</v>
       </c>
       <c r="G151" t="n">
-        <v>-151957.3740444792</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="I151" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4963,23 @@
         <v>11269.5005</v>
       </c>
       <c r="G152" t="n">
-        <v>-140687.8735444792</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>87.05</v>
+      </c>
+      <c r="I152" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5001,23 @@
         <v>360</v>
       </c>
       <c r="G153" t="n">
-        <v>-141047.8735444792</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>87.48</v>
+      </c>
+      <c r="I153" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5039,23 @@
         <v>39294.897</v>
       </c>
       <c r="G154" t="n">
-        <v>-180342.7705444792</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>87.25</v>
+      </c>
+      <c r="I154" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5077,23 @@
         <v>364.4947</v>
       </c>
       <c r="G155" t="n">
-        <v>-179978.2758444792</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>86.61</v>
+      </c>
+      <c r="I155" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5115,23 @@
         <v>23345.71608040201</v>
       </c>
       <c r="G156" t="n">
-        <v>-203323.9919248812</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>87.3</v>
+      </c>
+      <c r="I156" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5153,23 @@
         <v>7126.9999</v>
       </c>
       <c r="G157" t="n">
-        <v>-196196.9920248812</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>87.01000000000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5191,23 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>-196096.9920248812</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>87.09999999999999</v>
+      </c>
+      <c r="I158" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5229,21 @@
         <v>1139.491969472605</v>
       </c>
       <c r="G159" t="n">
-        <v>-194957.5000554086</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5265,21 @@
         <v>5000</v>
       </c>
       <c r="G160" t="n">
-        <v>-199957.5000554086</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5301,21 @@
         <v>190.1165</v>
       </c>
       <c r="G161" t="n">
-        <v>-200147.6165554086</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5337,21 @@
         <v>10000</v>
       </c>
       <c r="G162" t="n">
-        <v>-190147.6165554086</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5373,21 @@
         <v>19200</v>
       </c>
       <c r="G163" t="n">
-        <v>-170947.6165554086</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5409,21 @@
         <v>3136.8061</v>
       </c>
       <c r="G164" t="n">
-        <v>-170947.6165554086</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5445,21 @@
         <v>702.1493</v>
       </c>
       <c r="G165" t="n">
-        <v>-170947.6165554086</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5481,21 @@
         <v>613.7361</v>
       </c>
       <c r="G166" t="n">
-        <v>-170947.6165554086</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5517,21 @@
         <v>11.387</v>
       </c>
       <c r="G167" t="n">
-        <v>-170936.2295554086</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5553,21 @@
         <v>361.0662</v>
       </c>
       <c r="G168" t="n">
-        <v>-170575.1633554086</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5589,21 @@
         <v>3221.8665</v>
       </c>
       <c r="G169" t="n">
-        <v>-170575.1633554086</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5625,21 @@
         <v>7495.5853</v>
       </c>
       <c r="G170" t="n">
-        <v>-170575.1633554086</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5661,21 @@
         <v>517.4899</v>
       </c>
       <c r="G171" t="n">
-        <v>-170057.6734554087</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5697,21 @@
         <v>50000</v>
       </c>
       <c r="G172" t="n">
-        <v>-220057.6734554087</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5733,21 @@
         <v>181.3861</v>
       </c>
       <c r="G173" t="n">
-        <v>-220239.0595554087</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5769,21 @@
         <v>430.7298</v>
       </c>
       <c r="G174" t="n">
-        <v>-220239.0595554087</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5805,21 @@
         <v>1096.5625</v>
       </c>
       <c r="G175" t="n">
-        <v>-219142.4970554087</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5841,21 @@
         <v>5097.6894</v>
       </c>
       <c r="G176" t="n">
-        <v>-214044.8076554087</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5877,21 @@
         <v>20000</v>
       </c>
       <c r="G177" t="n">
-        <v>-234044.8076554087</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5913,21 @@
         <v>183.0904</v>
       </c>
       <c r="G178" t="n">
-        <v>-233861.7172554087</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5949,21 @@
         <v>44008.9339</v>
       </c>
       <c r="G179" t="n">
-        <v>-277870.6511554087</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5985,21 @@
         <v>24751.0391</v>
       </c>
       <c r="G180" t="n">
-        <v>-253119.6120554087</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6021,21 @@
         <v>5000</v>
       </c>
       <c r="G181" t="n">
-        <v>-248119.6120554087</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6057,21 @@
         <v>1000</v>
       </c>
       <c r="G182" t="n">
-        <v>-249119.6120554087</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6093,21 @@
         <v>88.1558</v>
       </c>
       <c r="G183" t="n">
-        <v>-249031.4562554087</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6129,21 @@
         <v>13148.8821</v>
       </c>
       <c r="G184" t="n">
-        <v>-235882.5741554087</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6165,21 @@
         <v>11.2222</v>
       </c>
       <c r="G185" t="n">
-        <v>-235893.7963554087</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6201,21 @@
         <v>2358.6684</v>
       </c>
       <c r="G186" t="n">
-        <v>-238252.4647554087</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6237,21 @@
         <v>24.2135</v>
       </c>
       <c r="G187" t="n">
-        <v>-238252.4647554087</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6273,21 @@
         <v>150.7571</v>
       </c>
       <c r="G188" t="n">
-        <v>-238252.4647554087</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6309,21 @@
         <v>183.7327</v>
       </c>
       <c r="G189" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6345,21 @@
         <v>350.105</v>
       </c>
       <c r="G190" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6381,21 @@
         <v>1341.8787</v>
       </c>
       <c r="G191" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6417,21 @@
         <v>1059.3372</v>
       </c>
       <c r="G192" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6453,21 @@
         <v>4809.3025</v>
       </c>
       <c r="G193" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,22 +6489,21 @@
         <v>2341.2025</v>
       </c>
       <c r="G194" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J194" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6821,26 +6525,21 @@
         <v>2158.6017</v>
       </c>
       <c r="G195" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J195" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6862,26 +6561,21 @@
         <v>35291.755</v>
       </c>
       <c r="G196" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6903,22 +6597,21 @@
         <v>3907.2803</v>
       </c>
       <c r="G197" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J197" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6940,26 +6633,21 @@
         <v>965.1528</v>
       </c>
       <c r="G198" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J198" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6981,26 +6669,21 @@
         <v>11955.5673</v>
       </c>
       <c r="G199" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J199" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>86.84</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7022,26 +6705,21 @@
         <v>2049.6148</v>
       </c>
       <c r="G200" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J200" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K200" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7063,26 +6741,21 @@
         <v>5223.567</v>
       </c>
       <c r="G201" t="n">
-        <v>-238436.1974554087</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J201" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K201" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7104,26 +6777,21 @@
         <v>197.3011</v>
       </c>
       <c r="G202" t="n">
-        <v>-238633.4985554087</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K202" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7145,26 +6813,21 @@
         <v>83.6032</v>
       </c>
       <c r="G203" t="n">
-        <v>-238549.8953554087</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J203" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K203" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7186,26 +6849,21 @@
         <v>22811.0595</v>
       </c>
       <c r="G204" t="n">
-        <v>-261360.9548554087</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="J204" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K204" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7227,26 +6885,21 @@
         <v>7472.6434</v>
       </c>
       <c r="G205" t="n">
-        <v>-261360.9548554087</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J205" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K205" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7268,26 +6921,21 @@
         <v>42429.3618</v>
       </c>
       <c r="G206" t="n">
-        <v>-303790.3166554087</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J206" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K206" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7309,24 +6957,21 @@
         <v>1265</v>
       </c>
       <c r="G207" t="n">
-        <v>-302525.3166554087</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7348,24 +6993,21 @@
         <v>11864.4928</v>
       </c>
       <c r="G208" t="n">
-        <v>-314389.8094554087</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7387,24 +7029,21 @@
         <v>15000</v>
       </c>
       <c r="G209" t="n">
-        <v>-299389.8094554087</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7426,26 +7065,21 @@
         <v>6.7576</v>
       </c>
       <c r="G210" t="n">
-        <v>-299383.0518554087</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>88.11</v>
-      </c>
-      <c r="J210" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K210" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7467,24 +7101,21 @@
         <v>853.5921</v>
       </c>
       <c r="G211" t="n">
-        <v>-300236.6439554087</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7506,26 +7137,21 @@
         <v>3991.0119</v>
       </c>
       <c r="G212" t="n">
-        <v>-296245.6320554087</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="J212" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K212" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7547,24 +7173,21 @@
         <v>1000</v>
       </c>
       <c r="G213" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K213" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7586,24 +7209,21 @@
         <v>4684</v>
       </c>
       <c r="G214" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7625,24 +7245,21 @@
         <v>3959</v>
       </c>
       <c r="G215" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7664,26 +7281,21 @@
         <v>1171.7991</v>
       </c>
       <c r="G216" t="n">
-        <v>-297245.6320554087</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="J216" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7705,26 +7317,21 @@
         <v>7127.3624</v>
       </c>
       <c r="G217" t="n">
-        <v>-290118.2696554087</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="J217" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K217" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7746,26 +7353,21 @@
         <v>1133</v>
       </c>
       <c r="G218" t="n">
-        <v>-291251.2696554087</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
-        <v>89</v>
-      </c>
-      <c r="J218" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K218" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7787,26 +7389,21 @@
         <v>33185</v>
       </c>
       <c r="G219" t="n">
-        <v>-291251.2696554087</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="J219" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K219" t="inlineStr">
+        <v>86.84</v>
+      </c>
+      <c r="J219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7828,24 +7425,21 @@
         <v>2081.9344</v>
       </c>
       <c r="G220" t="n">
-        <v>-293333.2040554088</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K220" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7867,24 +7461,21 @@
         <v>1260.9512</v>
       </c>
       <c r="G221" t="n">
-        <v>-294594.1552554088</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K221" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="J221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
